--- a/THESIS/DuLieu.xlsx
+++ b/THESIS/DuLieu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BaiHoc" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="444">
   <si>
     <t>ID</t>
   </si>
@@ -238,13 +238,1335 @@
   </si>
   <si>
     <t>Ù DÙL KƠNAC RAC DÙL RƠSÒN KÒN DÙL ME, DÙL BÀP</t>
+  </si>
+  <si>
+    <t>NGUYÊN ÂM</t>
+  </si>
+  <si>
+    <t>PHỤ ÂM</t>
+  </si>
+  <si>
+    <t>PHỤ ÂM ĐÔI</t>
+  </si>
+  <si>
+    <t>PHỤ ÂM BA</t>
+  </si>
+  <si>
+    <t>ÂM ĐẶC BIỆT</t>
+  </si>
+  <si>
+    <t>THANG ĐIỆU (Dấu giọng)</t>
+  </si>
+  <si>
+    <t>LUYỆN TẬP</t>
+  </si>
+  <si>
+    <t>BÀI ĐẦU</t>
+  </si>
+  <si>
+    <t>A B { C D Đ E Ê G H I J K L M N N O Ô Ơ P R S T U Ư W Y a b [ c d đ e ê g h i j k l m n n\ o ô ơ p r s t u ư w y</t>
+  </si>
+  <si>
+    <t>A E Ê I O Ô Ơ U Ư</t>
+  </si>
+  <si>
+    <t>B { C D Đ G H J K L M N N| P R S T W Y</t>
+  </si>
+  <si>
+    <t>Bl Br Ch Cr Dr Gl Gr Jr Kh Kl Kr Mb Mh Mp Mr Nd Nđ Ng Nr Pl Pr Sr Th Tr</t>
+  </si>
+  <si>
+    <t>Mbl Mpr Ndr Ngk Ngg</t>
+  </si>
+  <si>
+    <r>
+      <t>Nguyên âm ngắn:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">nguyên âm có dấu  \ .Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sra\ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(giấy). \n </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Phụ âm xát: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">phụ âm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ở cuối từ. Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>geh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (có).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thanh cao </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(ngang)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">không ghi dấu. Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">do </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(đây). \n </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Thanh thấp: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ghi dấu huyền ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">` </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). Ví dụ: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">dà </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(nước).</t>
+    </r>
+  </si>
+  <si>
+    <t>Gam ho lo me ru sa</t>
+  </si>
+  <si>
+    <t>Bi [o pơ ce chi ka do đo jơ</t>
+  </si>
+  <si>
+    <t>Ne n\ô an\ wa yô</t>
+  </si>
+  <si>
+    <t>Ào àng hồ hờn hờp</t>
+  </si>
+  <si>
+    <t>Bơnah deh sih boh  bơtrơh guh</t>
+  </si>
+  <si>
+    <t>A dà ngai bau blac jak càl dơlam phan bàn anàng lơwa\n lơngap dar as mat</t>
+  </si>
+  <si>
+    <t>E pe kèo gen cèng wer sơrlèt</t>
+  </si>
+  <si>
+    <t>Ê tê bềl sềm sềm bềng rềp mềr rềs dềt</t>
+  </si>
+  <si>
+    <t>I di pria\ niam bơhiàn rơhiang iar phiơn diơng hìu bic gơlik sơntìl sin cing tìp mơ git</t>
+  </si>
+  <si>
+    <t>O so\ boai hòi bòl đòm [òn dong kòp bòr lòt</t>
+  </si>
+  <si>
+    <t>ồ bồ kơlôi mpồl pơrlồm mồng tồr ồs sồt</t>
+  </si>
+  <si>
+    <t>ơ mơ bời brơtơu n\ờk tơl brơm dờng kờn\ dờp bơr đơs jơt</t>
+  </si>
+  <si>
+    <t>u tu\ kơyua puac bơtuah nguài huan [ùi [uơn kơbuờng hùc</t>
+  </si>
+  <si>
+    <t>ư ừn</t>
+  </si>
+  <si>
+    <t>blơi brua\ [lang crih dra\ drà glài grap jrào</t>
+  </si>
+  <si>
+    <t>Ala ala\ hơ hơ\ sa sa\ te\ go\ dơ\ pru</t>
+  </si>
+  <si>
+    <t>khà klê krung</t>
+  </si>
+  <si>
+    <t>mbe mblàng mda mho mpa mprơm mrềt</t>
+  </si>
+  <si>
+    <t>ndơl ndrờm nđờ ngan nggùl ngko nhai nri\ nsrờng ntàu</t>
+  </si>
+  <si>
+    <t>n\cau n\chi n\hơt</t>
+  </si>
+  <si>
+    <t>pal phe plai pràn sre</t>
+  </si>
+  <si>
+    <t>thàm trơgùm</t>
+  </si>
+  <si>
+    <t>Từ vựng</t>
+  </si>
+  <si>
+    <t>Luyện tập</t>
+  </si>
+  <si>
+    <t>dùl</t>
+  </si>
+  <si>
+    <t>bàr</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>puan (puơn, poan)</t>
+  </si>
+  <si>
+    <t>pram</t>
+  </si>
+  <si>
+    <t>prau</t>
+  </si>
+  <si>
+    <t>poh</t>
+  </si>
+  <si>
+    <t>phàm</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>jơt</t>
+  </si>
+  <si>
+    <t>dùl rơhiang</t>
+  </si>
+  <si>
+    <t>dùl rờbô</t>
+  </si>
+  <si>
+    <t>dùl tờlak</t>
+  </si>
+  <si>
+    <t>dùl tơman</t>
+  </si>
+  <si>
+    <t>1.000.000</t>
+  </si>
+  <si>
+    <t>1.000.000.000</t>
+  </si>
+  <si>
+    <t>Jơnau</t>
+  </si>
+  <si>
+    <t>Kha</t>
+  </si>
+  <si>
+    <t>Đong</t>
+  </si>
+  <si>
+    <t>Đal</t>
+  </si>
+  <si>
+    <t>Kờp</t>
+  </si>
+  <si>
+    <t>Làh</t>
+  </si>
+  <si>
+    <t>Bơh … tus …</t>
+  </si>
+  <si>
+    <t>Mơ</t>
+  </si>
+  <si>
+    <t>Nđờ</t>
+  </si>
+  <si>
+    <t>bài</t>
+  </si>
+  <si>
+    <t>số</t>
+  </si>
+  <si>
+    <t>đồng</t>
+  </si>
+  <si>
+    <t>đọc</t>
+  </si>
+  <si>
+    <t>đếm</t>
+  </si>
+  <si>
+    <t>là</t>
+  </si>
+  <si>
+    <t>từ … đến …</t>
+  </si>
+  <si>
+    <t>với, và</t>
+  </si>
+  <si>
+    <t>mấy? Bao nhiêu?</t>
+  </si>
+  <si>
+    <t>Kờp bơh khà dùl tus khà bàr jơt.</t>
+  </si>
+  <si>
+    <t>Kờp bơh khà jớt tus khà dùl.</t>
+  </si>
+  <si>
+    <t>Đal: 2.153.978.654 đong.</t>
+  </si>
+  <si>
+    <t>Dùl rơhiang mơ puan rơhiang làh nđờ rờhiang?</t>
+  </si>
+  <si>
+    <t>Dùl rờhiang mờ puan rơhiang làh pram rơhiang.</t>
+  </si>
+  <si>
+    <t>Đếm từ số 1 đến số 20.</t>
+  </si>
+  <si>
+    <t>Đếm từ số 10 đến số 1.</t>
+  </si>
+  <si>
+    <t>Đọc: 2.153.978.645 đồng.</t>
+  </si>
+  <si>
+    <t>Một trăm với bốn trăm là mấy trăm?</t>
+  </si>
+  <si>
+    <t>Một trăm với bốn trăm là năm trăm</t>
+  </si>
+  <si>
+    <t>Dịch tiếng Cơ Ho sang tiếng Việt</t>
+  </si>
+  <si>
+    <t>Ngai dơ\ nđờ?</t>
+  </si>
+  <si>
+    <t>Ngai dơ\ bàr.</t>
+  </si>
+  <si>
+    <t>Ngai lơi?</t>
+  </si>
+  <si>
+    <t>Ngai sin nhai bàr nam bàr rờbô pram.</t>
+  </si>
+  <si>
+    <t>Ngày thứ mấy?</t>
+  </si>
+  <si>
+    <t>Ngày thứ hai.</t>
+  </si>
+  <si>
+    <t>Ngày mấy?</t>
+  </si>
+  <si>
+    <t>Ngày 9 tháng 2 năm 2015.</t>
+  </si>
+  <si>
+    <t>Tu\</t>
+  </si>
+  <si>
+    <t>Jơ</t>
+  </si>
+  <si>
+    <t>Nggùl jơ</t>
+  </si>
+  <si>
+    <t>Phuk</t>
+  </si>
+  <si>
+    <t>Ngai</t>
+  </si>
+  <si>
+    <t>Tu\ tơngai</t>
+  </si>
+  <si>
+    <t>Dơ\ bàr</t>
+  </si>
+  <si>
+    <t>Ngai n\ờk</t>
+  </si>
+  <si>
+    <t>Nhai</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Ngai do</t>
+  </si>
+  <si>
+    <t>Ngai hìng</t>
+  </si>
+  <si>
+    <t>Ngai hìng nau</t>
+  </si>
+  <si>
+    <t>Ngai dơ là</t>
+  </si>
+  <si>
+    <t>Drim</t>
+  </si>
+  <si>
+    <t>Mho</t>
+  </si>
+  <si>
+    <t>Mang</t>
+  </si>
+  <si>
+    <t>Mè (me)</t>
+  </si>
+  <si>
+    <t>An\</t>
+  </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>Lòt</t>
+  </si>
+  <si>
+    <t>Rê</t>
+  </si>
+  <si>
+    <t>Bic</t>
+  </si>
+  <si>
+    <t>Rơle\</t>
+  </si>
+  <si>
+    <t>Rơlô</t>
+  </si>
+  <si>
+    <t>Guh</t>
+  </si>
+  <si>
+    <t>Lơh</t>
+  </si>
+  <si>
+    <t>Broa\ (brua\)</t>
+  </si>
+  <si>
+    <t>Sang te\</t>
+  </si>
+  <si>
+    <t>Ban\</t>
+  </si>
+  <si>
+    <t>Lơi?</t>
+  </si>
+  <si>
+    <t>Pơ?</t>
+  </si>
+  <si>
+    <t>Nđờ?</t>
+  </si>
+  <si>
+    <t>lúc, khi</t>
+  </si>
+  <si>
+    <t>giờ</t>
+  </si>
+  <si>
+    <t>nửa giờ</t>
+  </si>
+  <si>
+    <t>phút</t>
+  </si>
+  <si>
+    <t>ngày</t>
+  </si>
+  <si>
+    <t>thời gian</t>
+  </si>
+  <si>
+    <t>thứ hai</t>
+  </si>
+  <si>
+    <t>ngày chủ nhật</t>
+  </si>
+  <si>
+    <t>tháng, mùa</t>
+  </si>
+  <si>
+    <t>năm</t>
+  </si>
+  <si>
+    <t>hôm nay</t>
+  </si>
+  <si>
+    <t>ngày mai</t>
+  </si>
+  <si>
+    <t>ngày mốt</t>
+  </si>
+  <si>
+    <t>ngày kia</t>
+  </si>
+  <si>
+    <t>sáng</t>
+  </si>
+  <si>
+    <t>chiều</t>
+  </si>
+  <si>
+    <t>tối</t>
+  </si>
+  <si>
+    <t>mẹ</t>
+  </si>
+  <si>
+    <t>tôi</t>
+  </si>
+  <si>
+    <t>anh</t>
+  </si>
+  <si>
+    <t>đi</t>
+  </si>
+  <si>
+    <t>đi về</t>
+  </si>
+  <si>
+    <t>ngủ</t>
+  </si>
+  <si>
+    <t>chậm</t>
+  </si>
+  <si>
+    <t>nghỉ ngơi</t>
+  </si>
+  <si>
+    <t>thức dậy</t>
+  </si>
+  <si>
+    <t>làm</t>
+  </si>
+  <si>
+    <t>công việc</t>
+  </si>
+  <si>
+    <t>lãng phí</t>
+  </si>
+  <si>
+    <t>đừng</t>
+  </si>
+  <si>
+    <t>mấy? nào?</t>
+  </si>
+  <si>
+    <t>nào?</t>
+  </si>
+  <si>
+    <t>mấy?</t>
+  </si>
+  <si>
+    <t>Tu\ lơi bi rê bic?</t>
+  </si>
+  <si>
+    <t>An\ rê bic tu\ jơt jơ.</t>
+  </si>
+  <si>
+    <t>Àng drim nđờ jơ bi guh bic?</t>
+  </si>
+  <si>
+    <t>Prau jơ drim an\ guh bic.</t>
+  </si>
+  <si>
+    <t>Ngai hìng nđờ jơ mè lòt broa\?</t>
+  </si>
+  <si>
+    <t>Drim hìng mè lòt lơh broa\ tu\ poh jơ.</t>
+  </si>
+  <si>
+    <t>Ngai do làh ngai dơ\ nđờ?</t>
+  </si>
+  <si>
+    <t>Ngai do làh ngai dơ\ pram.</t>
+  </si>
+  <si>
+    <t>Ngai hìng làh ngai pơ?</t>
+  </si>
+  <si>
+    <t>Ngai hìng làh ngai dơ\ prau.</t>
+  </si>
+  <si>
+    <t>Ngai hìng nau làh ngai nđờ?</t>
+  </si>
+  <si>
+    <t>Ngai hìng nau làh ngai bàr jơt pe.</t>
+  </si>
+  <si>
+    <t>Ngai dơ là làh ngai dơ\ nđờ?</t>
+  </si>
+  <si>
+    <t>Ngai dơ là làh ngai n\ờk, ngai rơlô.</t>
+  </si>
+  <si>
+    <t>Khi nào anh đi ngủ?</t>
+  </si>
+  <si>
+    <t>Tôi đi ngủ lúc 10 giờ.</t>
+  </si>
+  <si>
+    <t>Buổi sáng mấy giờ anh thức dậy?</t>
+  </si>
+  <si>
+    <t>Sáu giờ sáng tôi thức dậy.</t>
+  </si>
+  <si>
+    <t>Ngày mai mẹ đi làm lúc mấy giờ?</t>
+  </si>
+  <si>
+    <t>Sáng mai mẹ đi làm lúc bảy giờ.</t>
+  </si>
+  <si>
+    <t>Hôm này là ngày thứ mấy?</t>
+  </si>
+  <si>
+    <t>Hôm nay là ngày thứ năm.</t>
+  </si>
+  <si>
+    <t>Ngày mai là ngày nào?</t>
+  </si>
+  <si>
+    <t>Ngày mai là ngày thứ sáu.</t>
+  </si>
+  <si>
+    <t>Ngày mốt là ngày bao nhiêu?</t>
+  </si>
+  <si>
+    <t>N|CHI DO?</t>
+  </si>
+  <si>
+    <t>CÁI GÌ ĐÂY?</t>
+  </si>
+  <si>
+    <t>N|CAU HƠ|?</t>
+  </si>
+  <si>
+    <t>AI ĐÓ?</t>
+  </si>
+  <si>
+    <t>DÀ GUR LƠI?</t>
+  </si>
+  <si>
+    <t>MÀU GÌ?</t>
+  </si>
+  <si>
+    <t>NTỀNG?</t>
+  </si>
+  <si>
+    <t>ĐÂU?</t>
+  </si>
+  <si>
+    <t>N|CHI BƠH TÀI?</t>
+  </si>
+  <si>
+    <t>TẠI SAO?</t>
+  </si>
+  <si>
+    <t>Đàm thoại</t>
+  </si>
+  <si>
+    <t>Bồ</t>
+  </si>
+  <si>
+    <t>đầu</t>
+  </si>
+  <si>
+    <t>Tồr</t>
+  </si>
+  <si>
+    <t>tai</t>
+  </si>
+  <si>
+    <t>Ngko</t>
+  </si>
+  <si>
+    <t>cổ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So\ </t>
+  </si>
+  <si>
+    <t>tóc</t>
+  </si>
+  <si>
+    <t>Bơr</t>
+  </si>
+  <si>
+    <t>miệng</t>
+  </si>
+  <si>
+    <t>Mat</t>
+  </si>
+  <si>
+    <t>mắt</t>
+  </si>
+  <si>
+    <t>Muh</t>
+  </si>
+  <si>
+    <t>mũi</t>
+  </si>
+  <si>
+    <t>Tê</t>
+  </si>
+  <si>
+    <t>tay</t>
+  </si>
+  <si>
+    <t>Ndul</t>
+  </si>
+  <si>
+    <t>bụng</t>
+  </si>
+  <si>
+    <t>Jơng</t>
+  </si>
+  <si>
+    <t>chân</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>đây, này</t>
+  </si>
+  <si>
+    <t>Lùp</t>
+  </si>
+  <si>
+    <t>hỏi</t>
+  </si>
+  <si>
+    <t>Hơ</t>
+  </si>
+  <si>
+    <t>trả lời</t>
+  </si>
+  <si>
+    <t>N|||chi?</t>
+  </si>
+  <si>
+    <t>cái gì?</t>
+  </si>
+  <si>
+    <t>Bol an\</t>
+  </si>
+  <si>
+    <t>chúng tôi</t>
+  </si>
+  <si>
+    <t>Mê</t>
+  </si>
+  <si>
+    <t>mày, anh (danh cho nam giới)</t>
+  </si>
+  <si>
+    <t>Ai</t>
+  </si>
+  <si>
+    <t>mày (dành cho nữ giới)</t>
+  </si>
+  <si>
+    <t>Oh</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>Oh mi (bi)</t>
+  </si>
+  <si>
+    <t>anh em</t>
+  </si>
+  <si>
+    <t>Khai</t>
+  </si>
+  <si>
+    <t>nó, anh ấy</t>
+  </si>
+  <si>
+    <t>Khi</t>
+  </si>
+  <si>
+    <t>họ</t>
+  </si>
+  <si>
+    <t>Nă</t>
+  </si>
+  <si>
+    <t>người, đứa</t>
+  </si>
+  <si>
+    <t>Bau</t>
+  </si>
+  <si>
+    <t>vợ, chồng</t>
+  </si>
+  <si>
+    <t>Bal</t>
+  </si>
+  <si>
+    <t>cùng</t>
+  </si>
+  <si>
+    <t>Tờlir</t>
+  </si>
+  <si>
+    <t>xanh</t>
+  </si>
+  <si>
+    <t>Pơrhê</t>
+  </si>
+  <si>
+    <t>đỏ</t>
+  </si>
+  <si>
+    <t>Dum ring</t>
+  </si>
+  <si>
+    <t>nâu</t>
+  </si>
+  <si>
+    <t>Dum phồng</t>
+  </si>
+  <si>
+    <t>hồng</t>
+  </si>
+  <si>
+    <t>Rờmit</t>
+  </si>
+  <si>
+    <t>vàng</t>
+  </si>
+  <si>
+    <t>Jù (wàm, ồt, nđồc)</t>
+  </si>
+  <si>
+    <t>đen</t>
+  </si>
+  <si>
+    <t>Bò (kò)</t>
+  </si>
+  <si>
+    <t>trắng</t>
+  </si>
+  <si>
+    <t>Dà gur</t>
+  </si>
+  <si>
+    <t>nước, màu</t>
+  </si>
+  <si>
+    <t>Ào</t>
+  </si>
+  <si>
+    <t>áo</t>
+  </si>
+  <si>
+    <t>Rơwah (sac)</t>
+  </si>
+  <si>
+    <t>chọn</t>
+  </si>
+  <si>
+    <t>Tềng (anih, cồh)</t>
+  </si>
+  <si>
+    <t>chổ</t>
+  </si>
+  <si>
+    <t>Tềng do</t>
+  </si>
+  <si>
+    <t>ở đây</t>
+  </si>
+  <si>
+    <t>Anih do</t>
+  </si>
+  <si>
+    <t>chổ này</t>
+  </si>
+  <si>
+    <t>Anih ne</t>
+  </si>
+  <si>
+    <t>Đah do</t>
+  </si>
+  <si>
+    <t>bên này</t>
+  </si>
+  <si>
+    <t>Đah ne</t>
+  </si>
+  <si>
+    <t>bên kia</t>
+  </si>
+  <si>
+    <t>Đah ma</t>
+  </si>
+  <si>
+    <t>bên phải</t>
+  </si>
+  <si>
+    <t>Đah kiau (kiơu)</t>
+  </si>
+  <si>
+    <t>bên trái</t>
+  </si>
+  <si>
+    <t>Hơ đang</t>
+  </si>
+  <si>
+    <t>ở trên</t>
+  </si>
+  <si>
+    <t>Hơ đơm</t>
+  </si>
+  <si>
+    <t>ở dưới</t>
+  </si>
+  <si>
+    <t>Tềng (tơ) gùl</t>
+  </si>
+  <si>
+    <t>ở giữa</t>
+  </si>
+  <si>
+    <t>Tàm dơlam</t>
+  </si>
+  <si>
+    <t>bên trong</t>
+  </si>
+  <si>
+    <t>Bơdìh</t>
+  </si>
+  <si>
+    <t>ở ngoài</t>
+  </si>
+  <si>
+    <t>Tơ kêng</t>
+  </si>
+  <si>
+    <t>bên cạnh</t>
+  </si>
+  <si>
+    <t>Tơ (hơ) đap</t>
+  </si>
+  <si>
+    <t>phía trước</t>
+  </si>
+  <si>
+    <t>đằng sau</t>
+  </si>
+  <si>
+    <t>Rềp</t>
+  </si>
+  <si>
+    <t>gần</t>
+  </si>
+  <si>
+    <t>Ơm</t>
+  </si>
+  <si>
+    <t>ở</t>
+  </si>
+  <si>
+    <t>{òn</t>
+  </si>
+  <si>
+    <t>buôn</t>
+  </si>
+  <si>
+    <t>Sàh</t>
+  </si>
+  <si>
+    <t>xã</t>
+  </si>
+  <si>
+    <t>Gùng</t>
+  </si>
+  <si>
+    <t>đường</t>
+  </si>
+  <si>
+    <t>Sră</t>
+  </si>
+  <si>
+    <t>giấy, quyển sách</t>
+  </si>
+  <si>
+    <t>Cih</t>
+  </si>
+  <si>
+    <t>viết</t>
+  </si>
+  <si>
+    <t>Sră cih</t>
+  </si>
+  <si>
+    <t>quyển vở</t>
+  </si>
+  <si>
+    <t>Gai cih</t>
+  </si>
+  <si>
+    <t>cây viết</t>
+  </si>
+  <si>
+    <t>Ntềng (mpa đah)</t>
+  </si>
+  <si>
+    <t>đâu?</t>
+  </si>
+  <si>
+    <t>Tơ (hơ) nỡ</t>
+  </si>
+  <si>
+    <t>Tàm</t>
+  </si>
+  <si>
+    <t>ở, tại</t>
+  </si>
+  <si>
+    <t>Jơnau (dà) Kơho</t>
+  </si>
+  <si>
+    <t>tiếng Cơ Ho</t>
+  </si>
+  <si>
+    <t>Gơboh</t>
+  </si>
+  <si>
+    <t>thích</t>
+  </si>
+  <si>
+    <t>Bơsram</t>
+  </si>
+  <si>
+    <t>học</t>
+  </si>
+  <si>
+    <t>Kờn\</t>
+  </si>
+  <si>
+    <t>muốn</t>
+  </si>
+  <si>
+    <t>Đơs</t>
+  </si>
+  <si>
+    <t>nói</t>
+  </si>
+  <si>
+    <t>Iat</t>
+  </si>
+  <si>
+    <t>nghe</t>
+  </si>
+  <si>
+    <t>Wă</t>
+  </si>
+  <si>
+    <t>hiểu</t>
+  </si>
+  <si>
+    <t>Prap gàr</t>
+  </si>
+  <si>
+    <t>bảo tồn</t>
+  </si>
+  <si>
+    <t>Pal</t>
+  </si>
+  <si>
+    <t>hãy</t>
+  </si>
+  <si>
+    <t>N|chi bowh tài?</t>
+  </si>
+  <si>
+    <t>tại sao?</t>
+  </si>
+  <si>
+    <t>Tài bơh</t>
+  </si>
+  <si>
+    <t>tại vì, vì</t>
+  </si>
+  <si>
+    <t>N|chi do? (Do làh n\chi pơ?)</t>
+  </si>
+  <si>
+    <t>Do làh ………………….</t>
+  </si>
+  <si>
+    <t>Cái gì đây? (Đây là cái gì?)</t>
+  </si>
+  <si>
+    <t>Đây là ………………….</t>
+  </si>
+  <si>
+    <t>Mê lòt mơ n\cau?</t>
+  </si>
+  <si>
+    <t>N|cau lòt bal mơ mê?</t>
+  </si>
+  <si>
+    <t>An\ lòt is dùl nă.</t>
+  </si>
+  <si>
+    <t>An\ lòt mơ bau an\.</t>
+  </si>
+  <si>
+    <t>Anh đi với ai?</t>
+  </si>
+  <si>
+    <t>Tôi đi một mình</t>
+  </si>
+  <si>
+    <t>Ai đi cùng với anh?</t>
+  </si>
+  <si>
+    <t>Tôi đi với vợ tôi.</t>
+  </si>
+  <si>
+    <t>Bi rơwah ào dà pơ?</t>
+  </si>
+  <si>
+    <t>An\ rơwah ào dà tơlir</t>
+  </si>
+  <si>
+    <t>Anh chọn áo màu nào?</t>
+  </si>
+  <si>
+    <t>Tôi chọn áo màu xanh.</t>
+  </si>
+  <si>
+    <t>Gùng do mpa đah lòt?</t>
+  </si>
+  <si>
+    <t>Gùng do lòt tus sàh Lat.</t>
+  </si>
+  <si>
+    <t>Bi mpa đah ơm?</t>
+  </si>
+  <si>
+    <t>An\ ơm [òn Bơdơr.</t>
+  </si>
+  <si>
+    <t>Mpa đah sră?</t>
+  </si>
+  <si>
+    <t>Sră ơm rềp sră cih.</t>
+  </si>
+  <si>
+    <t>Gai cih mpa đah?</t>
+  </si>
+  <si>
+    <t>Gai cih tàm …….hồp.</t>
+  </si>
+  <si>
+    <t>Đường này đi đâu?</t>
+  </si>
+  <si>
+    <t>Đường này đi đến xã Lát.</t>
+  </si>
+  <si>
+    <t>Anh ở đâu?</t>
+  </si>
+  <si>
+    <t>Tôi ở buôn Bờ Đơr.</t>
+  </si>
+  <si>
+    <t>Quyển sách ở đâu?</t>
+  </si>
+  <si>
+    <t>Quyển sách ở gần quyển vở.</t>
+  </si>
+  <si>
+    <t>Cây bút ở đâu?</t>
+  </si>
+  <si>
+    <t>Cây bút ở ……. cái hộp.</t>
+  </si>
+  <si>
+    <t>N|chi bơh tài bi gơboh bơsram jơnau Kơho?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tài bơh an\ kờn\ đơs, iat mơ wa\ jơnau Kơho. </t>
+  </si>
+  <si>
+    <t>Tại sao anh thích học tiếng Cơ Ho?</t>
+  </si>
+  <si>
+    <t>Vì tôi muốn nói, nghe và hiểu được tiếng Cơ Ho.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +1580,40 @@
       <name val="TNKeyUni-Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="TNKeyUni-Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="TNKeyUni-Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="TNKeyUni-Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="TNKeyUni-Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +1623,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -275,11 +1631,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -287,6 +1671,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1494,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:D100"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2645,13 +4046,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2672,40 +4077,94 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2743,82 +4202,100 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3172,13 +4649,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3199,153 +4679,291 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3697,15 +5315,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3722,499 +5344,2134 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="7">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D65" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D67" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D68" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D69" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D71" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D79" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D80" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D81" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D83" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D84" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D85" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D87" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D88" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D89" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D90" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D91" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D92" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D93" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D94" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D95" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D96" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D97" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D98" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D99" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D100" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D101" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D102" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D103" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D104" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D105" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D106" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D107" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D108" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D109" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D110" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D111" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D112" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D113" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D114" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D115" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D116" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D117" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D118" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D119" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D120" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D121" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D122" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D123" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D124" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D125" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D126" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D127" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D128" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D129" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D130" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D131" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4226,13 +7483,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="94.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -4255,237 +7518,511 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F33" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4760,12 +8297,19 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4795,14 +8339,32 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -4810,19 +8372,43 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="1">
         <v>7</v>
       </c>
     </row>
@@ -5288,6 +8874,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5301,7 +8888,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5822,13 +9412,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -5851,49 +9447,184 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F5" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F6" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F7" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F8" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6355,13 +10086,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6378,24 +10113,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/THESIS/DuLieu.xlsx
+++ b/THESIS/DuLieu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="BaiHoc" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="638">
   <si>
     <t>ID</t>
   </si>
@@ -1561,6 +1561,1089 @@
   <si>
     <t>Vì tôi muốn nói, nghe và hiểu được tiếng Cơ Ho.</t>
   </si>
+  <si>
+    <t>Bài khóa</t>
+  </si>
+  <si>
+    <t>Niam sa\.</t>
+  </si>
+  <si>
+    <t>Mê pràn kơldang sơl?</t>
+  </si>
+  <si>
+    <t>Ừn ngài, pràn đau.</t>
+  </si>
+  <si>
+    <t>Mê ntềng lòt gen? Ntềng lòt gơ jal ir?</t>
+  </si>
+  <si>
+    <t>Ơi! An\ lòt trơgùm tàm sàh.</t>
+  </si>
+  <si>
+    <t>Dan jà mut tàm hìu hùc dà.</t>
+  </si>
+  <si>
+    <t>Dan sa\ an\ ờ ru, kơp ngài ndai. Ngac yơ!</t>
+  </si>
+  <si>
+    <t>Xin chào.</t>
+  </si>
+  <si>
+    <t>Anh có khỏe không?</t>
+  </si>
+  <si>
+    <t>Cám ơn, cũng khỏe.</t>
+  </si>
+  <si>
+    <t>Anh đi đâu đó? Đi đâu mà vội vàng thế?</t>
+  </si>
+  <si>
+    <t>À! Mình đi họp ở xã.</t>
+  </si>
+  <si>
+    <t>Mời vào nhà uống nước.</t>
+  </si>
+  <si>
+    <t>Xin lỗi, mình bận quá, hẹn lúc khác. Tạm biệt!</t>
+  </si>
+  <si>
+    <t>tốt đẹp</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>thân thể</t>
+  </si>
+  <si>
+    <t>Niam sa\</t>
+  </si>
+  <si>
+    <t>xin chào</t>
+  </si>
+  <si>
+    <t>Sơnđan</t>
+  </si>
+  <si>
+    <t>tên</t>
+  </si>
+  <si>
+    <t>Ừn ngài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cảm ơn </t>
+  </si>
+  <si>
+    <t>Ngac yơ</t>
+  </si>
+  <si>
+    <t>tạm biệt</t>
+  </si>
+  <si>
+    <t>Sơnam</t>
+  </si>
+  <si>
+    <t>tuổi</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>rảnh</t>
+  </si>
+  <si>
+    <t>Ờ ru</t>
+  </si>
+  <si>
+    <t>không rảnh, bận</t>
+  </si>
+  <si>
+    <t>Ndai</t>
+  </si>
+  <si>
+    <t>khác</t>
+  </si>
+  <si>
+    <t>Jà</t>
+  </si>
+  <si>
+    <t>rủ, mời</t>
+  </si>
+  <si>
+    <t>Mut</t>
+  </si>
+  <si>
+    <t>vào</t>
+  </si>
+  <si>
+    <t>Hù</t>
+  </si>
+  <si>
+    <t>cuống</t>
+  </si>
+  <si>
+    <t>Kơp</t>
+  </si>
+  <si>
+    <t>chờ</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>biết</t>
+  </si>
+  <si>
+    <t>Adat</t>
+  </si>
+  <si>
+    <t>tôn trọng</t>
+  </si>
+  <si>
+    <t>Trơgùm</t>
+  </si>
+  <si>
+    <t>họp</t>
+  </si>
+  <si>
+    <t>Pràn</t>
+  </si>
+  <si>
+    <t>khỏe</t>
+  </si>
+  <si>
+    <t>Kơldang</t>
+  </si>
+  <si>
+    <t>cứng cáp</t>
+  </si>
+  <si>
+    <t>Pràn kơldang sơl? (pràn ờ?)</t>
+  </si>
+  <si>
+    <t>có khỏe không?</t>
+  </si>
+  <si>
+    <t>Pràn đau</t>
+  </si>
+  <si>
+    <t>cũng khỏe</t>
+  </si>
+  <si>
+    <t>Gơ jal ir</t>
+  </si>
+  <si>
+    <t>vội vàng thế</t>
+  </si>
+  <si>
+    <t>anh (người ngang hàng) - mày (người nhỏ tuổi hơn)</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>anh (tôn trọng)</t>
+  </si>
+  <si>
+    <t>Sồng</t>
+  </si>
+  <si>
+    <t>thì</t>
+  </si>
+  <si>
+    <t>Ơi!</t>
+  </si>
+  <si>
+    <t>à!</t>
+  </si>
+  <si>
+    <t>Niam</t>
+  </si>
+  <si>
+    <t>Câu hỏi</t>
+  </si>
+  <si>
+    <t>N|CAU?</t>
+  </si>
+  <si>
+    <t>AI?</t>
+  </si>
+  <si>
+    <t>Khai hơ\ làh cau lơi?</t>
+  </si>
+  <si>
+    <t>Khai hơ\ làh K’Bik.</t>
+  </si>
+  <si>
+    <t>Anh ấy là ai?</t>
+  </si>
+  <si>
+    <t>Anh ấy là K’Bik.</t>
+  </si>
+  <si>
+    <t>LƠH BROA| LƠI? (NĐAN BROA| LƠH?)</t>
+  </si>
+  <si>
+    <t>LÀM NGHỀ GÌ?</t>
+  </si>
+  <si>
+    <t>K’Bik lơh broa\ lơi?</t>
+  </si>
+  <si>
+    <t>K’Bik lơh làng.</t>
+  </si>
+  <si>
+    <t>K’Bik làm nghề gì?</t>
+  </si>
+  <si>
+    <t>K’Bik là nông dân.</t>
+  </si>
+  <si>
+    <t>ƠM ANIH LƠI?</t>
+  </si>
+  <si>
+    <t>Ở ĐÂU?</t>
+  </si>
+  <si>
+    <t>K’Bik ơm anih lơi?</t>
+  </si>
+  <si>
+    <t>Khai ơm tàm [òn B.</t>
+  </si>
+  <si>
+    <t>K’Bik ở đâu?</t>
+  </si>
+  <si>
+    <t>Anh ấy ở thôn B.</t>
+  </si>
+  <si>
+    <t>GAM LƠH N|CHI LƠI?</t>
+  </si>
+  <si>
+    <t>ĐANG LÀM GÌ?</t>
+  </si>
+  <si>
+    <t>K’Bik gam lơh n\chi lơi?</t>
+  </si>
+  <si>
+    <t>K’Bik gam po\ ù.</t>
+  </si>
+  <si>
+    <t>K’Bik đang làm gì?</t>
+  </si>
+  <si>
+    <t>K’Bik đang cuốc đất.</t>
+  </si>
+  <si>
+    <t>Lơh làng</t>
+  </si>
+  <si>
+    <t>nông dân</t>
+  </si>
+  <si>
+    <t>Pôgru (pugru)</t>
+  </si>
+  <si>
+    <t>giáo viên</t>
+  </si>
+  <si>
+    <t>Bak sìh (bác sĩ)</t>
+  </si>
+  <si>
+    <t>bác sĩ</t>
+  </si>
+  <si>
+    <t>Hìu (hiu)</t>
+  </si>
+  <si>
+    <t>nhà</t>
+  </si>
+  <si>
+    <t>Bơnha</t>
+  </si>
+  <si>
+    <t>bếp</t>
+  </si>
+  <si>
+    <t>Hìu nha\</t>
+  </si>
+  <si>
+    <t>gia đình</t>
+  </si>
+  <si>
+    <t>Phan</t>
+  </si>
+  <si>
+    <t>đồ vật, của cải</t>
+  </si>
+  <si>
+    <t>Sơnơm</t>
+  </si>
+  <si>
+    <t>thuốc</t>
+  </si>
+  <si>
+    <t>Dềt</t>
+  </si>
+  <si>
+    <t>nhỏ</t>
+  </si>
+  <si>
+    <t>Hìu sơnơm dềt</t>
+  </si>
+  <si>
+    <t>trạm y tế</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>cầm</t>
+  </si>
+  <si>
+    <t>At bồ</t>
+  </si>
+  <si>
+    <t>cầm đầu</t>
+  </si>
+  <si>
+    <t>Cau at bồ</t>
+  </si>
+  <si>
+    <t>trưởng, người lãnh đạo</t>
+  </si>
+  <si>
+    <t>Yal</t>
+  </si>
+  <si>
+    <t>giới thiệu</t>
+  </si>
+  <si>
+    <t>Neh</t>
+  </si>
+  <si>
+    <t>đã</t>
+  </si>
+  <si>
+    <t>Geh</t>
+  </si>
+  <si>
+    <t>có</t>
+  </si>
+  <si>
+    <t>Kis</t>
+  </si>
+  <si>
+    <t>sống</t>
+  </si>
+  <si>
+    <t>ăn</t>
+  </si>
+  <si>
+    <t>Po\ ù</t>
+  </si>
+  <si>
+    <t>cuốc đất</t>
+  </si>
+  <si>
+    <t>Pơ\ tơngời</t>
+  </si>
+  <si>
+    <t>bẻ bắp</t>
+  </si>
+  <si>
+    <t>Pic (pik, tik) kà phe</t>
+  </si>
+  <si>
+    <t>hái cà phê</t>
+  </si>
+  <si>
+    <t>Pic (pik, tic) ce</t>
+  </si>
+  <si>
+    <t>hái chè</t>
+  </si>
+  <si>
+    <t>Gam</t>
+  </si>
+  <si>
+    <t>đang</t>
+  </si>
+  <si>
+    <t>Gam rơlùng</t>
+  </si>
+  <si>
+    <t>độc thân</t>
+  </si>
+  <si>
+    <t>Ha lah</t>
+  </si>
+  <si>
+    <t>hay là</t>
+  </si>
+  <si>
+    <t>còn</t>
+  </si>
+  <si>
+    <t>N|cau do?</t>
+  </si>
+  <si>
+    <t>N|cau gen?</t>
+  </si>
+  <si>
+    <t>Bi neh nđờ sơnam?</t>
+  </si>
+  <si>
+    <t>Bi lơh broa\ lơi?</t>
+  </si>
+  <si>
+    <t>Bi neh geh hìu nha\ ha lah ờ hềt?</t>
+  </si>
+  <si>
+    <t>N|cau mơ bi ơm?</t>
+  </si>
+  <si>
+    <t>N|cau ơm bal mơ bi?</t>
+  </si>
+  <si>
+    <t>Bi gam lơh broa\ lơi?</t>
+  </si>
+  <si>
+    <t>Người này là ai?</t>
+  </si>
+  <si>
+    <t>Ai vậy?</t>
+  </si>
+  <si>
+    <t>Anh đã bao nhiêu tuổi?</t>
+  </si>
+  <si>
+    <t>Anh làm nghê gì?</t>
+  </si>
+  <si>
+    <t>Anh đã có gia đình chưa?</t>
+  </si>
+  <si>
+    <t>Anh ở với ai?</t>
+  </si>
+  <si>
+    <t>Ai ở cùng với anh?</t>
+  </si>
+  <si>
+    <t>Anh đang làm việc gì?</t>
+  </si>
+  <si>
+    <t>Sơnđan broa\ bi lơh?</t>
+  </si>
+  <si>
+    <t>An\ lafh ……………..</t>
+  </si>
+  <si>
+    <t>Ai bi n\chi broa\ lơh?</t>
+  </si>
+  <si>
+    <t>An\ làh bak sìh, an\ làh cau at bồ hìu sơnơm dềt tàm sàh.</t>
+  </si>
+  <si>
+    <t>Tôi là ……………..</t>
+  </si>
+  <si>
+    <t>Tôi là bác sĩ, tôi làm trưởng trạm y tế xã.</t>
+  </si>
+  <si>
+    <t>Còn anh làm nghề gì?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sơnđan mat : </t>
+  </si>
+  <si>
+    <t>Sơnam :</t>
+  </si>
+  <si>
+    <t>Broa\ lơh :</t>
+  </si>
+  <si>
+    <t>Geh hìu nha\ :</t>
+  </si>
+  <si>
+    <t>Gam rơlùng :</t>
+  </si>
+  <si>
+    <t>Anil ơm :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Họ và tên :  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuổi :  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghề nghiệp :  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có gia đình :  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Độc thân : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ : </t>
+  </si>
+  <si>
+    <t>Các danh từ còn lại được chia thành mấy nhóm như sau:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Danh từ riêng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>là danh từ để gọi tên người, tên cơ quan, tổ chức cũng như các địa danh: K’Bim, Liêng Hot Ha Nam, Đa Lach, Lang Biang, … Danh từ riêng chỉ biểu thị một sự vật đơn nhất và là tên gọi nên phải viết hoa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đây là sự đối lập trong các ngôn ngữ đơn lập. bởi vì những từ như </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hìu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(nhà), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">piang </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(cơm), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ka </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(cá), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">mat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(mắt), … ít khi đi với số từ (dùng để định hướng), muốn đếm thì phải có danh từ đơn vị đi kèm;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phàn nơm so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(tám con chó)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Puan nơm hìu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (bốn ngôi nhà)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bàr na\ cau ling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(hai người lính)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngoài từ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">nơm, na\, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>trong tiếng Cơ Ho còn có những danh từ đơn vị chỉ sự vật</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có tính chất mỏng: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">pang </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(tấm, lá, quyển), sự vật có hình cầu: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">plai </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(trái) cho thực vật, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">nai </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(hòn, hạt, cục) cho vật nhỏ hơn, … Những từ chỉ đơn vị đo lường: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">kí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(kg), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(lít), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sàu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(sào), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">tal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(cánh tay), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">làs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(sải), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lồ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(đám), … và các danh từ chỉ vật đựng đều có giá trị ngữ pháp giống như danh từ đơn vị:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dùl nai prìt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(một trái chuối)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bàl lồ mìr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(hai đám rẫy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Những từ như </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">n\cau </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(ai), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">n\chi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(gì), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ntềng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(đâu), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lơi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(nào) thường đi kèm với từ chỉ không gian và thời gian, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">nđờ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(bao nhiêu) … được sử dụng trong câu hỏi và thường đặt đầu câu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngoài ra còn có hàng loạt từ kiểu như: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>ngkàr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (chừng bao nhiêu), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ntềng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(đâu), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">mbơh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(từ đâu), …</t>
+    </r>
+  </si>
+  <si>
+    <t>Danh từ khối và danh từ đơn vị</t>
+  </si>
+  <si>
+    <t>Danh từ phiếm định</t>
+  </si>
+  <si>
+    <t>N|cau trơyang bơsram?Ai chăm học?</t>
+  </si>
+  <si>
+    <t>N|chi do? Cái gì đây?</t>
+  </si>
+  <si>
+    <t>Cau lơi lơh mê? Người nào đánh cháu vậy?</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
 </sst>
 </file>
 
@@ -1623,7 +2706,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1631,39 +2714,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1683,11 +2738,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1995,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2086,7 +3147,9 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>637</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
@@ -2098,7 +3161,9 @@
       <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -2107,7 +3172,9 @@
       <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -2116,13 +3183,17 @@
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>637</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
@@ -2134,7 +3205,9 @@
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -2143,7 +3216,9 @@
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -2152,13 +3227,17 @@
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>637</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
@@ -2170,7 +3249,9 @@
       <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2179,7 +3260,9 @@
       <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2188,7 +3271,9 @@
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -2197,13 +3282,17 @@
       <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>637</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
@@ -2215,7 +3304,9 @@
       <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -2224,7 +3315,9 @@
       <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -2233,13 +3326,17 @@
       <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>637</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
@@ -2251,7 +3348,9 @@
       <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -2895,8 +3994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2985,6 +4084,9 @@
       <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D6" s="1">
         <v>8</v>
       </c>
@@ -2996,6 +4098,9 @@
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
@@ -3007,6 +4112,9 @@
       <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D8" s="1">
         <v>12</v>
       </c>
@@ -3018,6 +4126,9 @@
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D9" s="1">
         <v>13</v>
       </c>
@@ -3029,6 +4140,9 @@
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D10" s="1">
         <v>14</v>
       </c>
@@ -3040,6 +4154,9 @@
       <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D11" s="1">
         <v>18</v>
       </c>
@@ -3051,6 +4168,9 @@
       <c r="B12" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D12" s="1">
         <v>19</v>
       </c>
@@ -3062,6 +4182,9 @@
       <c r="B13" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D13" s="1">
         <v>21</v>
       </c>
@@ -3073,6 +4196,9 @@
       <c r="B14" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D14" s="1">
         <v>22</v>
       </c>
@@ -3083,6 +4209,9 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="D15" s="1">
         <v>23</v>
@@ -4046,8 +5175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4077,6 +5206,12 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
@@ -4085,6 +5220,12 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -4093,6 +5234,12 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -4171,123 +5318,294 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D24" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D25" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D26" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D27" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D29" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D30" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4649,8 +5967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4932,40 +6250,88 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C32" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -5315,10 +6681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H133" sqref="H133"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D184" sqref="A2:D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7122,7 +8488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7136,7 +8502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7150,7 +8516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7164,307 +8530,811 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D132" s="10">
+        <v>25</v>
+      </c>
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D133" s="10">
+        <v>25</v>
+      </c>
+      <c r="E133" s="10"/>
+    </row>
+    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D134" s="10">
+        <v>25</v>
+      </c>
+      <c r="E134" s="10"/>
+    </row>
+    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D135" s="10">
+        <v>25</v>
+      </c>
+      <c r="E135" s="10"/>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D136" s="10">
+        <v>25</v>
+      </c>
+      <c r="E136" s="10"/>
+    </row>
+    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D137" s="10">
+        <v>25</v>
+      </c>
+      <c r="E137" s="10"/>
+    </row>
+    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D138" s="10">
+        <v>25</v>
+      </c>
+      <c r="E138" s="10"/>
+    </row>
+    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D139" s="10">
+        <v>25</v>
+      </c>
+      <c r="E139" s="10"/>
+    </row>
+    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D140" s="10">
+        <v>25</v>
+      </c>
+      <c r="E140" s="10"/>
+    </row>
+    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B141" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D141" s="10">
+        <v>25</v>
+      </c>
+      <c r="E141" s="10"/>
+    </row>
+    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D142" s="10">
+        <v>25</v>
+      </c>
+      <c r="E142" s="10"/>
+    </row>
+    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B143" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D143" s="10">
+        <v>25</v>
+      </c>
+      <c r="E143" s="10"/>
+    </row>
+    <row r="144" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D144" s="10">
+        <v>25</v>
+      </c>
+      <c r="E144" s="10"/>
+    </row>
+    <row r="145" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D145" s="10">
+        <v>25</v>
+      </c>
+      <c r="E145" s="10"/>
+    </row>
+    <row r="146" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D146" s="10">
+        <v>25</v>
+      </c>
+      <c r="E146" s="10"/>
+    </row>
+    <row r="147" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D147" s="10">
+        <v>25</v>
+      </c>
+      <c r="E147" s="10"/>
+    </row>
+    <row r="148" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D148" s="10">
+        <v>25</v>
+      </c>
+      <c r="E148" s="10"/>
+    </row>
+    <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D149" s="10">
+        <v>25</v>
+      </c>
+      <c r="E149" s="10"/>
+    </row>
+    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D150" s="10">
+        <v>25</v>
+      </c>
+      <c r="E150" s="10"/>
+    </row>
+    <row r="151" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D151" s="10">
+        <v>25</v>
+      </c>
+      <c r="E151" s="10"/>
+    </row>
+    <row r="152" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D152" s="10">
+        <v>25</v>
+      </c>
+      <c r="E152" s="10"/>
+    </row>
+    <row r="153" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D153" s="10">
+        <v>25</v>
+      </c>
+      <c r="E153" s="10"/>
+    </row>
+    <row r="154" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D154" s="10">
+        <v>25</v>
+      </c>
+      <c r="E154" s="10"/>
+    </row>
+    <row r="155" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D155" s="10">
+        <v>25</v>
+      </c>
+      <c r="E155" s="10"/>
+    </row>
+    <row r="156" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D156" s="10">
+        <v>25</v>
+      </c>
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D157" s="10">
+        <v>25</v>
+      </c>
+      <c r="E157" s="10"/>
+    </row>
+    <row r="158" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D158" s="10">
+        <v>25</v>
+      </c>
+      <c r="E158" s="10"/>
+    </row>
+    <row r="159" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D159" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D160" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D161" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D162" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="D163" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="D164" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D165" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D166" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="D167" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="D168" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="D169" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D170" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D171" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D172" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D173" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D174" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="D175" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D176" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D177" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D178" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="D179" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D180" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="D181" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D182" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D183" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D184" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7483,8 +9353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F35"/>
+    <sheetView topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7525,6 +9395,15 @@
       <c r="B2" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F2" s="1">
         <v>8</v>
       </c>
@@ -7536,6 +9415,15 @@
       <c r="B3" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F3" s="1">
         <v>8</v>
       </c>
@@ -7547,6 +9435,15 @@
       <c r="B4" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F4" s="1">
         <v>8</v>
       </c>
@@ -7558,6 +9455,15 @@
       <c r="B5" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F5" s="1">
         <v>8</v>
       </c>
@@ -7569,6 +9475,15 @@
       <c r="B6" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F6" s="1">
         <v>8</v>
       </c>
@@ -7580,6 +9495,15 @@
       <c r="B7" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F7" s="1">
         <v>8</v>
       </c>
@@ -7591,6 +9515,15 @@
       <c r="B8" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F8" s="1">
         <v>8</v>
       </c>
@@ -7602,6 +9535,15 @@
       <c r="B9" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F9" s="1">
         <v>8</v>
       </c>
@@ -7613,6 +9555,15 @@
       <c r="B10" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -7624,6 +9575,15 @@
       <c r="B11" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F11" s="1">
         <v>8</v>
       </c>
@@ -7635,6 +9595,15 @@
       <c r="B12" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F12" s="1">
         <v>8</v>
       </c>
@@ -7646,6 +9615,15 @@
       <c r="B13" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F13" s="1">
         <v>8</v>
       </c>
@@ -7657,6 +9635,15 @@
       <c r="B14" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F14" s="1">
         <v>8</v>
       </c>
@@ -7668,6 +9655,15 @@
       <c r="B15" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F15" s="1">
         <v>8</v>
       </c>
@@ -7679,6 +9675,15 @@
       <c r="B16" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F16" s="1">
         <v>8</v>
       </c>
@@ -7690,6 +9695,15 @@
       <c r="B17" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F17" s="1">
         <v>8</v>
       </c>
@@ -7701,6 +9715,15 @@
       <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F18" s="1">
         <v>8</v>
       </c>
@@ -7712,6 +9735,15 @@
       <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F19" s="1">
         <v>8</v>
       </c>
@@ -7723,6 +9755,15 @@
       <c r="B20" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F20" s="1">
         <v>8</v>
       </c>
@@ -7734,6 +9775,15 @@
       <c r="B21" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F21" s="1">
         <v>8</v>
       </c>
@@ -7745,6 +9795,15 @@
       <c r="B22" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F22" s="1">
         <v>8</v>
       </c>
@@ -7756,6 +9815,15 @@
       <c r="B23" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F23" s="1">
         <v>8</v>
       </c>
@@ -7770,6 +9838,12 @@
       <c r="C24" s="7" t="s">
         <v>149</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F24" s="1">
         <v>10</v>
       </c>
@@ -7784,6 +9858,12 @@
       <c r="C25" s="7" t="s">
         <v>150</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F25" s="1">
         <v>10</v>
       </c>
@@ -7798,6 +9878,12 @@
       <c r="C26" s="7" t="s">
         <v>151</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F26" s="1">
         <v>10</v>
       </c>
@@ -7812,6 +9898,12 @@
       <c r="C27" s="7" t="s">
         <v>152</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F27" s="1">
         <v>10</v>
       </c>
@@ -7826,6 +9918,12 @@
       <c r="C28" s="8" t="s">
         <v>153</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F28" s="1">
         <v>10</v>
       </c>
@@ -7943,6 +10041,9 @@
       <c r="D34" s="7" t="s">
         <v>240</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F34" s="1">
         <v>13</v>
       </c>
@@ -7954,43 +10055,138 @@
       <c r="B35" s="7" t="s">
         <v>241</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D35" s="7" t="s">
         <v>242</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F35" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F36" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F39" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F40" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="B41" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F41" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -8294,20 +10490,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -8339,6 +10535,18 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>79</v>
       </c>
@@ -8350,6 +10558,18 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>80</v>
       </c>
@@ -8361,6 +10581,18 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>81</v>
       </c>
@@ -8372,6 +10604,18 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>82</v>
       </c>
@@ -8383,6 +10627,18 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>83</v>
       </c>
@@ -8394,6 +10650,18 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>84</v>
       </c>
@@ -8405,6 +10673,18 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>85</v>
       </c>
@@ -8412,202 +10692,752 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="B9" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G9" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="B10" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G10" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="B11" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G11" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G12" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G13" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G14" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G15" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G16" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G17" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G18" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G19" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G20" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G21" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="G22" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="G23" s="1">
+        <v>31</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G24" s="1">
+        <v>31</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="G25" s="1">
+        <v>31</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="G26" s="1">
+        <v>31</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="G27" s="1">
+        <v>31</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="G28" s="1">
+        <v>31</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G29" s="1">
+        <v>31</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="G30" s="1">
+        <v>31</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="G31" s="1">
+        <v>31</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="G32" s="1">
+        <v>31</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G33" s="1">
+        <v>31</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="G34" s="1">
+        <v>31</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="G35" s="1">
+        <v>31</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="G36" s="1">
+        <v>31</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="G37" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8883,13 +11713,14 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+      <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -8908,44 +11739,116 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="D3" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D9" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -9412,8 +12315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9587,7 +12490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9607,7 +12510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9617,7 +12520,7 @@
       <c r="C10" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>442</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -9627,14 +12530,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F11" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F12" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -10086,8 +13019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/THESIS/DuLieu.xlsx
+++ b/THESIS/DuLieu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BaiHoc" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="1132">
   <si>
     <t>ID</t>
   </si>
@@ -2644,6 +2644,2047 @@
   <si>
     <t>NULL</t>
   </si>
+  <si>
+    <t>K’Brôp làh bàp K’Bim dê. Mè K’Bim làh mò Ka Dìm. Ồng mò geh puan na\ kòn. K’Bim làh kòn tơmhoa.</t>
+  </si>
+  <si>
+    <t>Làng bol tàm [òn làh di jơi nòi mơ K’Brôp lơm. K’Brit mơ Ka Hai làh oh ồng K’Brôp. K’Brit làh wa K’Bim dê, Ka Hai làh mlo\ K’Bim. Bau ùr K’Bim làh Ka Dồm. Kòn klau bol khai dê làh K’Brừm, kòn ùr làh Ka Dôp. Ala\ oh kòn K’Bim dê tus còp ồng mò sùm.</t>
+  </si>
+  <si>
+    <t>Jơi nòi</t>
+  </si>
+  <si>
+    <t>gia tộc, họ hàng</t>
+  </si>
+  <si>
+    <t>Làng bol</t>
+  </si>
+  <si>
+    <t>đồng bào, dân</t>
+  </si>
+  <si>
+    <t>Mè (me, mơi)</t>
+  </si>
+  <si>
+    <t>Mlo\</t>
+  </si>
+  <si>
+    <t>cô</t>
+  </si>
+  <si>
+    <t>Dờng</t>
+  </si>
+  <si>
+    <t>lớn</t>
+  </si>
+  <si>
+    <t>Mơi dờng</t>
+  </si>
+  <si>
+    <t>chị của mẹ</t>
+  </si>
+  <si>
+    <t>Mơi dềt</t>
+  </si>
+  <si>
+    <t>dì (em của mẹ)</t>
+  </si>
+  <si>
+    <t>Ồng</t>
+  </si>
+  <si>
+    <t>ông</t>
+  </si>
+  <si>
+    <t>Mò (pàng)</t>
+  </si>
+  <si>
+    <t>bà</t>
+  </si>
+  <si>
+    <t>Bàp (bèp, bà)</t>
+  </si>
+  <si>
+    <t>cha</t>
+  </si>
+  <si>
+    <t>Wa</t>
+  </si>
+  <si>
+    <t>chú</t>
+  </si>
+  <si>
+    <t>Ùr</t>
+  </si>
+  <si>
+    <t>gái, nữ</t>
+  </si>
+  <si>
+    <t>Klau</t>
+  </si>
+  <si>
+    <t>trai, nam</t>
+  </si>
+  <si>
+    <t>Wa ùr</t>
+  </si>
+  <si>
+    <t>thím, mợ</t>
+  </si>
+  <si>
+    <t>Bau (bơ) Klau</t>
+  </si>
+  <si>
+    <t>chồng</t>
+  </si>
+  <si>
+    <t>Bau (pơ) ùr</t>
+  </si>
+  <si>
+    <t>vợ</t>
+  </si>
+  <si>
+    <t>Ùr bơlau</t>
+  </si>
+  <si>
+    <t>vợ chồng</t>
+  </si>
+  <si>
+    <t>Kòn klau</t>
+  </si>
+  <si>
+    <t>con trai</t>
+  </si>
+  <si>
+    <t>Kòn ùr</t>
+  </si>
+  <si>
+    <t>con gái</t>
+  </si>
+  <si>
+    <t>Kòn tơnhoa</t>
+  </si>
+  <si>
+    <t>con cả</t>
+  </si>
+  <si>
+    <t>Còp (cùl, jồ)</t>
+  </si>
+  <si>
+    <t>thăm</t>
+  </si>
+  <si>
+    <t>Kup</t>
+  </si>
+  <si>
+    <t>bắt, cưới</t>
+  </si>
+  <si>
+    <t>cưới</t>
+  </si>
+  <si>
+    <t>Ala\</t>
+  </si>
+  <si>
+    <t>tất cả, các</t>
+  </si>
+  <si>
+    <t>Sùm</t>
+  </si>
+  <si>
+    <t>thường</t>
+  </si>
+  <si>
+    <t>Rau</t>
+  </si>
+  <si>
+    <t>rồi</t>
+  </si>
+  <si>
+    <t>Neh geh</t>
+  </si>
+  <si>
+    <t>đã có</t>
+  </si>
+  <si>
+    <t>Dê</t>
+  </si>
+  <si>
+    <t>của</t>
+  </si>
+  <si>
+    <t>Ồng K’Brôp làh n\cau?</t>
+  </si>
+  <si>
+    <t>N|cau làh mè K’Bim dê?</t>
+  </si>
+  <si>
+    <t>K’Brit làh n\cau?</t>
+  </si>
+  <si>
+    <t>Ka Hai làh n\cau?</t>
+  </si>
+  <si>
+    <t>Bau ùr K’Bim lafh cau lơi?</t>
+  </si>
+  <si>
+    <t>K’Bim geh nđờ na\ kòn?</t>
+  </si>
+  <si>
+    <t>Sơnđan să ala\ kòn tờm K’Bim?</t>
+  </si>
+  <si>
+    <t>Bi neh geh bau ờ?</t>
+  </si>
+  <si>
+    <t>Mpa nam bị kup bau?</t>
+  </si>
+  <si>
+    <t>Bi geh nđờ ùr na\ kòn?</t>
+  </si>
+  <si>
+    <t>Nđơ na\ kòn ùr, nđơ na\ kòn klau?</t>
+  </si>
+  <si>
+    <t>Kòn dờng nđờ sơnm do?</t>
+  </si>
+  <si>
+    <t>An\ neh geh bau rau.</t>
+  </si>
+  <si>
+    <t>An\ bau nam 1984.</t>
+  </si>
+  <si>
+    <t>An\ neh geh pe na\ kòn.</t>
+  </si>
+  <si>
+    <t>Bàr na\ kòn ùr, dùl na\ kòn klau.</t>
+  </si>
+  <si>
+    <t>Kòn dờng jơt prau sơnam do.</t>
+  </si>
+  <si>
+    <t>Cih dùl jơnau mơ ala\ khar do (đặt câu với các từ): Jơi nòi, làng bol, kòn, kup, dê.</t>
+  </si>
+  <si>
+    <t>K’Bim mìng geh bàr nă kòn: K’Brừm mơ Ka Dôp.</t>
+  </si>
+  <si>
+    <t>Nam do, K’Brừm neh 13 sơnam. Oh bơsram adu\ 8 Klờng trung học cơ sở tàm sàh. K’Brừm trơyang bơsram. Tàm klờng bơsram, K’Brừm jak dong kờl gơp bơyô, oh kờn\ ngan ala\ bơta lơh bơdìh.</t>
+  </si>
+  <si>
+    <t>Oh ùr tờm K’Brừm là Ka Dôp. Nam do, Ka Dôp neh jơt sơnam. Oh pa mut</t>
+  </si>
+  <si>
+    <t>Bơsram adu\ pram klờng tiểu học tàm [òn. Ka Dôp bơsram jak rơlau K’Brừm, sùm di tiờng kờnom bơsram jak. Ka Dôp đơs crih ròm, tơnia chài, trơyang lơh broa\ Đội. Ka Dôp trơyang lơh broa\ hìu, dong kờl mè.</t>
+  </si>
+  <si>
+    <t>Adu\</t>
+  </si>
+  <si>
+    <t>lớp</t>
+  </si>
+  <si>
+    <t>Klờng</t>
+  </si>
+  <si>
+    <t>trường</t>
+  </si>
+  <si>
+    <t>Bơta lơh bơdìh</t>
+  </si>
+  <si>
+    <t>hoạt động, công việc ở ngoài trời</t>
+  </si>
+  <si>
+    <t>Gơp bơyô</t>
+  </si>
+  <si>
+    <t>bạn bè</t>
+  </si>
+  <si>
+    <t>Kơnòm</t>
+  </si>
+  <si>
+    <t>trẻ</t>
+  </si>
+  <si>
+    <t>Kơnòm bơsram</t>
+  </si>
+  <si>
+    <t>học sinh</t>
+  </si>
+  <si>
+    <t>Jak</t>
+  </si>
+  <si>
+    <t>giỏi</t>
+  </si>
+  <si>
+    <t>Trơyang (triang)</t>
+  </si>
+  <si>
+    <t>chăm chỉ</t>
+  </si>
+  <si>
+    <t>Crih ròm</t>
+  </si>
+  <si>
+    <t>hát hay</t>
+  </si>
+  <si>
+    <t>Tơnia chài</t>
+  </si>
+  <si>
+    <t>múa khéo</t>
+  </si>
+  <si>
+    <t>Dong kờl</t>
+  </si>
+  <si>
+    <t>giúp đỡ</t>
+  </si>
+  <si>
+    <t>Jak rơlau</t>
+  </si>
+  <si>
+    <t>giỏi hơn</t>
+  </si>
+  <si>
+    <t>Mìng</t>
+  </si>
+  <si>
+    <t>chỉ</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>mới</t>
+  </si>
+  <si>
+    <t>Mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>như thế nào?</t>
+  </si>
+  <si>
+    <t>Nam do, K’Brừm nđờ sơnam?</t>
+  </si>
+  <si>
+    <t>K’Brừm bơsram adu\ lơi?</t>
+  </si>
+  <si>
+    <t>Tàm klờng, K’Brừm di tiơng lơi?</t>
+  </si>
+  <si>
+    <t>Ka Dôp bơsram adu\ lơi?</t>
+  </si>
+  <si>
+    <t>Ka Dôp gam gơ tă jak bơta lơi tai?</t>
+  </si>
+  <si>
+    <t>Ka Dôp lơh n\chi lơi dong mè?</t>
+  </si>
+  <si>
+    <t>Bi geh nđờ na\ kòn?</t>
+  </si>
+  <si>
+    <t>Kòn dờng bi bơsram adu\ nđờ?</t>
+  </si>
+  <si>
+    <t>Khai bơsram mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>An\ geh pe na\ kòn.</t>
+  </si>
+  <si>
+    <t>Khai bơsram adu\ 5.</t>
+  </si>
+  <si>
+    <t>Khai làh kơnòm bơsram jak.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jơnau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>kơnòm, adu\, klờng, dong kờl, mìng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hiu K’Bim anàng, lơngit mơ sàng goh, geh adu\ nac, hìu tru\ sa, đam ơn phan sa.</t>
+  </si>
+  <si>
+    <t>Hìu gam geh kơ[àng, jơnờng nggui ho kòn in nggui bơsram, geh jơnờng bic, bềl làng nggui n\ô trơnờm. Hìu K’Bim geh àng đèng, geh tivi sền.</t>
+  </si>
+  <si>
+    <t>Suờn hìu K’Bim anàng ngan, tam tơl tờm chi. Gùl dar suơn tam tờm pơnat, tờm bơ. Hơ ngkời hìu làh tờm pơồs, bar pe tờm plai can\, dùl wer ù tam biap sa pah nam. Dut suơn làh mpung prift, mpung tào, mpung rơpoal. Tàm suơn K’Bim tam brơ lu\ tờm ka phe. Suơn hìu K’Bim tu\ lơi krung geh biap, plai lơh phan sa.</t>
+  </si>
+  <si>
+    <t>Suơn</t>
+  </si>
+  <si>
+    <t>vườn</t>
+  </si>
+  <si>
+    <t>Wer</t>
+  </si>
+  <si>
+    <t>mảng</t>
+  </si>
+  <si>
+    <t>Plai</t>
+  </si>
+  <si>
+    <t>trái cây</t>
+  </si>
+  <si>
+    <t>Tờm pơnat</t>
+  </si>
+  <si>
+    <t>cây mít</t>
+  </si>
+  <si>
+    <t>Pơồs</t>
+  </si>
+  <si>
+    <t>ổi</t>
+  </si>
+  <si>
+    <t>Bơ</t>
+  </si>
+  <si>
+    <t>bơ</t>
+  </si>
+  <si>
+    <t>Can\</t>
+  </si>
+  <si>
+    <t>chanh</t>
+  </si>
+  <si>
+    <t>Mpung prìt</t>
+  </si>
+  <si>
+    <t>bụi chuối</t>
+  </si>
+  <si>
+    <t>Tào</t>
+  </si>
+  <si>
+    <t>mía</t>
+  </si>
+  <si>
+    <t>Biap</t>
+  </si>
+  <si>
+    <t>rau</t>
+  </si>
+  <si>
+    <t>Rơpoal</t>
+  </si>
+  <si>
+    <t>bí đỏ</t>
+  </si>
+  <si>
+    <t>Bơkào</t>
+  </si>
+  <si>
+    <t>hoa</t>
+  </si>
+  <si>
+    <t>Adu\ nac</t>
+  </si>
+  <si>
+    <t>phòng khách</t>
+  </si>
+  <si>
+    <t>Tru\</t>
+  </si>
+  <si>
+    <t>nấu</t>
+  </si>
+  <si>
+    <t>Hìu tru\ sa</t>
+  </si>
+  <si>
+    <t>nhà bếp</t>
+  </si>
+  <si>
+    <t>Đam</t>
+  </si>
+  <si>
+    <t>kho</t>
+  </si>
+  <si>
+    <t>Jơnờng nggui</t>
+  </si>
+  <si>
+    <t>ghế</t>
+  </si>
+  <si>
+    <t>Kơ[àng</t>
+  </si>
+  <si>
+    <t>bàn</t>
+  </si>
+  <si>
+    <t>Tùh mrềt</t>
+  </si>
+  <si>
+    <t>tủ lạnh</t>
+  </si>
+  <si>
+    <t>Bềl</t>
+  </si>
+  <si>
+    <t>chiếu</t>
+  </si>
+  <si>
+    <t>Ồs</t>
+  </si>
+  <si>
+    <t>lửa</t>
+  </si>
+  <si>
+    <t>Đèng</t>
+  </si>
+  <si>
+    <t>đèn</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>cây</t>
+  </si>
+  <si>
+    <t>Anàng</t>
+  </si>
+  <si>
+    <t>rộng</t>
+  </si>
+  <si>
+    <t>Wêt</t>
+  </si>
+  <si>
+    <t>chật hẹp</t>
+  </si>
+  <si>
+    <t>Lơngit (ram)</t>
+  </si>
+  <si>
+    <t>mát</t>
+  </si>
+  <si>
+    <t>Sàng goh</t>
+  </si>
+  <si>
+    <t>sạch sẽ</t>
+  </si>
+  <si>
+    <t>Àng</t>
+  </si>
+  <si>
+    <t>Tơl</t>
+  </si>
+  <si>
+    <t>đủ</t>
+  </si>
+  <si>
+    <t>Ơn</t>
+  </si>
+  <si>
+    <t>chứa</t>
+  </si>
+  <si>
+    <t>Nggui</t>
+  </si>
+  <si>
+    <t>ngồi</t>
+  </si>
+  <si>
+    <t>N|ô trơnờm</t>
+  </si>
+  <si>
+    <t>uống rượu</t>
+  </si>
+  <si>
+    <t>Ròng</t>
+  </si>
+  <si>
+    <t>nuôi</t>
+  </si>
+  <si>
+    <t>Siam</t>
+  </si>
+  <si>
+    <t>cho ăn</t>
+  </si>
+  <si>
+    <t>Ròng siam</t>
+  </si>
+  <si>
+    <t>chăn nuôi</t>
+  </si>
+  <si>
+    <t>Tam tờm chi sa plai</t>
+  </si>
+  <si>
+    <t>trồng cây ăn quả</t>
+  </si>
+  <si>
+    <t>Gùt dar</t>
+  </si>
+  <si>
+    <t>chung quanh</t>
+  </si>
+  <si>
+    <t>Pah nam</t>
+  </si>
+  <si>
+    <t>quanh năm</t>
+  </si>
+  <si>
+    <t>Ngan</t>
+  </si>
+  <si>
+    <t>lắm</t>
+  </si>
+  <si>
+    <t>Bơh</t>
+  </si>
+  <si>
+    <t>bằng</t>
+  </si>
+  <si>
+    <t>Mơya</t>
+  </si>
+  <si>
+    <t>nhưng</t>
+  </si>
+  <si>
+    <t>Hìu bi mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>Tàm hìu K’Bim geh n\chi lơi?</t>
+  </si>
+  <si>
+    <t>Hìu K’Bim tơn àng bơh n\chi lơi?</t>
+  </si>
+  <si>
+    <t>Suơn hìu K’Bim mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>Ngkời hìu, K’Bim tam chi lơi?</t>
+  </si>
+  <si>
+    <t>K’Bim tam tào, prìt tiah lơi?</t>
+  </si>
+  <si>
+    <t>Tàm suơn K’Bim tam n\chi lơi?</t>
+  </si>
+  <si>
+    <t>Hìu bị mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>Geh mđờ adu\?</t>
+  </si>
+  <si>
+    <t>Geh tivi sơl? Geh n\chi lơi tai?</t>
+  </si>
+  <si>
+    <t>Hìu bi geh suơn sơl ờ?</t>
+  </si>
+  <si>
+    <t>N|chi tam tàm suơn?</t>
+  </si>
+  <si>
+    <t>Hìu an\ wêt mơya sàng goh.</t>
+  </si>
+  <si>
+    <t>Hìu an\ geh pe adu\.</t>
+  </si>
+  <si>
+    <t>Geh tivi, tùh mrềt.</t>
+  </si>
+  <si>
+    <t>Hìu an\ geh suơn đah tơ nơ\ hìu.</t>
+  </si>
+  <si>
+    <t>Tàm bơkào, tam biap, bàr pe tờm [ơ, tờm pơnat.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jơnau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>suơn, hìu, tam, ngan, mơya.</t>
+    </r>
+  </si>
+  <si>
+    <t>Thường đi sau của ngữ danh từ, dùng để định vị cho ngữ đó trong không gian và thời gian:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sra\ do </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(sách này)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kon rơpu hơ\ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(con trâu ấy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngai do </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(hôm này)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngai ne </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(ngày kia)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cau gen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(người đó)</t>
+    </r>
+  </si>
+  <si>
+    <t>Danh từ chỉ ngôi</t>
+  </si>
+  <si>
+    <t>Sắc thái - Giới - Ngôi thứ nhất - Ngôi thứ 2 - Ngôi thứ 3</t>
+  </si>
+  <si>
+    <t>Trung hòa - Nam - an\ - mê - khai (gơ)</t>
+  </si>
+  <si>
+    <t>Trung hòa- Nữ - - ai</t>
+  </si>
+  <si>
+    <t>Trang trọng - không phân biệt - he (hi) -he (i/di) - (Người/ vật)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Với số nhiều chỉ cần thêm từ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">bol </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(chúng) đằng trước là đủ: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">bol an\ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(chúng tôi), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">bol mê </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(các anh)</t>
+    </r>
+  </si>
+  <si>
+    <t>Danh từ chỉ định</t>
+  </si>
+  <si>
+    <t>Tàm kafl gờm kòi pa tus, hìu nha\ ồng K’Brôp tàm tìp mat jơh tơ\l na\ kòn sau.</t>
+  </si>
+  <si>
+    <t>Ồng jà ntum jơi đềt mềr tàm [òn tus n\ô trơnờm, iat ồng yal yau [òn lơgar he bơh rài yau. Tềng bơnha\ ồs tơ gùl hìu, ồng K’Brôp bơne\ bơnài yal. Lài òr, [òn A rơ[ah ngan. Làng bol ờ geh chi lơi sa, kòn se ờ geh lờt bơsram. Trồ ngai, prang khiak. Trồ mang, jơngo klê. Làng bol lòt jơh tàm brê mus mìr, lơh mìr ờ tơl sa.</t>
+  </si>
+  <si>
+    <t>Tu\ do, rài kis neh gơ tàm gơl.</t>
+  </si>
+  <si>
+    <t>Rài</t>
+  </si>
+  <si>
+    <t>cuộc đời</t>
+  </si>
+  <si>
+    <t>Rài kis</t>
+  </si>
+  <si>
+    <t>đời sống</t>
+  </si>
+  <si>
+    <t>Kàl</t>
+  </si>
+  <si>
+    <t>mùa, dịp</t>
+  </si>
+  <si>
+    <t>Sre</t>
+  </si>
+  <si>
+    <t>ruộng</t>
+  </si>
+  <si>
+    <t>Kòi</t>
+  </si>
+  <si>
+    <t>lúa</t>
+  </si>
+  <si>
+    <t>Trồ</t>
+  </si>
+  <si>
+    <t>trời</t>
+  </si>
+  <si>
+    <t>ông, cụ</t>
+  </si>
+  <si>
+    <t>Ntum</t>
+  </si>
+  <si>
+    <t>dọng họ</t>
+  </si>
+  <si>
+    <t>Kòn sau</t>
+  </si>
+  <si>
+    <t>con cháu</t>
+  </si>
+  <si>
+    <t>Kòn se (dềt)</t>
+  </si>
+  <si>
+    <t>con nít, trẻ em</t>
+  </si>
+  <si>
+    <t>Đềt mềr</t>
+  </si>
+  <si>
+    <t>thân thiết</t>
+  </si>
+  <si>
+    <t>Bơne\ bơnài</t>
+  </si>
+  <si>
+    <t>say sưa</t>
+  </si>
+  <si>
+    <t>Prang khia</t>
+  </si>
+  <si>
+    <t>knắng gắt</t>
+  </si>
+  <si>
+    <t>Jơngo klê</t>
+  </si>
+  <si>
+    <t>tối thui</t>
+  </si>
+  <si>
+    <t>Rơbah</t>
+  </si>
+  <si>
+    <t>nghèo</t>
+  </si>
+  <si>
+    <t>Bòl glar</t>
+  </si>
+  <si>
+    <t>khổ cực</t>
+  </si>
+  <si>
+    <t>Ờs</t>
+  </si>
+  <si>
+    <t>Di mơ lơm</t>
+  </si>
+  <si>
+    <t>vừa thôi</t>
+  </si>
+  <si>
+    <t>Oă (ua\)</t>
+  </si>
+  <si>
+    <t>nhiều</t>
+  </si>
+  <si>
+    <t>Gờm</t>
+  </si>
+  <si>
+    <t>mừng</t>
+  </si>
+  <si>
+    <t>Chơt</t>
+  </si>
+  <si>
+    <t>chết</t>
+  </si>
+  <si>
+    <t>Jơh</t>
+  </si>
+  <si>
+    <t>hết</t>
+  </si>
+  <si>
+    <t>Ê</t>
+  </si>
+  <si>
+    <t>chăn</t>
+  </si>
+  <si>
+    <t>Ròng siam (ê)</t>
+  </si>
+  <si>
+    <t>Hùc dà</t>
+  </si>
+  <si>
+    <t>uống nước</t>
+  </si>
+  <si>
+    <t>Tìp mát</t>
+  </si>
+  <si>
+    <t>họp mặt</t>
+  </si>
+  <si>
+    <t>Tàm gơl</t>
+  </si>
+  <si>
+    <t>thay đổi</t>
+  </si>
+  <si>
+    <t>Yau</t>
+  </si>
+  <si>
+    <t>cũ, xưa</t>
+  </si>
+  <si>
+    <t>kể</t>
+  </si>
+  <si>
+    <t>Yal yau</t>
+  </si>
+  <si>
+    <t>kể chuyện xưa</t>
+  </si>
+  <si>
+    <t>Mus mìr</t>
+  </si>
+  <si>
+    <t>phát rẫy</t>
+  </si>
+  <si>
+    <t>Ờ huan</t>
+  </si>
+  <si>
+    <t>không nhiều, ít khi</t>
+  </si>
+  <si>
+    <t>Lài òr</t>
+  </si>
+  <si>
+    <t>trước đây, ngày trước</t>
+  </si>
+  <si>
+    <t>Tàm kafl gờm kòi pa tus, hìu nha\ K’Brôp lơh n\chi lơi?</t>
+  </si>
+  <si>
+    <t>Ồng jà ala\ cau lơi?</t>
+  </si>
+  <si>
+    <t>Oh mi tus hìu ồng làng n\chi lơi?</t>
+  </si>
+  <si>
+    <t>Gam kờnom, K’Brôp kis mbe lơi?</t>
+  </si>
+  <si>
+    <t>Tu\ geh bau, hìu nha\ K’Brôp kis mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>Rài yau, làng bol [òn A kis mbe lơi?</t>
+  </si>
+  <si>
+    <t>Tu\ do, rài kis mbe lơi?</t>
+  </si>
+  <si>
+    <t>Bòn bi niam sơl lah ờ?</t>
+  </si>
+  <si>
+    <t>Bòn geh gal cau sơl lah ờ?</t>
+  </si>
+  <si>
+    <t>Cau tàm [òn kis mơ mpa broa\ lơh?</t>
+  </si>
+  <si>
+    <t>Rài kis lang bolmbe gơlơh?</t>
+  </si>
+  <si>
+    <t>Bòn an\ krung gam be ờs. {òn gơ ơm tơjơng bơnơm, tơ đap làh sre kòi.</t>
+  </si>
+  <si>
+    <t>Ờ huan, di mơ lơm.</t>
+  </si>
+  <si>
+    <t>Oa\ cau kis mơ broa\ lơh jơng tê: lơh sre, lơh mìr, ta\m kà phe mơ ròng siam.</t>
+  </si>
+  <si>
+    <t>Lài òr bòl glar ngan, tu\ do neh gơ tàm gơl oa\.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jơnau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> jơnau, rài kis, mìr, yal, jà.</t>
+    </r>
+  </si>
+  <si>
+    <t>K’Brèt làh cau puà [òn oa\ ngan cau kờn\ gơboh, git adat. Cau puà [òn git</t>
+  </si>
+  <si>
+    <t>Rơcang rài kis làng bol. Dùl nhai geh dùl dơ\ trơgùm [òn. Jơh tơl na\ cau lòt trơgùm gal tơl. K’Brèt, cau puà [òn, bơyai broa\ tam phan bal K’Bim mơ K’Bik. Kà phe gơ mù, ờ tam bơtơl tài kà phe mơya ban\ sreh sơbì. K’Breft ràc bơtê ala\ cau pal tam bơtơl chi phan sa: tơngời, kòi, khoah… K’Brèt đơs: ‘’Lài jơh pal ròng iar, ada, sur. Bàr pe ngai tai rơp trơgùm làng bơyai broa\ lơh sa’’.</t>
+  </si>
+  <si>
+    <t>Puà bòn</t>
+  </si>
+  <si>
+    <t>trưởng thôn</t>
+  </si>
+  <si>
+    <t>sản phẩm, đồ đạc</t>
+  </si>
+  <si>
+    <t>Chi phan sa</t>
+  </si>
+  <si>
+    <t>cây lương thực</t>
+  </si>
+  <si>
+    <t>Iar</t>
+  </si>
+  <si>
+    <t>gà</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>vịt</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>heo</t>
+  </si>
+  <si>
+    <t>Khoah (khuah)</t>
+  </si>
+  <si>
+    <t>đậu</t>
+  </si>
+  <si>
+    <t>Gal</t>
+  </si>
+  <si>
+    <t>đông</t>
+  </si>
+  <si>
+    <t>Gal tơl</t>
+  </si>
+  <si>
+    <t>đông đủ</t>
+  </si>
+  <si>
+    <t>Gơ mù</t>
+  </si>
+  <si>
+    <t>xuống, hạ thấp</t>
+  </si>
+  <si>
+    <t>thích, muốn</t>
+  </si>
+  <si>
+    <t>thương, yêu</t>
+  </si>
+  <si>
+    <t>Kờn\ gơboh</t>
+  </si>
+  <si>
+    <t>yêu mếm</t>
+  </si>
+  <si>
+    <t>Git adat</t>
+  </si>
+  <si>
+    <t>kính trọng</t>
+  </si>
+  <si>
+    <t>Rơcang</t>
+  </si>
+  <si>
+    <t>chuẩn bị, phòng ngừa</t>
+  </si>
+  <si>
+    <t>Sreh sơbì</t>
+  </si>
+  <si>
+    <t>chặt bỏ</t>
+  </si>
+  <si>
+    <t>Ràc</t>
+  </si>
+  <si>
+    <t>khuyên</t>
+  </si>
+  <si>
+    <t>Bơtơl</t>
+  </si>
+  <si>
+    <t>thêm</t>
+  </si>
+  <si>
+    <t>Tai</t>
+  </si>
+  <si>
+    <t>nữa</t>
+  </si>
+  <si>
+    <t>Gan</t>
+  </si>
+  <si>
+    <t>đi qua</t>
+  </si>
+  <si>
+    <t>Se\</t>
+  </si>
+  <si>
+    <t>rẽ</t>
+  </si>
+  <si>
+    <t>N|cau lơh puà [òn?</t>
+  </si>
+  <si>
+    <t>K’Brèt làh cau mbe lơi?</t>
+  </si>
+  <si>
+    <t>Jơh ala\ cau kis mbe lơi mơ K’Brèt?</t>
+  </si>
+  <si>
+    <t>Trơgùm [òn tu\ lơi?</t>
+  </si>
+  <si>
+    <t>Trơgùm [òn làng lơh n\chi lơi?</t>
+  </si>
+  <si>
+    <t>Jơh ala\ cau lòt trơgùm [òn sơl ờ?</t>
+  </si>
+  <si>
+    <t>K’Brèt yal tơng kah oh mi mbe lơi?</t>
+  </si>
+  <si>
+    <t>Oh yal tờng git tus tơ hìu ồng puà [òn lòt gùng pơ?</t>
+  </si>
+  <si>
+    <t>Bơh tềng do tus hơ\ ngài ờ?</t>
+  </si>
+  <si>
+    <t>Wa lòt jat gùng do, gan rơlau klờng bơsram gen se\ đah kiau. Hìu ồng puà [òn làh hìu dơ\ pe đah tê ma.</t>
+  </si>
+  <si>
+    <t>Ờ ngai wai, mìng 10 phuk lơm.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jơnau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>chi phan sa, tơngời, tam, trơgùm, bơyai.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ơm tiah kơh bơnơm, sre dà ờ rà. Tàm mìr, làng bol tam phan sa: tơngời, khoah, bùm lau, … Jơh [òn, hìu lơi krung tam kà phe. Geh dà lơgar pà ù tiah, oh mi jơh pràn lơh broa\. Làng bol tac kà phe blơi phe. Tu\ do, oh mi tàm [òn neh tơl sa đau. Trồ ngai geh dà trơlung mrềt nhừm. Trồ mang àng đèng lơr tơl hìu, geh tivi sền iat yal brê, đơs crih.</t>
+  </si>
+  <si>
+    <t>Tiah (ù)</t>
+  </si>
+  <si>
+    <t>đất</t>
+  </si>
+  <si>
+    <t>Kơh</t>
+  </si>
+  <si>
+    <t>dốc</t>
+  </si>
+  <si>
+    <t>Bơnơm</t>
+  </si>
+  <si>
+    <t>núi</t>
+  </si>
+  <si>
+    <t>Kơh bơnơm</t>
+  </si>
+  <si>
+    <t>miền núi, cao nguyên</t>
+  </si>
+  <si>
+    <t>Dà lơgar</t>
+  </si>
+  <si>
+    <t>đất nước, Nhà nước</t>
+  </si>
+  <si>
+    <t>Trơlung</t>
+  </si>
+  <si>
+    <t>giếng</t>
+  </si>
+  <si>
+    <t>Phe</t>
+  </si>
+  <si>
+    <t>gạo</t>
+  </si>
+  <si>
+    <t>Bùm</t>
+  </si>
+  <si>
+    <t>khoai</t>
+  </si>
+  <si>
+    <t>Nơm</t>
+  </si>
+  <si>
+    <t>cái, con</t>
+  </si>
+  <si>
+    <t>Biài</t>
+  </si>
+  <si>
+    <t>vải</t>
+  </si>
+  <si>
+    <t>Rà</t>
+  </si>
+  <si>
+    <t>Nhừm</t>
+  </si>
+  <si>
+    <t>Kờl jap</t>
+  </si>
+  <si>
+    <t>bền</t>
+  </si>
+  <si>
+    <t>Ờ lah</t>
+  </si>
+  <si>
+    <t>làm biếng, lười</t>
+  </si>
+  <si>
+    <t>Sền</t>
+  </si>
+  <si>
+    <t>nhìn</t>
+  </si>
+  <si>
+    <t>Go\</t>
+  </si>
+  <si>
+    <t>thấy</t>
+  </si>
+  <si>
+    <t>Yal brê</t>
+  </si>
+  <si>
+    <t>kể chuyện, nói chuyện</t>
+  </si>
+  <si>
+    <t>Nggui gời</t>
+  </si>
+  <si>
+    <t>ngồi không</t>
+  </si>
+  <si>
+    <t>Chờ</t>
+  </si>
+  <si>
+    <t>vui</t>
+  </si>
+  <si>
+    <t>Chờ hờp (chờ gờm)</t>
+  </si>
+  <si>
+    <t>vui vẻ</t>
+  </si>
+  <si>
+    <t>Pà</t>
+  </si>
+  <si>
+    <t>cho</t>
+  </si>
+  <si>
+    <t>Jào ù</t>
+  </si>
+  <si>
+    <t>giao đất</t>
+  </si>
+  <si>
+    <t>Blơi</t>
+  </si>
+  <si>
+    <t>mua</t>
+  </si>
+  <si>
+    <t>Tac</t>
+  </si>
+  <si>
+    <t>bán</t>
+  </si>
+  <si>
+    <t>Tàm mìr K’Bim tam n\chi lơi?</t>
+  </si>
+  <si>
+    <t>Tu\ do, rài kis làng bol tàm [òn mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>Tàm tiah kờh bơnơm, geh rà sre kòi ờ?</t>
+  </si>
+  <si>
+    <t>Lang bol lơh n\chi lơi làng blơi phe?</t>
+  </si>
+  <si>
+    <t>Ngai do đah mê lòt?</t>
+  </si>
+  <si>
+    <t>N|chi mê tac?</t>
+  </si>
+  <si>
+    <t>N|chi mê blơi?</t>
+  </si>
+  <si>
+    <t>Dùl nơm ào do nđờ?</t>
+  </si>
+  <si>
+    <t>Biài do kơl jap sơl ờ?</t>
+  </si>
+  <si>
+    <t>An\ lòt drà.</t>
+  </si>
+  <si>
+    <t>An\ tac kà phe.</t>
+  </si>
+  <si>
+    <t>An\ blơi ào mpha.</t>
+  </si>
+  <si>
+    <t>Pe jơt rờbô đong.</t>
+  </si>
+  <si>
+    <t>Biài do kơl jap ngan.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jownau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>kowh, bơnơm, tiah, sền, krung.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đây là nhóm động từ biểu thị ý nghĩa tình thái (trạng thái, ý chí, thái độ), thường đứng đầu ngữ và có bổ ngữ là động từ: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>neh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (đã), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>gam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (còn), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>ơm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (ở, đang), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>kung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (cũng), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>kờn\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (muốn), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>mong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (định), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>crap rơcang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (sẵn sàng),…</t>
+    </r>
+  </si>
+  <si>
+    <t>Khai khin lơh broa\ kan.</t>
+  </si>
+  <si>
+    <t>Nó dám làm việc khó.</t>
+  </si>
+  <si>
+    <t>An\ mong lòt Hà Nôi.</t>
+  </si>
+  <si>
+    <t>Tôi định đi Hà Nội.</t>
+  </si>
+  <si>
+    <t>An\ lik tàm [lang.</t>
+  </si>
+  <si>
+    <t>Tôi ra sân.</t>
+  </si>
+  <si>
+    <t>Cau kra tus tàm hìu bơsram.</t>
+  </si>
+  <si>
+    <t>Người già đến trường.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khác với động từ vận động có hướng trong tiếng Việt, các động từ vận động có hướng trong tiếng Cơ Ho đòi hỏi phải có giới từ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>tàm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>An\ geh pria\ tàm kơl dung.</t>
+  </si>
+  <si>
+    <t>Pria\ geh tàm kơl dung.</t>
+  </si>
+  <si>
+    <t>Tàm kơl dung geh pria\.</t>
+  </si>
+  <si>
+    <t>Kowl dung geh pria\.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lớp động từ này không nhiều: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">geh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(có), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>gam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (còn), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>jơh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (hết), roh (mất),…</t>
+    </r>
+  </si>
+  <si>
+    <t>Động từ tình thái</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Động từ vận động có hướng: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">mut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(vào)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, lik </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(ra)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, gul </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(lên)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, mù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(xuống)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, gan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(qua)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, tus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(đến)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>,…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Động từ tồn tại </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">là nhóm động từ có những nét ngữ pháp độc đáo riêng. Chẳng hạn từ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">geh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(có) trong tiếng Cơ Ho, khi đảo vị trí các bổ tố nhưng ý nghĩa của câu vẫn hiểu được như nhau:</t>
+    </r>
+  </si>
+  <si>
+    <t>Mê pràn đau sơl ờ?</t>
+  </si>
+  <si>
+    <t>Mê làh kòn cau lơi?</t>
+  </si>
+  <si>
+    <t>Mê ròng n\chi lơi?</t>
+  </si>
+  <si>
+    <t>N|chi K’Bik lơh?</t>
+  </si>
+  <si>
+    <t>N|chi broa\ lơh?</t>
+  </si>
+  <si>
+    <t>Ừn ngài, gam pràn đau.</t>
+  </si>
+  <si>
+    <t>An\ làh kòn cau Kơho.</t>
+  </si>
+  <si>
+    <t>An\ ròng iar, ada, sur.</t>
+  </si>
+  <si>
+    <t>K’Bik po\ ù.</t>
+  </si>
+  <si>
+    <t>Mê gam pràn kơldang sơl?</t>
+  </si>
+  <si>
+    <t>Bơh mê lòt?</t>
+  </si>
+  <si>
+    <t>K’Tiu lơh n\chi lơi?</t>
+  </si>
+  <si>
+    <t>Khai gam ơm tàm hìu sơl ờ?</t>
+  </si>
+  <si>
+    <t>Khai gam ơm lơh n\chi lơi?</t>
+  </si>
+  <si>
+    <t>Ngai do mê lòt lơh broa\ lơi?</t>
+  </si>
+  <si>
+    <t>Bi lơh broa\ anih lơi?</t>
+  </si>
+  <si>
+    <t>Bi lơh broa\ tàm sàh neh nđờ nam do?</t>
+  </si>
+  <si>
+    <t>Pràn ngan, ừn ngài.</t>
+  </si>
+  <si>
+    <t>An\ lòt bơsram.</t>
+  </si>
+  <si>
+    <t>Khai lơh cau y ta\.</t>
+  </si>
+  <si>
+    <t>Khai lòt lơh broa\ tàm hìu sơnơm dềt.</t>
+  </si>
+  <si>
+    <t>Khai gam kham cau kòp.</t>
+  </si>
+  <si>
+    <t>Ngai do an\ lòt pic plai kà phe.</t>
+  </si>
+  <si>
+    <t>An\ lơh broa\ tàm sàh Gùng Ré.</t>
+  </si>
+  <si>
+    <t>An\ lơh broa\ neh jơt nam do.</t>
+  </si>
+  <si>
+    <t>Hiu bi tàm [òn lơi?</t>
+  </si>
+  <si>
+    <t>Ngài ờ?</t>
+  </si>
+  <si>
+    <t>Hìu nha bi geh nđờ na\ cau?</t>
+  </si>
+  <si>
+    <t>Tơl na\ kòn neh jơh dờng làh ờ hết?</t>
+  </si>
+  <si>
+    <t>Ơ Hờng! Ngai lơi ru dan jà oh rê hìu bi nhơl.</t>
+  </si>
+  <si>
+    <t>Hiu an\ tàm [òn B’su Mrac.</t>
+  </si>
+  <si>
+    <t>Ờ ngài! Lòt jờng di puan jơt pram phuk.</t>
+  </si>
+  <si>
+    <t>Prau na\: mè bàp an\, bau ùr an\ mờ bàr na\ kòn.</t>
+  </si>
+  <si>
+    <t>Ờ hềt, bol khai gam dềt ngan. Kòn ùr 10 sơnam, kòn klau 6 sơnam.</t>
+  </si>
+  <si>
+    <t>Tổ chức đàm thoại theo nhóm về gia đình, công việc.</t>
+  </si>
+  <si>
+    <t>Điền từ thích hợp vào ô trống:</t>
+  </si>
+  <si>
+    <t>…………………….ồng</t>
+  </si>
+  <si>
+    <t>Wa…………………….sơl?</t>
+  </si>
+  <si>
+    <t>Ka Hờng…………………….n\chi lơi?</t>
+  </si>
+  <si>
+    <t>K’Brôp lòt…………………….pơ\ tơngơi.</t>
+  </si>
+  <si>
+    <t>Mè an\ pa rê…………………….khai blơi [an\ mơ phan sa.</t>
+  </si>
+  <si>
+    <t>Gùt dar…………………….geh pơng gàr tam pơnat.</t>
+  </si>
+  <si>
+    <t>Viết một đoạn văn tả ngôi nhà của bạn.</t>
+  </si>
+  <si>
+    <t>Học viết tự thuật về gia đình, công việc mình.</t>
+  </si>
 </sst>
 </file>
 
@@ -2718,7 +4759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2750,6 +4791,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3056,8 +5101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3086,7 +5131,9 @@
       <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -3994,7 +6041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -5175,8 +7222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5967,8 +8014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C32"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6334,242 +8381,446 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C33" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C35" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C38" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C40" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C43" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C45" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C48" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C49" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C51" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C54" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C56" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C57" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C59" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C61" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C64" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6681,10 +8932,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E507"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D184" sqref="A2:D184"/>
+    <sheetView topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="C354" sqref="C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9299,49 +11550,3140 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B185" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="D185" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B186" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="D186" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B187" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D187" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B188" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="D188" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B189" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D189" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B190" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="D190" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B191" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="D191" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="D192" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D193" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="D194" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="D195" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="D196" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="D197" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="D198" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D199" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D200" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="D201" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="D202" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="D203" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="D204" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D205" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="D206" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D207" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="D208" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="D209" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="D210" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="D211" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D212" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="D213" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="D214" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="D215" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="D216" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="D217" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D218" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="D219" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="D220" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="D221" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="D222" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="D223" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="D224" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="D225" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="D226" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="D227" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="D228" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="D229" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="D230" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="D231" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="D232" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D233" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="D234" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D235" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="D236" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="D237" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="D238" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="D239" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="D240" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="D241" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="D242" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="D243" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="D244" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="D245" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="D246" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="D247" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="D248" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="D249" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="D250" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="D251" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="D252" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="D253" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="D254" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="D255" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D256" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="D257" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="D258" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D259" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="D260" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D261" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="D262" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D263" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="D264" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="D265" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="D266" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="D267" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="D268" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="D269" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="D270" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="D271" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="D272" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="D273" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="D274" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="D275" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="D276" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="D277" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="D278" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="D279" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="D280" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="D281" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="D282" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="D283" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D284" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="D285" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="D286" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="D287" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="D288" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="D289" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="D290" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="D291" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="D292" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="D293" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D294" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="D295" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="D296" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D297" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="D298" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="D299" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="D300" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="D301" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="D302" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="D303" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="D304" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="D305" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="D306" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="D307" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="D308" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D309" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="D310" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="D311" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="D312" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="D313" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="D314" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="D315" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="D316" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="D317" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="D318" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="D319" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="D320" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D321" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="D322" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D323" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="D324" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="D325" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="D326" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="D327" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="D328" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D329" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D330" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D331" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D332" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D333" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D334" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D335" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D336" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D337" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D338" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="D339" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="D340" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D341" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D342" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D343" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D344" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D345" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D346" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D347" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D348" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D349" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D350" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D351" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D352" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D353" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -9353,8 +14695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:E41"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10188,117 +15530,342 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F42" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F44" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F45" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F46" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F47" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F48" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F49" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F50" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F51" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F52" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F53" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F54" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F55" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F56" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -10492,8 +16059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E37"/>
+    <sheetView topLeftCell="G65" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11387,297 +16954,909 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="G38" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="G39" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G40" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G41" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G42" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="G43" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="G44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G45" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="G46" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="G47" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="G48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="G49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="G50" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="G51" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="G52" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="G53" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="G54" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="G55" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="G56" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="G57" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="G58" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>866</v>
+      </c>
+      <c r="G59" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="G60" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="G61" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="G62" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="G63" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="G64" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G65" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F66" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G66" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F67" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G67" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F68" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G68" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F69" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G69" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F70" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G70" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F71" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G71" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F72" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G72" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F73" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G73" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F74" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G74" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F75" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G75" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F76" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G76" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F77" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G77" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F78" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G78" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F79" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G79" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F80" s="12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G80" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F81" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G81" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F82" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G82" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F83" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G83" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11712,8 +17891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11851,197 +18030,539 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D10" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D11" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D12" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D13" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D14" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D15" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D16" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D17" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D18" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D19" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D20" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D21" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D22" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D30" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D31" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D32" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D33" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D34" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D35" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D36" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D37" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D38" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D39" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D40" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D41" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D42" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D43" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D44" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D45" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D46" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D47" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -12315,8 +18836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F12"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12570,262 +19091,937 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F13" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F14" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F15" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F16" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F17" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F18" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F19" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F20" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F26" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F27" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F28" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F29" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F30" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F31" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F32" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F33" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F34" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F35" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F36" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F37" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F38" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="14" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F39" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F40" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F41" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F42" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F43" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F44" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F45" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F46" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F47" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F48" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F49" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F50" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F51" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F52" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F53" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F54" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F55" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F56" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F57" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>

--- a/THESIS/DuLieu.xlsx
+++ b/THESIS/DuLieu.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="1586">
   <si>
     <t>ID</t>
   </si>
@@ -4685,12 +4685,1728 @@
   <si>
     <t>Học viết tự thuật về gia đình, công việc mình.</t>
   </si>
+  <si>
+    <t>Ngai òr, geh mìu dờng, mìu jơh ngai. Dà sòr ko\ gơ pơrdô jơh kù, rơnu\ tàm mìr, gơ pơrdô jơh sur, iar làng bol dê, gơkua gơ cò jờh  tờm chi tam. Tàm ala\ nam do òr, miu càl ờ diơng, rà mìu, mìu dờng, mìu jit mìu jir, dà sòr ko\ aniai phan sa. Ngai tơngai gel duêt, tờm chi ờ dờng. Mhual jơngo, trồ mrềt ngan. Geh ngai càl khồm pràn be rơbut. Mus kơl brê dơr gen dà sòr ko\ rơp hòr tih rà rơlau. Mìu càl ờ niam, broa\ lơh sa ờ gơjềng, gen rờp jơgloh, ờ geh hìu ơm.</t>
+  </si>
+  <si>
+    <t>Mìu</t>
+  </si>
+  <si>
+    <t>mưa</t>
+  </si>
+  <si>
+    <t>Càl</t>
+  </si>
+  <si>
+    <t>gió</t>
+  </si>
+  <si>
+    <t>Mìu càl</t>
+  </si>
+  <si>
+    <t>thời tiết</t>
+  </si>
+  <si>
+    <t>Tơngai</t>
+  </si>
+  <si>
+    <t>nắng</t>
+  </si>
+  <si>
+    <t>Mhual</t>
+  </si>
+  <si>
+    <t>mây</t>
+  </si>
+  <si>
+    <t>Rơbut</t>
+  </si>
+  <si>
+    <t>bão</t>
+  </si>
+  <si>
+    <t>Dà sòr</t>
+  </si>
+  <si>
+    <t>nước lũ</t>
+  </si>
+  <si>
+    <t>Dồ</t>
+  </si>
+  <si>
+    <t>khỉ</t>
+  </si>
+  <si>
+    <t>Mpồl</t>
+  </si>
+  <si>
+    <t>đàn, nhóm, đội, đoàn, …</t>
+  </si>
+  <si>
+    <t>Rờnu\</t>
+  </si>
+  <si>
+    <t>chòi nhỏ</t>
+  </si>
+  <si>
+    <t>Brê dơr</t>
+  </si>
+  <si>
+    <t>rừng rậm</t>
+  </si>
+  <si>
+    <t>Jit jir</t>
+  </si>
+  <si>
+    <t>liên miên</t>
+  </si>
+  <si>
+    <t>Jơngo</t>
+  </si>
+  <si>
+    <t>âm u</t>
+  </si>
+  <si>
+    <t>Duêt</t>
+  </si>
+  <si>
+    <t>ít</t>
+  </si>
+  <si>
+    <t>Cò</t>
+  </si>
+  <si>
+    <t>chảy</t>
+  </si>
+  <si>
+    <t>Ko\</t>
+  </si>
+  <si>
+    <t>tràn</t>
+  </si>
+  <si>
+    <t>Pơrdô</t>
+  </si>
+  <si>
+    <t>trôi nổi</t>
+  </si>
+  <si>
+    <t>Gơkua</t>
+  </si>
+  <si>
+    <t>trôi</t>
+  </si>
+  <si>
+    <t>Aniai</t>
+  </si>
+  <si>
+    <t>phá hoại</t>
+  </si>
+  <si>
+    <t>Khồm</t>
+  </si>
+  <si>
+    <t>thổi</t>
+  </si>
+  <si>
+    <t>Mus</t>
+  </si>
+  <si>
+    <t>phát cây nhỏ</t>
+  </si>
+  <si>
+    <t>Kơl</t>
+  </si>
+  <si>
+    <t>hạ cây lớn</t>
+  </si>
+  <si>
+    <t>Gờwèt</t>
+  </si>
+  <si>
+    <t>thuộc về</t>
+  </si>
+  <si>
+    <t>Rơp</t>
+  </si>
+  <si>
+    <t>sẽ</t>
+  </si>
+  <si>
+    <t>Gen</t>
+  </si>
+  <si>
+    <t>Di lah</t>
+  </si>
+  <si>
+    <t>nếu</t>
+  </si>
+  <si>
+    <t>Ngai òr, trồ mìu jo\ sơl ờ?</t>
+  </si>
+  <si>
+    <t>Dà sòr tih mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>Tàm ala\ nam do òr, mìu càl mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>Di lah mus kờl brê dơr gen cồng nha tơ nơ\ mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>Mìr ne gơwèt [òn pơ dê?</t>
+  </si>
+  <si>
+    <t>N|cau neh chu brê lơh mìr?</t>
+  </si>
+  <si>
+    <t>Tàm mìr n\chi tam?</t>
+  </si>
+  <si>
+    <t>Geh dồ aniai mìr ờ?</t>
+  </si>
+  <si>
+    <t>Mìr ne gơwèt [òn Prau.</t>
+  </si>
+  <si>
+    <t>Ồng K’Tư chu brê lơh mìr.</t>
+  </si>
+  <si>
+    <t>Tàm mìr tam tơngời, kòi, rơpoal, khoah,…</t>
+  </si>
+  <si>
+    <t>Dồ aniai mìr git lơh, bol gơ tus jat mpồl.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jơnau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>miu, tơngai, trồ, mus, kơl, chu.</t>
+    </r>
+  </si>
+  <si>
+    <t>Brê làh anih mơ, kis gơs mơ gơjềng tơng guh rà jơi phan brê dê; ala\ jơi phan brê be so rơhau, jùn, prò, … ala\ jơi sềm, jơi kis tàm dà be ka ti, ka,… Brê cang kìng dra\ krơyan rơbut bràs, dra\ dà jroh siar ù, grap gàr ù tiah, tơng guh bơtơl m[ùr ù tiah in, bơh hơ\ ai chi tam in oa\ plai đo.</t>
+  </si>
+  <si>
+    <t>Brê gàr dà mơ lơh croh dà gơ hờr niam, kơr yan gơko\ dà sòr. Brê làh jơtài dà lơgar. Bol he pal bơtơl pràn grap gàr brê, grap gàr trồ tiah.</t>
+  </si>
+  <si>
+    <t>Tiah</t>
+  </si>
+  <si>
+    <t>Trồ tiah</t>
+  </si>
+  <si>
+    <t>môi trường</t>
+  </si>
+  <si>
+    <t>Jơtài</t>
+  </si>
+  <si>
+    <t>gia tài, tài sản</t>
+  </si>
+  <si>
+    <t>Jơi</t>
+  </si>
+  <si>
+    <t>đồng vật, giống, dòng, họ</t>
+  </si>
+  <si>
+    <t>So rơhau</t>
+  </si>
+  <si>
+    <t>chó sói</t>
+  </si>
+  <si>
+    <t>Jùn</t>
+  </si>
+  <si>
+    <t>nai</t>
+  </si>
+  <si>
+    <t>Prò</t>
+  </si>
+  <si>
+    <t>sóc</t>
+  </si>
+  <si>
+    <t>Sềm</t>
+  </si>
+  <si>
+    <t>chim</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>cá</t>
+  </si>
+  <si>
+    <t>Kati</t>
+  </si>
+  <si>
+    <t>tôm</t>
+  </si>
+  <si>
+    <t>Bràs</t>
+  </si>
+  <si>
+    <t>cát</t>
+  </si>
+  <si>
+    <t>Nho</t>
+  </si>
+  <si>
+    <t>ngo, thông</t>
+  </si>
+  <si>
+    <t>Ba\ brê</t>
+  </si>
+  <si>
+    <t>cụm rừng</t>
+  </si>
+  <si>
+    <t>Biàng</t>
+  </si>
+  <si>
+    <t>Màh</t>
+  </si>
+  <si>
+    <t>bạc</t>
+  </si>
+  <si>
+    <t>Dà sơdiang (croh)</t>
+  </si>
+  <si>
+    <t>suối</t>
+  </si>
+  <si>
+    <t>Dà dờng</t>
+  </si>
+  <si>
+    <t>sông</t>
+  </si>
+  <si>
+    <t>Dà lềng</t>
+  </si>
+  <si>
+    <t>biển</t>
+  </si>
+  <si>
+    <t>M[ùl</t>
+  </si>
+  <si>
+    <t>phì nhiêu</t>
+  </si>
+  <si>
+    <t>Gơs</t>
+  </si>
+  <si>
+    <t>hình thành</t>
+  </si>
+  <si>
+    <t>Dra\</t>
+  </si>
+  <si>
+    <t>chống</t>
+  </si>
+  <si>
+    <t>Gàr</t>
+  </si>
+  <si>
+    <t>giữ</t>
+  </si>
+  <si>
+    <t>Grap gàr</t>
+  </si>
+  <si>
+    <t>bảo vệ</t>
+  </si>
+  <si>
+    <t>Krơyan</t>
+  </si>
+  <si>
+    <t>ngăn chặn</t>
+  </si>
+  <si>
+    <t>Tong (ai)</t>
+  </si>
+  <si>
+    <t>đưa</t>
+  </si>
+  <si>
+    <t>thêm, góp, tăng cường</t>
+  </si>
+  <si>
+    <t>Hòr</t>
+  </si>
+  <si>
+    <t>Jroh siar</t>
+  </si>
+  <si>
+    <t>xói mòn</t>
+  </si>
+  <si>
+    <t>Gơko\</t>
+  </si>
+  <si>
+    <t>ngập lụt</t>
+  </si>
+  <si>
+    <t>Be</t>
+  </si>
+  <si>
+    <t>như</t>
+  </si>
+  <si>
+    <t>Đo</t>
+  </si>
+  <si>
+    <t>phụ từ</t>
+  </si>
+  <si>
+    <t>Jơi phan pơ kis tàm brê?</t>
+  </si>
+  <si>
+    <t>Brê geh cồng nha lơi?</t>
+  </si>
+  <si>
+    <t>Brê geh bơta lơi?</t>
+  </si>
+  <si>
+    <t>Bol he pal lơh n\chi lơi làng grap gàr brê?</t>
+  </si>
+  <si>
+    <t>Dà sơdiang do mbe sơnđan?</t>
+  </si>
+  <si>
+    <t>Gơ hòr tus dà pơ?</t>
+  </si>
+  <si>
+    <t>Bàr gah dà gam geh brê ờ?</t>
+  </si>
+  <si>
+    <t>Dà sơdiang do sơnđan lafh Camly.</t>
+  </si>
+  <si>
+    <t>Gơ hòr tus Dà Dờng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hơ bơdìh [òn dờng gam brê nho mơya tàm dowlam [òn dờng mìng gam bàr pe ba\ brê lơm.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jơnau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>brê, ù, gàr, grap gàr.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ngai do, cán bộ lâm nghiệp bơh kơnhuàl tus tàm [òn yal bơto lơh sra\ pơ àr dờp ù, bowta tam brê làng bol in. Cán bộ lâm nghiệp sơnđio mbe lơh rơwah kòn chi, dờp kòn chi, sơnđio pơlam cròng gùng tam brê, bơta grap gàr brê. Cán bộ lâm sơnđio bơta grap gàr brê, rơcang ồs sa brê. Tơl na\ cau iat, ntềng lơi ờ hềt loh gen lùp wơl, cán bộ sơnđio pơlam tai loh rơlau. Bơh ndo, làng bol tàm [òn geh gơ bơtơl broa\ lơh pa. {òn làng tàm jào broa\ làng lơh bal. Cau ờ tam gen lòt sơng ka, grap gảr brê.</t>
+  </si>
+  <si>
+    <t>Kòn chi</t>
+  </si>
+  <si>
+    <t>cây con</t>
+  </si>
+  <si>
+    <t>Rơyas chi</t>
+  </si>
+  <si>
+    <t>rễ cây</t>
+  </si>
+  <si>
+    <t>Ntê</t>
+  </si>
+  <si>
+    <t>cành, tán</t>
+  </si>
+  <si>
+    <t>Nha</t>
+  </si>
+  <si>
+    <t>lá</t>
+  </si>
+  <si>
+    <t>Cồng nha</t>
+  </si>
+  <si>
+    <t>ích lợi</t>
+  </si>
+  <si>
+    <t>Kuơ màng</t>
+  </si>
+  <si>
+    <t>quý giá</t>
+  </si>
+  <si>
+    <t>Cau kra</t>
+  </si>
+  <si>
+    <t>cụ già</t>
+  </si>
+  <si>
+    <t>Rơwas</t>
+  </si>
+  <si>
+    <t>voi</t>
+  </si>
+  <si>
+    <t>Krih</t>
+  </si>
+  <si>
+    <t>cọp</t>
+  </si>
+  <si>
+    <t>Jrơke</t>
+  </si>
+  <si>
+    <t>heo rừng</t>
+  </si>
+  <si>
+    <t>Phan bơna</t>
+  </si>
+  <si>
+    <t>tài nguyên, tài sản</t>
+  </si>
+  <si>
+    <t>Sra\ pơ àr</t>
+  </si>
+  <si>
+    <t>giấy tờ</t>
+  </si>
+  <si>
+    <t>Bơto</t>
+  </si>
+  <si>
+    <t>dạy</t>
+  </si>
+  <si>
+    <t>Sơnđio</t>
+  </si>
+  <si>
+    <t>Pơlam cròng</t>
+  </si>
+  <si>
+    <t>dìu dắt</t>
+  </si>
+  <si>
+    <t>Sơnđio pơlam</t>
+  </si>
+  <si>
+    <t>hướng dẫn</t>
+  </si>
+  <si>
+    <t>Jat</t>
+  </si>
+  <si>
+    <t>theo</t>
+  </si>
+  <si>
+    <t>Dờp ù</t>
+  </si>
+  <si>
+    <t>nhận đất</t>
+  </si>
+  <si>
+    <t>Sơng ka</t>
+  </si>
+  <si>
+    <t>chăm sóc</t>
+  </si>
+  <si>
+    <t>Kìng càl</t>
+  </si>
+  <si>
+    <t>chắn gió</t>
+  </si>
+  <si>
+    <t>Gơlơh</t>
+  </si>
+  <si>
+    <t>bị</t>
+  </si>
+  <si>
+    <t>Tam brê lafh broa\ lơh mbe lơi?</t>
+  </si>
+  <si>
+    <t>Cán bộ lâm nghiệp bơh anih lơi tus?</t>
+  </si>
+  <si>
+    <t>Cán bộ lâm nghiệp pơlam lơh broa\ lơi?</t>
+  </si>
+  <si>
+    <t>Brê làh phan bơna mbe gơlowh?</t>
+  </si>
+  <si>
+    <t>Bơnồ òr nau tàm brê n\chi jơi brê geh?</t>
+  </si>
+  <si>
+    <t>Tu\ do gam geh phan brê lơi?</t>
+  </si>
+  <si>
+    <t>N|chi bol he pal lơh?</t>
+  </si>
+  <si>
+    <t>Brê làh phan bơna kuơ màng rơlau jơh.</t>
+  </si>
+  <si>
+    <t>Rơyas chi gơ ròng gàr dà, ntê nha dong ù in ờ gơlơh siar. Brê gam gàr càl in kloh niam mơ kìng càl.</t>
+  </si>
+  <si>
+    <t>Jat be cau kra yal wơl, bơnồ òr nau tàm brê geh rơwas, klìu, krih,…</t>
+  </si>
+  <si>
+    <t>Tu\ do gam mìng jùn, jrơke, dồ, …</t>
+  </si>
+  <si>
+    <t>Bol he pal grap gàr phan bơna brê, ban\ kowl chi, ban\ chu brê.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jơnau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>dờp, rơwah, sơng ka, iat, sơnđio.</t>
+    </r>
+  </si>
+  <si>
+    <t>Động từ cảm nghĩ, tình cảm</t>
+  </si>
+  <si>
+    <t>An\ git khai.</t>
+  </si>
+  <si>
+    <t>Tôi biết nó.</t>
+  </si>
+  <si>
+    <t>Me gơboh mơ kòn.</t>
+  </si>
+  <si>
+    <t>Mẹ yêu con.</t>
+  </si>
+  <si>
+    <t>Khai kah bau.</t>
+  </si>
+  <si>
+    <t>Nó nhớ vợ.</t>
+  </si>
+  <si>
+    <t>Các trạng từ thành ngữ chỉ mức độ thường được sử dụng trong kết hợp với các động từ nói trên.</t>
+  </si>
+  <si>
+    <t>Đồng từ vô tác</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đấy là loại động từ không có bổ ngữ đối tượng nên trong kết hợp ngữ pháp thường chỉ có bổ ngữ địa điểm, thời gian, phương tiện: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>bic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (nằm. ngủ), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>par</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (bay), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>rơlô</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (nghỉ),…</t>
+    </r>
+  </si>
+  <si>
+    <t>Oh gam bic.</t>
+  </si>
+  <si>
+    <t>Cháu đang ngủ.</t>
+  </si>
+  <si>
+    <t>Bol khai bic tàm brê.</t>
+  </si>
+  <si>
+    <t>Họ ngủ trong rừng.</t>
+  </si>
+  <si>
+    <t>Động từ tác động</t>
+  </si>
+  <si>
+    <t>Đấy là nhóm động từ phong phú nhất. Đặc điểm của loại động từ này là về mặt ý nghĩa nó luôn luôn làm rõ: ai là chủ thể hoạt động, ai là đối tượng hành động, vì thế việc đảo trận tự các yếu tố là không thể được.</t>
+  </si>
+  <si>
+    <t>Me n\ô dà.</t>
+  </si>
+  <si>
+    <t>Mẹ uống nước.</t>
+  </si>
+  <si>
+    <t>Oh sền sra\.</t>
+  </si>
+  <si>
+    <t>Em đọc sách.</t>
+  </si>
+  <si>
+    <t>{òn jà hòi pơlam bơtào [òn chài rơgơi. Tàm [òn, cau lơi krung git ala\ jơnau krơnuat gơs [òn chài rơgơi. Cau lơi krung wa\ pal lơh broa\ lơi làng geh làh [òn chài rơgơi. Pal git ngui sa sàng goh, lơh jơh [òn in sàng goh. Pal git rơcang broa\ lơh, dong kờl bal tàm ala\ broa\ lơh, phan ròng siam. Ờ di lơh bơta ờ diơng, ờ jat jơnau cau iơh chồ. Ờ geh cau lơi chu jrào phiơn, cit ma túy. Ờ jat bơta pin gời tai.</t>
+  </si>
+  <si>
+    <t>Hìu nha\ K’Bim neh geh cau pồ làh hìu nhă chài rơgơi. Oă hìu krung geh dờp lafh hìu nha\ chài rơgơi sơl.</t>
+  </si>
+  <si>
+    <t>Chài rơgơi</t>
+  </si>
+  <si>
+    <t>văn hóa</t>
+  </si>
+  <si>
+    <t>Krơnuat</t>
+  </si>
+  <si>
+    <t>quy ước</t>
+  </si>
+  <si>
+    <t>Jrào phiơn</t>
+  </si>
+  <si>
+    <t>thuốc phiện</t>
+  </si>
+  <si>
+    <t>Bơta pin gời</t>
+  </si>
+  <si>
+    <t>mê tín di đoan</t>
+  </si>
+  <si>
+    <t>Bơta ờ doing</t>
+  </si>
+  <si>
+    <t>điều xấu</t>
+  </si>
+  <si>
+    <t>Bơtào</t>
+  </si>
+  <si>
+    <t>dựng, xây dựng</t>
+  </si>
+  <si>
+    <t>Bơtê bơto</t>
+  </si>
+  <si>
+    <t>dạy giỗ, giáo dục</t>
+  </si>
+  <si>
+    <t>mời</t>
+  </si>
+  <si>
+    <t>Hòi</t>
+  </si>
+  <si>
+    <t>gọi</t>
+  </si>
+  <si>
+    <t>Jà hòi</t>
+  </si>
+  <si>
+    <t>phát động</t>
+  </si>
+  <si>
+    <t>Pồ</t>
+  </si>
+  <si>
+    <t>bầu</t>
+  </si>
+  <si>
+    <t>Cit ma túy</t>
+  </si>
+  <si>
+    <t>chích ma túy</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>Krung</t>
+  </si>
+  <si>
+    <t>cũng</t>
+  </si>
+  <si>
+    <t>Làng (nàng)</t>
+  </si>
+  <si>
+    <t>để</t>
+  </si>
+  <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>được, đúng</t>
+  </si>
+  <si>
+    <t>{òn jà hòi jơnau lơi?</t>
+  </si>
+  <si>
+    <t>Làng gơs [òn chài rơgơi pal lơh lài n\chi lơi?</t>
+  </si>
+  <si>
+    <t>Hìu nha\ chài rơgơi pal mbe lơi?</t>
+  </si>
+  <si>
+    <t>(Mbe gơlơh hìu nha\ chài rơgơi?)</t>
+  </si>
+  <si>
+    <t>Hìu nha\ lơi neh dờp hìu chài rơgơh?</t>
+  </si>
+  <si>
+    <t>Kờn\ bơtào [òn chài rơgơi lài jơh n\chi pal lơh?</t>
+  </si>
+  <si>
+    <t>Be hơ\ tơl hìu nha\ di pal lơh mbe lơi?</t>
+  </si>
+  <si>
+    <t>N|chi broa\ tơl na\ cau di pal lơh?</t>
+  </si>
+  <si>
+    <t>Kờn\ geh [òn chài rơgơi lài jowh pal geh hìu nha\ chài rơgơi.</t>
+  </si>
+  <si>
+    <t>Hìu nha\ lơi krung pal bơtê bơto oh kòn he.</t>
+  </si>
+  <si>
+    <t>Hìu lơi krung tơng kloh anih ơm ngui, hìu lơi krung trơyang lơh broa\.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jơnau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>bơta, kloh, chài rơgơi, bơtàu, ban\.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ala\ rơnàng [òn làng kòn cau Lâm Đồng (Kơho, Mà, Cru) neh lời wơl tơ rài tơ nơ\ tơng guh tờm bơta chài rơgơi bơh yau mơ oa\ git nđờ.</t>
+  </si>
+  <si>
+    <t>Tàm bau yô ùr klau dê làh dùl ngai chờ jơh ala\ [òn. Jơi nòi ngài rềp tàm pà bal bơta ram gơboh bàr na\. Cau kra [òn ala\ mat bàr hìu nha\ yal tơng git ban mơ brơtơu rơp gơjềng ùr bơlau. Làng sơnđio tơlik bơta hơ pơr gon hơ\ ùr mơ klau n\ô bal dùl bơngàn trơnờm, sa bal bàr pơnat piang pat. Tơ nơ\ hơ\, cau ùr hồ n\òng kèo mơ kòng rài jàu cau klau in làng lơh pin dờn. Hơ\ làh rùp rài nùs nhơm đềp mềr nùs gơboh dê.</t>
+  </si>
+  <si>
+    <t>Rơnàng</t>
+  </si>
+  <si>
+    <t>thế hệ</t>
+  </si>
+  <si>
+    <t>Bòr</t>
+  </si>
+  <si>
+    <t>dàn</t>
+  </si>
+  <si>
+    <t>Mồng</t>
+  </si>
+  <si>
+    <t>cồng</t>
+  </si>
+  <si>
+    <t>Cing</t>
+  </si>
+  <si>
+    <t>chiêng</t>
+  </si>
+  <si>
+    <t>Bơngàn</t>
+  </si>
+  <si>
+    <t>chén</t>
+  </si>
+  <si>
+    <t>Pơnat piang pat</t>
+  </si>
+  <si>
+    <t>nắm cơm vắt</t>
+  </si>
+  <si>
+    <t>Kòng</t>
+  </si>
+  <si>
+    <t>còng</t>
+  </si>
+  <si>
+    <t>Tàm bau</t>
+  </si>
+  <si>
+    <t>đám cưới</t>
+  </si>
+  <si>
+    <t>Brơtơu</t>
+  </si>
+  <si>
+    <t>chàng rể</t>
+  </si>
+  <si>
+    <t>Ban</t>
+  </si>
+  <si>
+    <t>cô dâu</t>
+  </si>
+  <si>
+    <t>N|òng kèo</t>
+  </si>
+  <si>
+    <t>chuỗi cườm</t>
+  </si>
+  <si>
+    <t>Rùp</t>
+  </si>
+  <si>
+    <t>hình ảnh</t>
+  </si>
+  <si>
+    <t>Nùs</t>
+  </si>
+  <si>
+    <t>lòng</t>
+  </si>
+  <si>
+    <t>Nhơm</t>
+  </si>
+  <si>
+    <t>hơi thở</t>
+  </si>
+  <si>
+    <t>Nùs nhơm</t>
+  </si>
+  <si>
+    <t>tinh thần</t>
+  </si>
+  <si>
+    <t>Đơs tàm pơt</t>
+  </si>
+  <si>
+    <t>đối đáp</t>
+  </si>
+  <si>
+    <t>Đơs long</t>
+  </si>
+  <si>
+    <t>giao duyên</t>
+  </si>
+  <si>
+    <t>Chơt jê</t>
+  </si>
+  <si>
+    <t>chết chóc</t>
+  </si>
+  <si>
+    <t>Phan kuơ</t>
+  </si>
+  <si>
+    <t>của quý, tài sản</t>
+  </si>
+  <si>
+    <t>Bơh yau</t>
+  </si>
+  <si>
+    <t>truyền thống (từ xưa)</t>
+  </si>
+  <si>
+    <t>Ròm</t>
+  </si>
+  <si>
+    <t>hay</t>
+  </si>
+  <si>
+    <t>Tơlik</t>
+  </si>
+  <si>
+    <t>cho ra</t>
+  </si>
+  <si>
+    <t>Sơnđio tơlik</t>
+  </si>
+  <si>
+    <t>chỉ dẫn</t>
+  </si>
+  <si>
+    <t>Hồ</t>
+  </si>
+  <si>
+    <t>cởi</t>
+  </si>
+  <si>
+    <t>Jàu</t>
+  </si>
+  <si>
+    <t>trao</t>
+  </si>
+  <si>
+    <t>Lời</t>
+  </si>
+  <si>
+    <t>để, thôi</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>thay mặt</t>
+  </si>
+  <si>
+    <t>Tờng git</t>
+  </si>
+  <si>
+    <t>thông báo</t>
+  </si>
+  <si>
+    <t>Đơs tờng git</t>
+  </si>
+  <si>
+    <t>tuyên bố</t>
+  </si>
+  <si>
+    <t>Gơjềng</t>
+  </si>
+  <si>
+    <t>thành</t>
+  </si>
+  <si>
+    <t>Pin dờn</t>
+  </si>
+  <si>
+    <t>tin tưởng</t>
+  </si>
+  <si>
+    <t>Pơr gon</t>
+  </si>
+  <si>
+    <t>hứa hẹn</t>
+  </si>
+  <si>
+    <t>Pơnđiangru</t>
+  </si>
+  <si>
+    <t>Ngui</t>
+  </si>
+  <si>
+    <t>dùng</t>
+  </si>
+  <si>
+    <t>Ala\ rơnàng [òn làng kòn cau Lâm Đồng neh lời wơl tơ rai trơnơ\ n\chi pơ?</t>
+  </si>
+  <si>
+    <t>Tàm kup bau gơlik mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>Làng sơnđio tơlik bơta hơ pơr gon kis đềt mềr jơl rài, brơtơu mơ ban n\chi lơh?</t>
+  </si>
+  <si>
+    <t>{ăn jàu dơ brơtơu mpa phan bơna?</t>
+  </si>
+  <si>
+    <t>Oh git đơs crih làh ờ?</t>
+  </si>
+  <si>
+    <t>Oh ờs đơs crih ala\ gùng lơi?</t>
+  </si>
+  <si>
+    <t>Bòr mồng cing di ngui tàm ala\ tu\ lơi?</t>
+  </si>
+  <si>
+    <t>N|chi bơh tài tàng ờ di tac mồng cing?</t>
+  </si>
+  <si>
+    <t>An\ git đơs crih, mơya đơs crih ờ huan ròm ngan.</t>
+  </si>
+  <si>
+    <t>An\ ờs đơs crih ala\ gùng đơs crih pơnđiang oh, đơs tàm pơt,…</t>
+  </si>
+  <si>
+    <t>Bòr mồng cing di ngui tàm ala\ ngai chờ bơnàr, chơt jê,…</t>
+  </si>
+  <si>
+    <t>Tài bơh mồng cing làh phan kuơ geh bơh yau lời wơl bơh rài do jơl rài ndai.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jơnau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>[an, brơtơu, chờ jơh, ngài, rềp.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gơ wèt mơ ala\ jơi bơtiàn tiah Kơh Bơnơm, kàl lơh mìr sre geh lơh tềl mơ ngai lơh Yàng sền rơwah ù. Tơn dut dùl nam tùc sih, làng bol ơm tiah Kơh Bơnơm ờs sap rơndap ngai chờ bơnàr tơn hàu kòi pa.</t>
+  </si>
+  <si>
+    <t>Đah gah ala\ ngai chờ bơnàr broa\ mìr sre, ala\ jơi bơtiàn tiah Kơh Bơnơm gam geh ala\ ngai chờ bơnàr ndai mơ is ồn rơlau jơh làh; ngai bơnàr n\ô sa rơpu, ngai bơ thi [ồc (ngai dờng ngan tàm bơta rơcang broa\ dar rài kòn bơnus).</t>
+  </si>
+  <si>
+    <t>N|ô Lềr Bong làh ngai chờ dut ndơl tàm jơl jơh brua\ tùc sih kòi dà cau Kơho Sre tàm Lâm Đồng dê. Ngai chờ bơnàr ờs gơ tus tơ nơ\ ngai Tết Nguyên Đán cau Yuan dê. Do làh ngai chờ bơnàr chờ ngan cau Kơho Srê dê.</t>
+  </si>
+  <si>
+    <t>Tềl</t>
+  </si>
+  <si>
+    <t>dấu</t>
+  </si>
+  <si>
+    <t>Rơpu</t>
+  </si>
+  <si>
+    <t>trâu</t>
+  </si>
+  <si>
+    <t>Dar</t>
+  </si>
+  <si>
+    <t>vòng</t>
+  </si>
+  <si>
+    <t>Is ồn</t>
+  </si>
+  <si>
+    <t>duy nhất</t>
+  </si>
+  <si>
+    <t>Dut ndơl</t>
+  </si>
+  <si>
+    <t>cuối cùng</t>
+  </si>
+  <si>
+    <t>Tơn dut</t>
+  </si>
+  <si>
+    <t>kết thúc</t>
+  </si>
+  <si>
+    <t>Tùc</t>
+  </si>
+  <si>
+    <t>chọc lỗ</t>
+  </si>
+  <si>
+    <t>Siah</t>
+  </si>
+  <si>
+    <t>tỉa hạt</t>
+  </si>
+  <si>
+    <t>Sih</t>
+  </si>
+  <si>
+    <t>sạ</t>
+  </si>
+  <si>
+    <t>Tơn hào</t>
+  </si>
+  <si>
+    <t>thu hoạch</t>
+  </si>
+  <si>
+    <t>Sap</t>
+  </si>
+  <si>
+    <t>sắp</t>
+  </si>
+  <si>
+    <t>Rơndap</t>
+  </si>
+  <si>
+    <t>xếp</t>
+  </si>
+  <si>
+    <t>Sap rơndap</t>
+  </si>
+  <si>
+    <t>tổ chức</t>
+  </si>
+  <si>
+    <t>Bơ thi bồc</t>
+  </si>
+  <si>
+    <t>bỏ mả</t>
+  </si>
+  <si>
+    <t>Gơ tus</t>
+  </si>
+  <si>
+    <t>diễn ra, đến</t>
+  </si>
+  <si>
+    <t>Tur (dròng) cing</t>
+  </si>
+  <si>
+    <t>đánh chiêng</t>
+  </si>
+  <si>
+    <t>Jan mồng</t>
+  </si>
+  <si>
+    <t>đánh cồng</t>
+  </si>
+  <si>
+    <t>Tơn dut dùl nam broa\ tùc sih, cau ơm tiah Kơh Bơnơm ờs sap rơndap ngai chờ bơnàr pơ?</t>
+  </si>
+  <si>
+    <t>Bơdìh ala\ ngai chờ bơnàr mìr sre, ala\ jơi bơtiàn tiah Kơh Bơnơm gam geh ala\ ngai chờ bơnàr ndai tai ờ?</t>
+  </si>
+  <si>
+    <t>Ngai bơ thi [ồc geh kuơ lơi?</t>
+  </si>
+  <si>
+    <t>Ngai chờ bơnàr chờ ngan cau Kơho Sre dê làh ngai chờ lơi?</t>
+  </si>
+  <si>
+    <t>Gơ wèt bơta pin dờn, cau Kơho pin jat n\cau?</t>
+  </si>
+  <si>
+    <t>Cau Kơho geh ala\ ngai chờ bơnar pơ?</t>
+  </si>
+  <si>
+    <t>Ngai chờ bơnar di sap rơndap mbe gơlơh?</t>
+  </si>
+  <si>
+    <t>Pin Yàng mơ ala\ yàng: yàng Ndu, yàng bơnơm, yàng dà, yàng brê dơr,…</t>
+  </si>
+  <si>
+    <t>Bơ nồ òr, cau Kơho geh oa\ ngai chờ bơnar: sa rơpu, bơ thi [ồc, mut hìu pa,…</t>
+  </si>
+  <si>
+    <t>Ngai chờ bơnàr geh n\ô sa, đơs crih đơs chờ, tur mồng cing.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jơnau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>ngai chờ bơnàr, kàl, dut, rơwah, đah gar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ơm ngài mơ [òn.</t>
+  </si>
+  <si>
+    <t>Ở xa làng.</t>
+  </si>
+  <si>
+    <t>Jơnhua pe làc.</t>
+  </si>
+  <si>
+    <t>Cao ba sải tay.</t>
+  </si>
+  <si>
+    <t>Oh trơyang bơsram.</t>
+  </si>
+  <si>
+    <t>Em chăm học.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tính từ chỉ chất: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">niam </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(đẹp, tốt)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, pràn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(khỏe)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, kra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(già, cũ)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, jak </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>(tài, giỏi)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>,…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tính từ chỉ lượng: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>jơnhua</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(cao), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>jòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (dài), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>dờng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (to), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>rềp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (gần).</t>
+    </r>
+  </si>
+  <si>
+    <t>Ngai 3 nhai 2 nam 1930, Đảng Cộng sản Việt Nam gơjềng gơs. Bal mơ broa\ tơng guh tờm mơ gùng dà dê, bơceh pa, Đảng Cộng sản Việt Nam neh sap sơndap, tề lam kac màng dà lơgar he geh cèng wơl ala\ bơta jai pha chờ hờp ngan. Nam 1945, dơ\ sơnrờp, K’Brôp sền go\ kơ pơr hê srơman\ rơmit tàm dùl ngai lèh tàm [òn dờng. Tơ nơ\ do, ồng git hơ\ làh mitting chờ gờm ngai Quốc khánh, gơlik gơs dà lơgar Việt Nam Dân chủ Cộng hòa. Ồng wa\ wờng làh dà kơ gơnuar at bồ kac màng neh cèng wơl lơngap is, khat gơboh jơi bơtiàn in. Tơ nơ\ do, K’Brôp nting sap kòn sau sùm sùm gơboh dà lơgar, ờ tu\ lơi sơrlèt bồ dà lơgar.</t>
+  </si>
+  <si>
+    <t>đất nước, Tổ quốc</t>
+  </si>
+  <si>
+    <t>Lơngap is</t>
+  </si>
+  <si>
+    <t>độc lập</t>
+  </si>
+  <si>
+    <t>Khat gơboh</t>
+  </si>
+  <si>
+    <t>tự do</t>
+  </si>
+  <si>
+    <t>Kac màng</t>
+  </si>
+  <si>
+    <t>cách mạng</t>
+  </si>
+  <si>
+    <t>Jai (pha)</t>
+  </si>
+  <si>
+    <t>thắng</t>
+  </si>
+  <si>
+    <t>Gơnuar at bồ</t>
+  </si>
+  <si>
+    <t>chính phủ</t>
+  </si>
+  <si>
+    <t>Lèh</t>
+  </si>
+  <si>
+    <t>lễ</t>
+  </si>
+  <si>
+    <t>Mitting</t>
+  </si>
+  <si>
+    <t>mít tinh</t>
+  </si>
+  <si>
+    <t>Kơ pơrhê</t>
+  </si>
+  <si>
+    <t>cờ đỏ</t>
+  </si>
+  <si>
+    <t>Srơman\ rơmit</t>
+  </si>
+  <si>
+    <t>sao vàng</t>
+  </si>
+  <si>
+    <t>tiếng</t>
+  </si>
+  <si>
+    <t>đúng</t>
+  </si>
+  <si>
+    <t>Sơnrờp</t>
+  </si>
+  <si>
+    <t>đầu tiên</t>
+  </si>
+  <si>
+    <t>Jòng</t>
+  </si>
+  <si>
+    <t>dài</t>
+  </si>
+  <si>
+    <t>Jơnhau</t>
+  </si>
+  <si>
+    <t>cao</t>
+  </si>
+  <si>
+    <t>Nting</t>
+  </si>
+  <si>
+    <t>dặn dò</t>
+  </si>
+  <si>
+    <t>Chờ gờm</t>
+  </si>
+  <si>
+    <t>chào mừng</t>
+  </si>
+  <si>
+    <t>Gơlik gơs</t>
+  </si>
+  <si>
+    <t>khai sinh</t>
+  </si>
+  <si>
+    <t>Bơceh</t>
+  </si>
+  <si>
+    <t>sáng tác</t>
+  </si>
+  <si>
+    <t>Tề lam</t>
+  </si>
+  <si>
+    <t>dẫn dắt</t>
+  </si>
+  <si>
+    <t>Cèng</t>
+  </si>
+  <si>
+    <t>mang</t>
+  </si>
+  <si>
+    <t>Wờng</t>
+  </si>
+  <si>
+    <t>hiểu, biết</t>
+  </si>
+  <si>
+    <t>Lòt bơtrùi</t>
+  </si>
+  <si>
+    <t>hành quân</t>
+  </si>
+  <si>
+    <t>Sơrlèt bồ</t>
+  </si>
+  <si>
+    <t>phản bội</t>
+  </si>
+  <si>
+    <t>Mpa ngai Đảng Cộng sản Việt Nam gơlik gơs?</t>
+  </si>
+  <si>
+    <t>Dơ\ sơnrờp K’Brôp sền go\ kơ pơrhê srơman\ rơmit tàm man pơ?</t>
+  </si>
+  <si>
+    <t>Ngai Quốc Khánh dà lơgar Việt Nam làh ngai nđờ?</t>
+  </si>
+  <si>
+    <t>Jai pha dờng jơnhau kac màng Việt Nam dê làh n\chi?</t>
+  </si>
+  <si>
+    <t>K’Brôp nting sap kòn sau in bơta lơi?</t>
+  </si>
+  <si>
+    <t>Dà lơgar Việt Nam mpa đah gơ ơm?</t>
+  </si>
+  <si>
+    <t>Ù tiah dà lơgar he làh nđờ?</t>
+  </si>
+  <si>
+    <t>Bơnơm lơi jòng, jơnua rơlau jơh?</t>
+  </si>
+  <si>
+    <t>Dà lơi dờng rơlau jơh?</t>
+  </si>
+  <si>
+    <t>Dà lơgar Việt Nam gơ ơm đah tiah Đông Nam châu Á.</t>
+  </si>
+  <si>
+    <r>
+      <t>330.991 km</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Bơnơm Trường Sơn jòng rơlau jơh, bơnơm Phan-xi-pang jơnhua rơlau jơh (3.143m).</t>
+  </si>
+  <si>
+    <t>Dà Hồng mơ dà Cưu Long.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cih dùl jơnau mơ ala\ khar do: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="TNKeyUni-Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>dà lơgar, kơ, chờ gùm, nting, neh.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4737,6 +6453,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="TNKeyUni-Times"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5101,8 +6824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7222,8 +8945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8012,10 +9735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8759,170 +10482,407 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C67" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
+      <c r="B68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
+      <c r="B69" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C69" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C72" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C74" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C77" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C79" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C82" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C83" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C85" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C88" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C90" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C93" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C95" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C98" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C99" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C101" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="1">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8932,10 +10892,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E507"/>
+  <dimension ref="A1:E529"/>
   <sheetViews>
-    <sheetView topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="C354" sqref="C354"/>
+    <sheetView topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="D503" sqref="D503:D529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13916,774 +15876,2468 @@
         <v>59</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B354" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D354" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B355" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D355" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B356" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D356" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B357" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D357" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B358" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D358" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B359" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D359" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B360" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D360" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B361" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D361" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B362" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D362" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B363" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D363" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B364" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D364" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B365" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D365" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B366" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D366" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B367" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D367" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B368" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D368" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B369" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D369" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B370" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D370" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B371" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D371" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B372" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D372" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B373" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D373" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B374" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D374" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B375" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D375" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B376" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D376" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B377" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D377" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B378" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D378" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B379" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D379" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B380" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="D380" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B381" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D381" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B382" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D382" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B383" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D383" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B384" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D384" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B385" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D385" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B386" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D386" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B387" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D387" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B388" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D388" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B389" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D389" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B390" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D390" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B391" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D391" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B392" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D392" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B393" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D393" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B394" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D394" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B395" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D395" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B396" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D396" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B397" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D397" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B398" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D398" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B399" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D399" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B400" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D400" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B401" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D401" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B402" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D402" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B403" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D403" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B404" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D404" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B405" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D405" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B406" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D406" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B407" s="7" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D407" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B408" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D408" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B409" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D409" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B410" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D410" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B411" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D411" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B412" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D412" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B413" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D413" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B414" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D414" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B415" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D415" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B416" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D416" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B417" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D417" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B418" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D418" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B419" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D419" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B420" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D420" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B421" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D421" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B422" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D422" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B423" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D423" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B424" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D424" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B425" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="D425" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B426" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D426" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B427" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D427" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B428" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D428" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B429" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C429" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D429" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B430" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D430" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B431" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D431" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B432" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D432" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B433" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D433" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B434" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D434" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B435" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C435" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D435" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B436" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C436" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D436" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B437" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D437" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B438" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D438" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B439" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C439" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D439" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B440" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D440" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B441" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D441" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B442" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D442" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B443" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D443" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B444" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D444" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B445" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D445" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B446" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D446" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B447" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C447" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D447" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B448" s="7" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D448" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B449" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D449" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B450" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C450" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D450" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B451" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D451" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B452" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D452" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B453" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D453" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B454" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C454" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D454" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B455" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D455" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B456" s="7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C456" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D456" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B457" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D457" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B458" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D458" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B459" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D459" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B460" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D460" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B461" s="7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D461" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B462" s="7" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D462" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B463" s="7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C463" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D463" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B464" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D464" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B465" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C465" s="7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D465" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B466" s="7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C466" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D466" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B467" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="C467" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="D467" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B468" s="7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C468" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D468" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B469" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C469" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D469" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B470" s="7" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C470" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D470" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B471" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C471" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="D471" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B472" s="7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D472" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B473" s="7" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C473" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D473" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B474" s="7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D474" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B475" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C475" s="7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D475" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B476" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C476" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D476" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B477" s="7" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C477" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D477" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B478" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D478" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B479" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C479" s="7" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D479" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B480" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C480" s="7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D480" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B481" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C481" s="7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D481" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B482" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C482" s="7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D482" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B483" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D483" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B484" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C484" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D484" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B485" s="7" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C485" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D485" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B486" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C486" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D486" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B487" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D487" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B488" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D488" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B489" s="7" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D489" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B490" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C490" s="7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D490" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B491" s="7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C491" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D491" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B492" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C492" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D492" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B493" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C493" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D493" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B494" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C494" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D494" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B495" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C495" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D495" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B496" s="7" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D496" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B497" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C497" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D497" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B498" s="7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C498" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D498" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B499" s="7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C499" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D499" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B500" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C500" s="7" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D500" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B501" s="7" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C501" s="7" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D501" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>501</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B502" s="8" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C502" s="8" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D502" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>502</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B503" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C503" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D503" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>503</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B504" s="7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C504" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D504" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>504</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B505" s="7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C505" s="7" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D505" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>505</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B506" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D506" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>506</v>
+      </c>
+      <c r="B507" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C507" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D507" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>507</v>
+      </c>
+      <c r="B508" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C508" s="7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D508" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>508</v>
+      </c>
+      <c r="B509" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D509" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>509</v>
+      </c>
+      <c r="B510" s="7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D510" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>510</v>
+      </c>
+      <c r="B511" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D511" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>511</v>
+      </c>
+      <c r="B512" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C512" s="7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D512" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>512</v>
+      </c>
+      <c r="B513" s="7" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C513" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D513" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>513</v>
+      </c>
+      <c r="B514" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C514" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D514" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>514</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C515" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D515" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>515</v>
+      </c>
+      <c r="B516" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C516" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D516" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>516</v>
+      </c>
+      <c r="B517" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C517" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D517" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>517</v>
+      </c>
+      <c r="B518" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C518" s="7" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D518" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>518</v>
+      </c>
+      <c r="B519" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C519" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D519" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>519</v>
+      </c>
+      <c r="B520" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D520" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>520</v>
+      </c>
+      <c r="B521" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C521" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D521" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>521</v>
+      </c>
+      <c r="B522" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C522" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D522" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>522</v>
+      </c>
+      <c r="B523" s="7" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C523" s="7" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D523" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>523</v>
+      </c>
+      <c r="B524" s="7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C524" s="7" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D524" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>524</v>
+      </c>
+      <c r="B525" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C525" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D525" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D526" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="B527" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C527" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D527" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="B528" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C528" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D528" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="B529" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C529" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D529" s="10">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -14695,8 +18349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54:F56"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15830,39 +19484,144 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F57" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F58" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F59" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F60" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F61" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F62" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F63" s="1">
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -16057,10 +19816,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView topLeftCell="G65" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66:G83"/>
+    <sheetView topLeftCell="G108" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17602,6 +21361,18 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
+      <c r="B66" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F66" s="13" t="s">
         <v>1085</v>
       </c>
@@ -17613,6 +21384,18 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F67" s="7" t="s">
         <v>1070</v>
       </c>
@@ -17624,6 +21407,18 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
+      <c r="B68" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F68" s="12" t="s">
         <v>1071</v>
       </c>
@@ -17635,6 +21430,18 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
+      <c r="B69" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F69" s="7" t="s">
         <v>1072</v>
       </c>
@@ -17646,6 +21453,18 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F70" s="12" t="s">
         <v>1073</v>
       </c>
@@ -17657,6 +21476,18 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F71" s="7" t="s">
         <v>1074</v>
       </c>
@@ -17668,6 +21499,18 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F72" s="7" t="s">
         <v>1086</v>
       </c>
@@ -17679,6 +21522,18 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F73" s="12" t="s">
         <v>1075</v>
       </c>
@@ -17690,6 +21545,18 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F74" s="7" t="s">
         <v>1076</v>
       </c>
@@ -17701,6 +21568,18 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F75" s="12" t="s">
         <v>1077</v>
       </c>
@@ -17712,6 +21591,18 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F76" s="7" t="s">
         <v>1078</v>
       </c>
@@ -17723,6 +21614,18 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F77" s="7" t="s">
         <v>1079</v>
       </c>
@@ -17734,6 +21637,18 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F78" s="7" t="s">
         <v>1087</v>
       </c>
@@ -17745,6 +21660,18 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F79" s="12" t="s">
         <v>1080</v>
       </c>
@@ -17756,6 +21683,18 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
+      <c r="B80" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F80" s="12" t="s">
         <v>1081</v>
       </c>
@@ -17767,6 +21706,18 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
+      <c r="B81" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F81" s="12" t="s">
         <v>1082</v>
       </c>
@@ -17778,6 +21729,18 @@
       <c r="A82" s="1">
         <v>81</v>
       </c>
+      <c r="B82" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F82" s="12" t="s">
         <v>1083</v>
       </c>
@@ -17789,6 +21752,18 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="F83" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17796,89 +21771,1246 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G84" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G85" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G86" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G87" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G88" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G89" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G90" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G91" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G92" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G93" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G94" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G95" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G96" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G97" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G98" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G99" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G100" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G101" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G102" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G103" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G104" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G105" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G106" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G107" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G108" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G109" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G110" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G111" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G112" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G113" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G114" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G115" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G116" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G117" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G118" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G119" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G120" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G121" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G122" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G123" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -17891,8 +23023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D47"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18562,167 +23694,428 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D48" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D49" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D50" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D51" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D52" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D53" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D54" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D55" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D56" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D57" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D58" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D59" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D60" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D61" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D62" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D63" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D64" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D65" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D66" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="8" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D67" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D68" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D69" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D70" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D71" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="7" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D72" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D73" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="7" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D74" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="7" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D75" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="8" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D76" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -18836,14 +24229,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80:F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -19991,197 +25384,587 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F58" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F59" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F60" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F61" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F62" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="7" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F63" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F64" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F65" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F66" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F67" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F68" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F69" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F70" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F71" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F72" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F73" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F74" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F75" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F76" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F77" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F78" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="8" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F79" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F80" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F81" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F82" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F83" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>

--- a/THESIS/DuLieu.xlsx
+++ b/THESIS/DuLieu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BaiHoc" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4775" uniqueCount="2758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4802" uniqueCount="2785">
   <si>
     <t>ID</t>
   </si>
@@ -9453,6 +9453,87 @@
   </si>
   <si>
     <t>\App_Data\10DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\11TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\11BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\11DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\12TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\12BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\12DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\14TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\14BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\14DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\15TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\15BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\15DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\17TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\17BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\17DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\18TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\18BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\18DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\19TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\19BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\19DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\21TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\21BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\20TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\20BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\20DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\21DT.mp3</t>
   </si>
 </sst>
 </file>
@@ -17540,8 +17621,8 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18363,8 +18444,8 @@
   <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19195,7 +19276,7 @@
         <v>17</v>
       </c>
       <c r="D54" s="21">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -19209,7 +19290,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="21">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -19237,7 +19318,7 @@
         <v>17</v>
       </c>
       <c r="D57" s="21">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -19265,7 +19346,7 @@
         <v>18</v>
       </c>
       <c r="D59" s="21">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -19279,7 +19360,7 @@
         <v>18</v>
       </c>
       <c r="D60" s="21">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -19307,7 +19388,7 @@
         <v>18</v>
       </c>
       <c r="D62" s="21">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -19380,7 +19461,7 @@
         <v>21</v>
       </c>
       <c r="D67" s="21">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -19394,7 +19475,7 @@
         <v>21</v>
       </c>
       <c r="D68" s="21">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -19422,7 +19503,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="21">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -19450,7 +19531,7 @@
         <v>22</v>
       </c>
       <c r="D72" s="21">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -19464,7 +19545,7 @@
         <v>22</v>
       </c>
       <c r="D73" s="21">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -19492,7 +19573,7 @@
         <v>22</v>
       </c>
       <c r="D75" s="21">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -19607,7 +19688,7 @@
         <v>25</v>
       </c>
       <c r="D83" s="21">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -19621,7 +19702,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="21">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -19649,7 +19730,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="21">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -19677,7 +19758,7 @@
         <v>26</v>
       </c>
       <c r="D88" s="21">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -19691,7 +19772,7 @@
         <v>26</v>
       </c>
       <c r="D89" s="21">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -19719,7 +19800,7 @@
         <v>26</v>
       </c>
       <c r="D91" s="21">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -19747,7 +19828,7 @@
         <v>27</v>
       </c>
       <c r="D93" s="21">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -19761,7 +19842,7 @@
         <v>27</v>
       </c>
       <c r="D94" s="21">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -19789,7 +19870,7 @@
         <v>27</v>
       </c>
       <c r="D96" s="21">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -19834,7 +19915,7 @@
         <v>29</v>
       </c>
       <c r="D99" s="21">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -19848,7 +19929,7 @@
         <v>29</v>
       </c>
       <c r="D100" s="21">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -19876,7 +19957,7 @@
         <v>29</v>
       </c>
       <c r="D102" s="21">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -19904,7 +19985,7 @@
         <v>30</v>
       </c>
       <c r="D104" s="21">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -19918,7 +19999,7 @@
         <v>30</v>
       </c>
       <c r="D105" s="21">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -19946,7 +20027,7 @@
         <v>30</v>
       </c>
       <c r="D107" s="21">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -21360,15 +21441,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21563,8 +21644,225 @@
         <v>2757</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/THESIS/DuLieu.xlsx
+++ b/THESIS/DuLieu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BaiHoc" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4802" uniqueCount="2785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4802" uniqueCount="2787">
   <si>
     <t>ID</t>
   </si>
@@ -9392,148 +9392,154 @@
     <t>\App_Data\3DKV.mp3</t>
   </si>
   <si>
-    <t>\App_Data\4TV1.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\4TV2.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\4TV3.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\4TV4.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\4TV5.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\5TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\5BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\5DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\6TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\6BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\6DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\7TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\7BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\7DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\8TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\9TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\9BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\9DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\10TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\10BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\10DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\11TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\11BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\11DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\12TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\12BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\12DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\14TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\14BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\14DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\15TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\15BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\15DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\17TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\17BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\17DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\18TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\18BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\18DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\19TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\19BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\19DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\21TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\21BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\20TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\20BK.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\20DT.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\21DT.mp3</t>
+    <t>\App_Data\Audio\3TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\3DKV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\4TV1.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\4TV2.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\4TV3.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\4TV4.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\4TV5.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\5TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\5BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\5DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\6TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\6BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\6DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\7TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\7BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\7DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\8TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\9TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\9BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\9DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\10TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\10BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\10DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\11TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\11BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\11DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\12TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\12BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\12DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\14TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\14BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\14DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\15TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\15BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\15DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\17TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\17BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\17DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\18TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\18BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\18DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\19TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\19BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\19DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\20TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\20BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\20DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\21TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\21BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\Audio\21DT.mp3</t>
   </si>
 </sst>
 </file>
@@ -18443,7 +18449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
@@ -21443,8 +21449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21465,7 +21471,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -21473,7 +21479,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -21481,7 +21487,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -21489,7 +21495,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -21497,7 +21503,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2739</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -21505,7 +21511,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -21513,7 +21519,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -21521,7 +21527,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2742</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -21529,7 +21535,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -21537,7 +21543,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2744</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -21545,7 +21551,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2745</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -21553,7 +21559,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -21561,7 +21567,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -21569,7 +21575,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -21577,7 +21583,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -21585,7 +21591,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -21593,7 +21599,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -21601,7 +21607,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -21609,7 +21615,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2753</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -21617,7 +21623,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -21625,7 +21631,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -21633,7 +21639,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -21641,7 +21647,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -21649,7 +21655,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -21657,7 +21663,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>2759</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -21665,7 +21671,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -21673,7 +21679,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -21681,7 +21687,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -21689,7 +21695,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -21697,7 +21703,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -21705,7 +21711,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -21713,7 +21719,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -21721,7 +21727,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -21729,7 +21735,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -21737,7 +21743,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -21745,7 +21751,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -21753,7 +21759,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -21761,7 +21767,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -21769,7 +21775,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -21777,7 +21783,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -21785,7 +21791,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -21793,7 +21799,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -21801,7 +21807,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -21809,7 +21815,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -21841,7 +21847,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>2779</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -21849,7 +21855,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>2780</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -21857,7 +21863,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
     </row>
   </sheetData>

--- a/THESIS/DuLieu.xlsx
+++ b/THESIS/DuLieu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="BaiHoc" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4802" uniqueCount="2787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4802" uniqueCount="2803">
   <si>
     <t>ID</t>
   </si>
@@ -9540,6 +9540,54 @@
   </si>
   <si>
     <t>\App_Data\Audio\Audio\21DT.mp3</t>
+  </si>
+  <si>
+    <t>Ai vậy?</t>
+  </si>
+  <si>
+    <t>Anh đã bao nhiêu tuổi?</t>
+  </si>
+  <si>
+    <t>Anh làm nghề gì?</t>
+  </si>
+  <si>
+    <t>Anh đã có gia đình chưa?</t>
+  </si>
+  <si>
+    <t>Anh ở với ai?</t>
+  </si>
+  <si>
+    <t>Ai ở cùng với anh?</t>
+  </si>
+  <si>
+    <t>Anh đang làm việc gì?</t>
+  </si>
+  <si>
+    <t>K'Brôp làh bàp K'Bim dê.</t>
+  </si>
+  <si>
+    <t>Mè K'Bim làh mò Ka Dìm.</t>
+  </si>
+  <si>
+    <t>K'Brit làh wa K'Bim dê.</t>
+  </si>
+  <si>
+    <t>Ka Hai làh mlo\ K'Bim.</t>
+  </si>
+  <si>
+    <t>Bau ùr K'Bim làh Ka Dồm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K'Bim geh bar na\ kòn. </t>
+  </si>
+  <si>
+    <t>Kòn klau bol khai dê làh K'Brừm, kòn ùr làh Ka Dôp.</t>
+  </si>
+  <si>
+    <t>Nam do, K'Brừm neh 13 sơnam.</t>
+  </si>
+  <si>
+    <t>K'Brừm bơsram adu\ phàm.</t>
   </si>
 </sst>
 </file>
@@ -10587,9 +10635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10644,7 +10692,7 @@
         <v>569</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>601</v>
+        <v>2787</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>601</v>
@@ -10661,7 +10709,7 @@
         <v>570</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>601</v>
+        <v>2788</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>601</v>
@@ -10678,7 +10726,7 @@
         <v>571</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>601</v>
+        <v>2789</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>601</v>
@@ -10695,7 +10743,7 @@
         <v>572</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>601</v>
+        <v>2790</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>601</v>
@@ -10712,7 +10760,7 @@
         <v>573</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>601</v>
+        <v>2791</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>601</v>
@@ -10729,7 +10777,7 @@
         <v>574</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>601</v>
+        <v>2792</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>601</v>
@@ -10746,7 +10794,7 @@
         <v>575</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>601</v>
+        <v>2793</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>601</v>
@@ -10763,7 +10811,7 @@
         <v>657</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>601</v>
+        <v>2794</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>601</v>
@@ -10780,7 +10828,7 @@
         <v>658</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>601</v>
+        <v>2795</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>601</v>
@@ -10797,7 +10845,7 @@
         <v>659</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>601</v>
+        <v>2796</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>601</v>
@@ -10814,7 +10862,7 @@
         <v>660</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>601</v>
+        <v>2797</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>601</v>
@@ -10831,7 +10879,7 @@
         <v>661</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>601</v>
+        <v>2798</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>601</v>
@@ -10848,7 +10896,7 @@
         <v>662</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>601</v>
+        <v>2799</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>601</v>
@@ -10865,7 +10913,7 @@
         <v>663</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>601</v>
+        <v>2800</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>601</v>
@@ -10882,7 +10930,7 @@
         <v>707</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>601</v>
+        <v>2801</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>601</v>
@@ -10899,7 +10947,7 @@
         <v>708</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>601</v>
+        <v>2802</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>601</v>
@@ -21449,8 +21497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/THESIS/DuLieu.xlsx
+++ b/THESIS/DuLieu.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BaiHoc" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4802" uniqueCount="2803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="2859">
   <si>
     <t>ID</t>
   </si>
@@ -9539,9 +9539,6 @@
     <t>\App_Data\Audio\21BK.mp3</t>
   </si>
   <si>
-    <t>\App_Data\Audio\Audio\21DT.mp3</t>
-  </si>
-  <si>
     <t>Ai vậy?</t>
   </si>
   <si>
@@ -9588,6 +9585,177 @@
   </si>
   <si>
     <t>K'Brừm bơsram adu\ phàm.</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\2TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\21DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\22TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\22BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\22DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\23TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\23BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\23DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\24TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\24BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\24DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\25TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\25BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\25DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\26DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\26KH.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\27TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\27BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\27DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\28TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\28BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\28DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\29TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\29BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\29DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\30TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\30BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\30DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\31TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\31BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\31DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\32TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\32DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\33TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\33BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\33DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\34TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\34BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\34DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\35TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\35BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\35DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\36TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\36BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\36DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\37TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\37BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\37DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\38TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\38BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\38DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\39TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\39BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\39DT.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\40TV.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\40BK.mp3</t>
+  </si>
+  <si>
+    <t>\App_Data\Audio\40DT.mp3</t>
   </si>
 </sst>
 </file>
@@ -9660,12 +9828,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -9680,7 +9854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9727,6 +9901,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10031,6 +10211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10633,9 +10814,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
@@ -10692,7 +10874,7 @@
         <v>569</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>601</v>
@@ -10709,7 +10891,7 @@
         <v>570</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>601</v>
@@ -10726,7 +10908,7 @@
         <v>571</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>601</v>
@@ -10743,7 +10925,7 @@
         <v>572</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>601</v>
@@ -10760,7 +10942,7 @@
         <v>573</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>601</v>
@@ -10777,7 +10959,7 @@
         <v>574</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>601</v>
@@ -10794,7 +10976,7 @@
         <v>575</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>601</v>
@@ -10811,7 +10993,7 @@
         <v>657</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>601</v>
@@ -10828,7 +11010,7 @@
         <v>658</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>601</v>
@@ -10845,7 +11027,7 @@
         <v>659</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>601</v>
@@ -10862,7 +11044,7 @@
         <v>660</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>601</v>
@@ -10879,7 +11061,7 @@
         <v>661</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>601</v>
@@ -10896,7 +11078,7 @@
         <v>662</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>601</v>
@@ -10913,7 +11095,7 @@
         <v>663</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>601</v>
@@ -10930,7 +11112,7 @@
         <v>707</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>601</v>
@@ -10947,7 +11129,7 @@
         <v>708</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>601</v>
@@ -13802,6 +13984,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17087,6 +17270,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17194,6 +17378,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17258,6 +17443,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17672,11 +17858,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18495,11 +18682,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18638,17 +18826,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="23">
         <v>2</v>
       </c>
-      <c r="D10" s="21">
-        <v>0</v>
+      <c r="D10" s="24">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -18676,7 +18864,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -18685,23 +18873,23 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="23">
         <v>3</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="24">
+        <v>3</v>
+      </c>
+      <c r="G13" s="25">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13" s="25" t="s">
         <v>2736</v>
       </c>
     </row>
@@ -18721,21 +18909,21 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="23">
         <v>4</v>
       </c>
-      <c r="D15" s="21">
-        <v>3</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15"/>
+      <c r="D15" s="24">
+        <v>4</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -18753,21 +18941,21 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="23">
         <v>5</v>
       </c>
-      <c r="D17" s="21">
-        <v>4</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17"/>
+      <c r="D17" s="24">
+        <v>5</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -18785,21 +18973,21 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="23">
         <v>6</v>
       </c>
-      <c r="D19" s="21">
-        <v>5</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19"/>
+      <c r="D19" s="24">
+        <v>6</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -18817,21 +19005,21 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="23">
         <v>7</v>
       </c>
-      <c r="D21" s="21">
-        <v>6</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21"/>
+      <c r="D21" s="24">
+        <v>7</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -18849,101 +19037,101 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="23">
         <v>8</v>
       </c>
-      <c r="D23" s="21">
-        <v>7</v>
-      </c>
-      <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="D23" s="24">
+        <v>8</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="23">
         <v>8</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="24">
+        <v>11</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="23">
+        <v>9</v>
+      </c>
+      <c r="D25" s="24">
         <v>10</v>
       </c>
-      <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="23">
+        <v>9</v>
+      </c>
+      <c r="D26" s="24">
+        <v>9</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="C25" s="1">
-        <v>9</v>
-      </c>
-      <c r="D25" s="21">
-        <v>9</v>
-      </c>
-      <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C27" s="23">
+        <v>10</v>
+      </c>
+      <c r="D27" s="24">
+        <v>13</v>
+      </c>
+      <c r="F27" s="23">
+        <v>6</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="1">
-        <v>9</v>
-      </c>
-      <c r="D26" s="21">
-        <v>8</v>
-      </c>
-      <c r="G26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="C28" s="23">
         <v>10</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D28" s="24">
         <v>12</v>
-      </c>
-      <c r="F27" s="1">
-        <v>6</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="1">
-        <v>10</v>
-      </c>
-      <c r="D28" s="21">
-        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -18960,18 +19148,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="23">
         <v>10</v>
       </c>
-      <c r="D30" s="21">
-        <v>13</v>
+      <c r="D30" s="24">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -19005,35 +19193,35 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="23">
         <v>12</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="24">
+        <v>16</v>
+      </c>
+      <c r="F33" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="23">
+        <v>12</v>
+      </c>
+      <c r="D34" s="24">
         <v>15</v>
-      </c>
-      <c r="F33" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="1">
-        <v>12</v>
-      </c>
-      <c r="D34" s="21">
-        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -19050,21 +19238,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:8" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="23">
         <v>12</v>
       </c>
-      <c r="D36" s="21">
-        <v>16</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36"/>
+      <c r="D36" s="24">
+        <v>17</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -19098,21 +19286,21 @@
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:8" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="23">
         <v>13</v>
       </c>
-      <c r="D39" s="21">
-        <v>17</v>
-      </c>
-      <c r="G39"/>
-      <c r="H39"/>
+      <c r="D39" s="24">
+        <v>18</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -19162,32 +19350,32 @@
       <c r="G42"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="23">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="23">
         <v>14</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23">
+        <v>43</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="23">
+        <v>14</v>
+      </c>
+      <c r="D44" s="24">
         <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="1">
-        <v>14</v>
-      </c>
-      <c r="D44" s="21">
-        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -19204,18 +19392,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="23">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="23">
         <v>14</v>
       </c>
-      <c r="D46" s="21">
-        <v>20</v>
+      <c r="D46" s="24">
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -19249,32 +19437,32 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="23">
         <v>16</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23">
+        <v>49</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="23">
+        <v>16</v>
+      </c>
+      <c r="D50" s="24">
         <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="1">
-        <v>16</v>
-      </c>
-      <c r="D50" s="21">
-        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -19302,7 +19490,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="21">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -19330,7 +19518,7 @@
         <v>17</v>
       </c>
       <c r="D54" s="21">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -19344,7 +19532,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="21">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -19372,7 +19560,7 @@
         <v>17</v>
       </c>
       <c r="D57" s="21">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -19400,7 +19588,7 @@
         <v>18</v>
       </c>
       <c r="D59" s="21">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -19414,7 +19602,7 @@
         <v>18</v>
       </c>
       <c r="D60" s="21">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -19442,7 +19630,7 @@
         <v>18</v>
       </c>
       <c r="D62" s="21">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -19515,7 +19703,7 @@
         <v>21</v>
       </c>
       <c r="D67" s="21">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -19529,7 +19717,7 @@
         <v>21</v>
       </c>
       <c r="D68" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -19557,7 +19745,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="21">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -19585,7 +19773,7 @@
         <v>22</v>
       </c>
       <c r="D72" s="21">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -19599,7 +19787,7 @@
         <v>22</v>
       </c>
       <c r="D73" s="21">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -19627,7 +19815,7 @@
         <v>22</v>
       </c>
       <c r="D75" s="21">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -19742,7 +19930,7 @@
         <v>25</v>
       </c>
       <c r="D83" s="21">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -19756,7 +19944,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="21">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -19784,7 +19972,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="21">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -19812,7 +20000,7 @@
         <v>26</v>
       </c>
       <c r="D88" s="21">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -19826,7 +20014,7 @@
         <v>26</v>
       </c>
       <c r="D89" s="21">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -19854,7 +20042,7 @@
         <v>26</v>
       </c>
       <c r="D91" s="21">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -19882,7 +20070,7 @@
         <v>27</v>
       </c>
       <c r="D93" s="21">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -19896,7 +20084,7 @@
         <v>27</v>
       </c>
       <c r="D94" s="21">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -19924,10 +20112,10 @@
         <v>27</v>
       </c>
       <c r="D96" s="21">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -19941,7 +20129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -19958,7 +20146,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -19969,10 +20157,10 @@
         <v>29</v>
       </c>
       <c r="D99" s="21">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -19983,10 +20171,10 @@
         <v>29</v>
       </c>
       <c r="D100" s="21">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -20000,7 +20188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -20011,10 +20199,10 @@
         <v>29</v>
       </c>
       <c r="D102" s="21">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -20028,7 +20216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -20039,10 +20227,10 @@
         <v>30</v>
       </c>
       <c r="D104" s="21">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -20053,10 +20241,10 @@
         <v>30</v>
       </c>
       <c r="D105" s="21">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -20070,7 +20258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -20081,10 +20269,10 @@
         <v>30</v>
       </c>
       <c r="D107" s="21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -20098,7 +20286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -20109,13 +20297,16 @@
         <v>31</v>
       </c>
       <c r="D109" s="21">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -20126,10 +20317,10 @@
         <v>31</v>
       </c>
       <c r="D110" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -20143,7 +20334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -20154,10 +20345,10 @@
         <v>31</v>
       </c>
       <c r="D112" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -20171,7 +20362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -20182,10 +20373,13 @@
         <v>32</v>
       </c>
       <c r="D114" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F114" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -20196,10 +20390,10 @@
         <v>32</v>
       </c>
       <c r="D115" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -20213,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -20224,10 +20418,10 @@
         <v>32</v>
       </c>
       <c r="D117" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -20241,7 +20435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -20252,10 +20446,13 @@
         <v>33</v>
       </c>
       <c r="D119" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="F119" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -20266,10 +20463,10 @@
         <v>33</v>
       </c>
       <c r="D120" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -20283,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -20294,10 +20491,10 @@
         <v>33</v>
       </c>
       <c r="D122" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -20311,7 +20508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -20322,10 +20519,13 @@
         <v>34</v>
       </c>
       <c r="D124" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="F124" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -20336,10 +20536,10 @@
         <v>34</v>
       </c>
       <c r="D125" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -20353,7 +20553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -20364,10 +20564,10 @@
         <v>34</v>
       </c>
       <c r="D127" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -20381,7 +20581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -20398,7 +20598,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -20409,10 +20609,13 @@
         <v>36</v>
       </c>
       <c r="D130" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="F130" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -20426,7 +20629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -20437,10 +20640,10 @@
         <v>36</v>
       </c>
       <c r="D132" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -20451,10 +20654,13 @@
         <v>37</v>
       </c>
       <c r="D133" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F133" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -20465,10 +20671,10 @@
         <v>37</v>
       </c>
       <c r="D134" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -20482,7 +20688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -20493,10 +20699,10 @@
         <v>37</v>
       </c>
       <c r="D136" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -20510,7 +20716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -20521,10 +20727,13 @@
         <v>38</v>
       </c>
       <c r="D138" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F138" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -20535,10 +20744,10 @@
         <v>38</v>
       </c>
       <c r="D139" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -20552,7 +20761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -20563,10 +20772,10 @@
         <v>38</v>
       </c>
       <c r="D141" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -20580,7 +20789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -20597,7 +20806,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -20608,10 +20817,13 @@
         <v>40</v>
       </c>
       <c r="D144" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F144" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -20622,10 +20834,10 @@
         <v>40</v>
       </c>
       <c r="D145" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -20639,7 +20851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -20650,10 +20862,10 @@
         <v>40</v>
       </c>
       <c r="D147" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -20667,7 +20879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -20678,10 +20890,13 @@
         <v>41</v>
       </c>
       <c r="D149" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="F149" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -20692,10 +20907,10 @@
         <v>41</v>
       </c>
       <c r="D150" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -20709,7 +20924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -20720,10 +20935,10 @@
         <v>41</v>
       </c>
       <c r="D152" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -20737,7 +20952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -20748,10 +20963,13 @@
         <v>42</v>
       </c>
       <c r="D154" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F154" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -20762,10 +20980,10 @@
         <v>42</v>
       </c>
       <c r="D155" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -20779,7 +20997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -20790,10 +21008,10 @@
         <v>42</v>
       </c>
       <c r="D157" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -20807,7 +21025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -20824,7 +21042,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -20837,8 +21055,11 @@
       <c r="D160" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F160" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -20849,10 +21070,10 @@
         <v>44</v>
       </c>
       <c r="D161" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -20866,7 +21087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -20880,7 +21101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -20891,10 +21112,10 @@
         <v>44</v>
       </c>
       <c r="D164" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -20905,10 +21126,13 @@
         <v>45</v>
       </c>
       <c r="D165" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="F165" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -20919,10 +21143,10 @@
         <v>45</v>
       </c>
       <c r="D166" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -20936,7 +21160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -20947,10 +21171,10 @@
         <v>45</v>
       </c>
       <c r="D168" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -20964,7 +21188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -20975,10 +21199,13 @@
         <v>46</v>
       </c>
       <c r="D170" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F170" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -20989,10 +21216,10 @@
         <v>46</v>
       </c>
       <c r="D171" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -21006,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -21017,10 +21244,10 @@
         <v>46</v>
       </c>
       <c r="D173" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -21034,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -21045,10 +21272,13 @@
         <v>47</v>
       </c>
       <c r="D175" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F175" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -21059,10 +21289,10 @@
         <v>47</v>
       </c>
       <c r="D176" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -21076,7 +21306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -21087,10 +21317,10 @@
         <v>47</v>
       </c>
       <c r="D178" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -21104,7 +21334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -21115,10 +21345,13 @@
         <v>48</v>
       </c>
       <c r="D180" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F180" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -21129,10 +21362,10 @@
         <v>48</v>
       </c>
       <c r="D181" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -21146,7 +21379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -21157,10 +21390,10 @@
         <v>48</v>
       </c>
       <c r="D183" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -21174,7 +21407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -21191,7 +21424,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -21202,10 +21435,13 @@
         <v>50</v>
       </c>
       <c r="D186" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F186" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -21216,10 +21452,10 @@
         <v>50</v>
       </c>
       <c r="D187" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -21233,7 +21469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -21244,10 +21480,10 @@
         <v>50</v>
       </c>
       <c r="D189" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -21261,7 +21497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -21272,10 +21508,10 @@
         <v>51</v>
       </c>
       <c r="D191" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -21286,7 +21522,7 @@
         <v>51</v>
       </c>
       <c r="D192" s="21">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -21314,7 +21550,7 @@
         <v>51</v>
       </c>
       <c r="D194" s="21">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -21342,7 +21578,7 @@
         <v>52</v>
       </c>
       <c r="D196" s="21">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -21356,7 +21592,7 @@
         <v>52</v>
       </c>
       <c r="D197" s="21">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -21384,7 +21620,7 @@
         <v>52</v>
       </c>
       <c r="D199" s="21">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -21412,7 +21648,7 @@
         <v>53</v>
       </c>
       <c r="D201" s="21">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -21426,7 +21662,7 @@
         <v>53</v>
       </c>
       <c r="D202" s="21">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -21454,7 +21690,7 @@
         <v>53</v>
       </c>
       <c r="D204" s="21">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -21495,423 +21731,872 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="22" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>2737</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>2738</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>2739</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>2740</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>2741</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>2742</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>2743</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>2744</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>2745</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>2746</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>2747</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>2748</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>2749</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>2750</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>2751</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>2752</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>2753</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>2754</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>2755</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>2756</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>2757</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>2759</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>2760</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>2761</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>2762</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>2763</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>2765</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>2766</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>2767</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>2768</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>34</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>2769</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>35</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>2770</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>36</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>2771</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>37</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>2772</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>38</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>2773</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>39</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>2774</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>40</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>2775</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>41</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>2776</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>42</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>2777</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>43</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>2778</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>44</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>2779</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>45</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>2780</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>46</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>2781</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>47</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>2782</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>48</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>2783</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>49</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>2784</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>50</v>
+      </c>
+      <c r="B51" s="22" t="s">
         <v>2785</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2786</v>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>51</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
+        <v>52</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
+        <v>53</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>54</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>55</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>56</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <v>57</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>58</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>59</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <v>60</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
+        <v>61</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="22">
+        <v>62</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <v>63</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
+        <v>64</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
+        <v>65</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
+        <v>66</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="22">
+        <v>67</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="22">
+        <v>68</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="22">
+        <v>69</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="22">
+        <v>70</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="22">
+        <v>71</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="22">
+        <v>72</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="22">
+        <v>73</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="22">
+        <v>74</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="22">
+        <v>75</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="22">
+        <v>76</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="22">
+        <v>77</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="22">
+        <v>78</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="22">
+        <v>79</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="22">
+        <v>80</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="22">
+        <v>81</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="22">
+        <v>82</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="22">
+        <v>83</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="22">
+        <v>84</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="22">
+        <v>85</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="22">
+        <v>86</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="22">
+        <v>87</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="22">
+        <v>88</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="22">
+        <v>89</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="22">
+        <v>90</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="22">
+        <v>91</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="22">
+        <v>92</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="22">
+        <v>93</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="22">
+        <v>94</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="22">
+        <v>95</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="22">
+        <v>96</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="22">
+        <v>97</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="22">
+        <v>98</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="22">
+        <v>99</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="22">
+        <v>100</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="22">
+        <v>101</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="22">
+        <v>102</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="22">
+        <v>103</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="22">
+        <v>104</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="22">
+        <v>105</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="22">
+        <v>106</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>2858</v>
       </c>
     </row>
   </sheetData>
@@ -21922,6 +22607,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22278,6 +22964,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
@@ -23640,6 +24327,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -27002,6 +27690,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39722,6 +40411,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/THESIS/DuLieu.xlsx
+++ b/THESIS/DuLieu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BaiHoc" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4801" uniqueCount="3066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4799" uniqueCount="3064">
   <si>
     <t>ID</t>
   </si>
@@ -7512,12 +7512,6 @@
   </si>
   <si>
     <t>Thanh điệu (Dấu giọng)</t>
-  </si>
-  <si>
-    <t>\App_Data\3TV.mp3</t>
-  </si>
-  <si>
-    <t>\App_Data\3DKV.mp3</t>
   </si>
   <si>
     <t>\App_Data\Audio\3TV.mp3</t>
@@ -9981,7 +9975,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -9995,7 +9989,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="D9" s="11">
         <v>8</v>
@@ -10009,7 +10003,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
@@ -10023,7 +10017,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -10037,7 +10031,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
@@ -10051,7 +10045,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="D13" s="11">
         <v>12</v>
@@ -10065,7 +10059,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="D14" s="1">
         <v>13</v>
@@ -10079,7 +10073,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="D15" s="11">
         <v>14</v>
@@ -10093,7 +10087,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="D16" s="1">
         <v>15</v>
@@ -10107,7 +10101,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="D17" s="11">
         <v>16</v>
@@ -10121,7 +10115,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
@@ -10135,7 +10129,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="D19" s="11">
         <v>18</v>
@@ -10149,7 +10143,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="D20" s="1">
         <v>19</v>
@@ -10163,7 +10157,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="D21" s="11">
         <v>20</v>
@@ -10177,7 +10171,7 @@
         <v>1311</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="D22" s="1">
         <v>21</v>
@@ -10191,7 +10185,7 @@
         <v>1312</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="D23" s="11">
         <v>22</v>
@@ -10205,7 +10199,7 @@
         <v>1313</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="D24" s="1">
         <v>23</v>
@@ -10219,7 +10213,7 @@
         <v>1314</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="D25" s="11">
         <v>24</v>
@@ -10233,7 +10227,7 @@
         <v>1315</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="D26" s="1">
         <v>25</v>
@@ -10247,7 +10241,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="D27" s="11">
         <v>26</v>
@@ -10261,7 +10255,7 @@
         <v>1316</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="D28" s="1">
         <v>27</v>
@@ -10275,7 +10269,7 @@
         <v>1317</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="D29" s="11">
         <v>28</v>
@@ -10289,7 +10283,7 @@
         <v>1318</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="D30" s="1">
         <v>29</v>
@@ -10303,7 +10297,7 @@
         <v>1319</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="D31" s="11">
         <v>30</v>
@@ -10317,7 +10311,7 @@
         <v>1320</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="D32" s="1">
         <v>31</v>
@@ -10331,7 +10325,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="D33" s="11">
         <v>32</v>
@@ -10345,7 +10339,7 @@
         <v>1321</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
@@ -10359,7 +10353,7 @@
         <v>1322</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="D35" s="11">
         <v>34</v>
@@ -10373,7 +10367,7 @@
         <v>1323</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="D36" s="1">
         <v>35</v>
@@ -10387,7 +10381,7 @@
         <v>1324</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="D37" s="11">
         <v>36</v>
@@ -10401,7 +10395,7 @@
         <v>1325</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="D38" s="1">
         <v>37</v>
@@ -10415,7 +10409,7 @@
         <v>1326</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="D39" s="11">
         <v>38</v>
@@ -10429,7 +10423,7 @@
         <v>1327</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="D40" s="1">
         <v>39</v>
@@ -10443,7 +10437,7 @@
         <v>1328</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="D41" s="11">
         <v>40</v>
@@ -10503,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>506</v>
@@ -10520,10 +10514,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>518</v>
@@ -10540,7 +10534,7 @@
         <v>502</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>518</v>
@@ -10557,7 +10551,7 @@
         <v>503</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>518</v>
@@ -10574,7 +10568,7 @@
         <v>504</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>518</v>
@@ -10588,10 +10582,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>518</v>
@@ -10605,10 +10599,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>518</v>
@@ -10625,7 +10619,7 @@
         <v>505</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>518</v>
@@ -10639,10 +10633,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>518</v>
@@ -10656,10 +10650,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>518</v>
@@ -10673,10 +10667,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>518</v>
@@ -10690,10 +10684,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>518</v>
@@ -10710,7 +10704,7 @@
         <v>574</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>518</v>
@@ -10727,7 +10721,7 @@
         <v>575</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>518</v>
@@ -10741,10 +10735,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>518</v>
@@ -10761,7 +10755,7 @@
         <v>615</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>518</v>
@@ -10778,7 +10772,7 @@
         <v>616</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>518</v>
@@ -10826,7 +10820,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>518</v>
@@ -10843,7 +10837,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>518</v>
@@ -10863,7 +10857,7 @@
         <v>704</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>518</v>
@@ -10877,10 +10871,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>518</v>
@@ -10894,10 +10888,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>518</v>
@@ -10914,7 +10908,7 @@
         <v>705</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>518</v>
@@ -10931,7 +10925,7 @@
         <v>706</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>518</v>
@@ -10948,7 +10942,7 @@
         <v>707</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>518</v>
@@ -10962,10 +10956,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>518</v>
@@ -10979,10 +10973,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>518</v>
@@ -10999,7 +10993,7 @@
         <v>781</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>518</v>
@@ -11013,10 +11007,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>518</v>
@@ -11067,7 +11061,7 @@
         <v>784</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>518</v>
@@ -11101,7 +11095,7 @@
         <v>1577</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>518</v>
@@ -11118,7 +11112,7 @@
         <v>831</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>518</v>
@@ -11135,7 +11129,7 @@
         <v>832</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>518</v>
@@ -11152,7 +11146,7 @@
         <v>833</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>518</v>
@@ -11166,10 +11160,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>518</v>
@@ -11186,7 +11180,7 @@
         <v>834</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>518</v>
@@ -11203,7 +11197,7 @@
         <v>835</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>518</v>
@@ -11217,10 +11211,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>518</v>
@@ -11237,7 +11231,7 @@
         <v>886</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>518</v>
@@ -11254,7 +11248,7 @@
         <v>887</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>518</v>
@@ -11268,10 +11262,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>518</v>
@@ -11288,7 +11282,7 @@
         <v>973</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>518</v>
@@ -11305,7 +11299,7 @@
         <v>974</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>518</v>
@@ -11322,7 +11316,7 @@
         <v>975</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>518</v>
@@ -11339,7 +11333,7 @@
         <v>976</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>518</v>
@@ -11356,7 +11350,7 @@
         <v>1042</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>518</v>
@@ -11373,7 +11367,7 @@
         <v>1043</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>518</v>
@@ -11390,7 +11384,7 @@
         <v>1044</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>518</v>
@@ -11404,10 +11398,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>518</v>
@@ -11441,7 +11435,7 @@
         <v>1093</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>518</v>
@@ -11458,7 +11452,7 @@
         <v>1094</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>518</v>
@@ -11475,7 +11469,7 @@
         <v>1134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>518</v>
@@ -11489,10 +11483,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>518</v>
@@ -11509,7 +11503,7 @@
         <v>1135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>518</v>
@@ -11526,7 +11520,7 @@
         <v>1136</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>518</v>
@@ -11543,7 +11537,7 @@
         <v>1137</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>518</v>
@@ -11557,10 +11551,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>518</v>
@@ -11577,7 +11571,7 @@
         <v>1208</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>518</v>
@@ -11591,10 +11585,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>518</v>
@@ -11608,10 +11602,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>518</v>
@@ -11628,7 +11622,7 @@
         <v>1249</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>518</v>
@@ -11645,7 +11639,7 @@
         <v>1250</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>518</v>
@@ -11662,7 +11656,7 @@
         <v>1251</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>518</v>
@@ -11679,7 +11673,7 @@
         <v>1252</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>518</v>
@@ -11696,7 +11690,7 @@
         <v>1301</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>518</v>
@@ -11710,10 +11704,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>518</v>
@@ -11730,7 +11724,7 @@
         <v>1302</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>518</v>
@@ -11744,7 +11738,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>518</v>
@@ -11764,7 +11758,7 @@
         <v>1303</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>518</v>
@@ -11781,7 +11775,7 @@
         <v>1384</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="E77" s="1">
         <v>105</v>
@@ -11795,7 +11789,7 @@
         <v>1385</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="E78" s="1">
         <v>105</v>
@@ -11809,7 +11803,7 @@
         <v>1386</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>518</v>
@@ -11823,10 +11817,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>518</v>
@@ -11840,10 +11834,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>518</v>
@@ -11860,7 +11854,7 @@
         <v>1449</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>518</v>
@@ -11877,7 +11871,7 @@
         <v>1450</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>518</v>
@@ -11891,10 +11885,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>518</v>
@@ -11908,10 +11902,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>518</v>
@@ -11925,10 +11919,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>518</v>
@@ -11942,10 +11936,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>518</v>
@@ -11959,10 +11953,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>518</v>
@@ -11976,10 +11970,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>518</v>
@@ -11996,7 +11990,7 @@
         <v>1510</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>518</v>
@@ -12013,7 +12007,7 @@
         <v>1536</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>518</v>
@@ -12030,7 +12024,7 @@
         <v>1537</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>518</v>
@@ -12047,7 +12041,7 @@
         <v>1538</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>518</v>
@@ -12061,10 +12055,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>518</v>
@@ -12180,7 +12174,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>518</v>
@@ -12197,7 +12191,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>518</v>
@@ -12387,7 +12381,7 @@
         <v>1635</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>518</v>
@@ -12401,10 +12395,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>518</v>
@@ -12418,10 +12412,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>518</v>
@@ -12435,7 +12429,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>518</v>
@@ -12452,10 +12446,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>518</v>
@@ -12472,7 +12466,7 @@
         <v>1708</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>518</v>
@@ -12486,10 +12480,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>518</v>
@@ -12503,10 +12497,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>518</v>
@@ -12520,10 +12514,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>518</v>
@@ -12540,7 +12534,7 @@
         <v>1731</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>518</v>
@@ -12557,7 +12551,7 @@
         <v>1732</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>518</v>
@@ -12574,7 +12568,7 @@
         <v>1733</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>518</v>
@@ -12591,7 +12585,7 @@
         <v>1734</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>518</v>
@@ -12608,7 +12602,7 @@
         <v>1735</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>518</v>
@@ -12625,7 +12619,7 @@
         <v>1736</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>518</v>
@@ -12639,10 +12633,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>518</v>
@@ -12659,7 +12653,7 @@
         <v>1785</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>518</v>
@@ -12676,7 +12670,7 @@
         <v>1786</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>518</v>
@@ -12693,7 +12687,7 @@
         <v>1787</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>518</v>
@@ -12724,7 +12718,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>518</v>
@@ -12792,7 +12786,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>518</v>
@@ -12911,10 +12905,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>518</v>
@@ -12928,7 +12922,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>518</v>
@@ -12945,7 +12939,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>518</v>
@@ -12962,10 +12956,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>518</v>
@@ -12979,10 +12973,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>518</v>
@@ -12999,7 +12993,7 @@
         <v>1919</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>518</v>
@@ -13016,7 +13010,7 @@
         <v>1920</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>518</v>
@@ -13030,7 +13024,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>518</v>
@@ -13064,7 +13058,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>518</v>
@@ -13084,7 +13078,7 @@
         <v>1973</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>518</v>
@@ -13101,7 +13095,7 @@
         <v>1974</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>518</v>
@@ -13118,7 +13112,7 @@
         <v>1975</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>518</v>
@@ -13135,7 +13129,7 @@
         <v>1976</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>518</v>
@@ -13152,7 +13146,7 @@
         <v>1977</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>518</v>
@@ -13169,7 +13163,7 @@
         <v>1978</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>518</v>
@@ -13186,7 +13180,7 @@
         <v>2025</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>518</v>
@@ -13203,7 +13197,7 @@
         <v>2026</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>518</v>
@@ -13220,7 +13214,7 @@
         <v>2027</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>518</v>
@@ -13237,7 +13231,7 @@
         <v>2028</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>518</v>
@@ -13254,7 +13248,7 @@
         <v>2057</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>518</v>
@@ -13271,7 +13265,7 @@
         <v>2058</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>518</v>
@@ -13288,7 +13282,7 @@
         <v>2059</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>518</v>
@@ -13302,10 +13296,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>518</v>
@@ -13322,7 +13316,7 @@
         <v>2105</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>518</v>
@@ -13339,7 +13333,7 @@
         <v>2106</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>518</v>
@@ -13353,10 +13347,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>518</v>
@@ -13373,7 +13367,7 @@
         <v>2107</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>518</v>
@@ -13390,7 +13384,7 @@
         <v>2108</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>518</v>
@@ -13407,7 +13401,7 @@
         <v>2109</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>518</v>
@@ -13438,10 +13432,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>518</v>
@@ -13458,7 +13452,7 @@
         <v>2156</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>518</v>
@@ -13472,10 +13466,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>518</v>
@@ -13492,7 +13486,7 @@
         <v>2222</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>518</v>
@@ -13509,7 +13503,7 @@
         <v>2223</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>518</v>
@@ -13526,7 +13520,7 @@
         <v>2224</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>518</v>
@@ -13543,7 +13537,7 @@
         <v>2225</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>518</v>
@@ -13560,7 +13554,7 @@
         <v>2226</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>518</v>
@@ -13577,7 +13571,7 @@
         <v>2258</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>518</v>
@@ -13591,10 +13585,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>518</v>
@@ -13608,10 +13602,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>518</v>
@@ -13672,7 +13666,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>340</v>
@@ -13692,10 +13686,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>343</v>
@@ -13712,10 +13706,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>345</v>
@@ -13735,7 +13729,7 @@
         <v>347</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>348</v>
@@ -13775,7 +13769,7 @@
         <v>352</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>359</v>
@@ -13832,10 +13826,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>365</v>
@@ -13855,7 +13849,7 @@
         <v>508</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>507</v>
@@ -13872,10 +13866,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>511</v>
@@ -13895,7 +13889,7 @@
         <v>576</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>518</v>
@@ -13915,7 +13909,7 @@
         <v>577</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>518</v>
@@ -13935,7 +13929,7 @@
         <v>578</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>518</v>
@@ -13995,7 +13989,7 @@
         <v>619</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>518</v>
@@ -14055,7 +14049,7 @@
         <v>708</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>518</v>
@@ -14075,7 +14069,7 @@
         <v>709</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>518</v>
@@ -14092,7 +14086,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>711</v>
@@ -14115,7 +14109,7 @@
         <v>710</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>518</v>
@@ -14132,7 +14126,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>712</v>
@@ -14155,7 +14149,7 @@
         <v>786</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>518</v>
@@ -14275,7 +14269,7 @@
         <v>888</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>518</v>
@@ -14292,10 +14286,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>518</v>
@@ -14312,10 +14306,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>518</v>
@@ -14415,7 +14409,7 @@
         <v>896</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>518</v>
@@ -14432,10 +14426,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>518</v>
@@ -14452,7 +14446,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>898</v>
@@ -14472,7 +14466,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>439</v>
@@ -14535,7 +14529,7 @@
         <v>900</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>518</v>
@@ -14552,7 +14546,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>906</v>
@@ -14592,7 +14586,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>908</v>
@@ -14615,7 +14609,7 @@
         <v>902</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>518</v>
@@ -14635,7 +14629,7 @@
         <v>903</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>518</v>
@@ -14655,7 +14649,7 @@
         <v>904</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>518</v>
@@ -14695,7 +14689,7 @@
         <v>909</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>518</v>
@@ -14735,7 +14729,7 @@
         <v>911</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>518</v>
@@ -14812,7 +14806,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>980</v>
@@ -14832,7 +14826,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>981</v>
@@ -14972,7 +14966,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>1099</v>
@@ -15015,7 +15009,7 @@
         <v>1510</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>518</v>
@@ -15032,10 +15026,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>518</v>
@@ -15072,7 +15066,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>1140</v>
@@ -15095,7 +15089,7 @@
         <v>1209</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>518</v>
@@ -15115,7 +15109,7 @@
         <v>1210</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>518</v>
@@ -15152,7 +15146,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>1213</v>
@@ -15172,7 +15166,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>1255</v>
@@ -15215,7 +15209,7 @@
         <v>1254</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>518</v>
@@ -15255,7 +15249,7 @@
         <v>1305</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>518</v>
@@ -16155,7 +16149,7 @@
         <v>1790</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>518</v>
@@ -16695,7 +16689,7 @@
         <v>2158</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>518</v>
@@ -17009,7 +17003,7 @@
         <v>1586</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="D6" s="1">
         <v>131</v>
@@ -17057,10 +17051,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="D2" s="1">
         <v>161</v>
@@ -17074,7 +17068,7 @@
         <v>1831</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="D3" s="1">
         <v>161</v>
@@ -17125,7 +17119,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -17184,7 +17178,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
@@ -17198,7 +17192,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="D7" s="1">
         <v>9</v>
@@ -17212,7 +17206,7 @@
         <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -17226,7 +17220,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="D9" s="1">
         <v>11</v>
@@ -17240,7 +17234,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="D10" s="1">
         <v>12</v>
@@ -17254,7 +17248,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -17265,10 +17259,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="D12" s="1">
         <v>16</v>
@@ -17279,10 +17273,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="D13" s="1">
         <v>17</v>
@@ -17296,7 +17290,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="D14" s="1">
         <v>18</v>
@@ -17310,7 +17304,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="D15" s="1">
         <v>19</v>
@@ -17324,7 +17318,7 @@
         <v>1329</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="D16" s="1">
         <v>21</v>
@@ -17338,7 +17332,7 @@
         <v>1330</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="D17" s="1">
         <v>22</v>
@@ -17352,7 +17346,7 @@
         <v>1331</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="D18" s="1">
         <v>24</v>
@@ -17366,7 +17360,7 @@
         <v>1332</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="D19" s="1">
         <v>25</v>
@@ -17380,7 +17374,7 @@
         <v>1333</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="D20" s="1">
         <v>27</v>
@@ -17394,7 +17388,7 @@
         <v>1334</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="D21" s="1">
         <v>29</v>
@@ -17408,7 +17402,7 @@
         <v>1335</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="D22" s="1">
         <v>30</v>
@@ -17433,7 +17427,7 @@
         <v>1337</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="D24" s="1">
         <v>33</v>
@@ -17447,7 +17441,7 @@
         <v>1338</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="D25" s="1">
         <v>34</v>
@@ -17461,7 +17455,7 @@
         <v>1339</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="D26" s="1">
         <v>35</v>
@@ -17475,7 +17469,7 @@
         <v>1340</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="D27" s="1">
         <v>37</v>
@@ -17489,7 +17483,7 @@
         <v>1341</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="D28" s="1">
         <v>39</v>
@@ -17580,7 +17574,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>194</v>
@@ -17594,7 +17588,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>195</v>
@@ -17636,7 +17630,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>200</v>
@@ -18329,9 +18323,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D206" sqref="A2:D206"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18362,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -18510,12 +18504,8 @@
       <c r="D12" s="15">
         <v>2</v>
       </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>2437</v>
-      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -18530,12 +18520,8 @@
       <c r="D13" s="15">
         <v>3</v>
       </c>
-      <c r="G13" s="13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>2438</v>
-      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -21400,7 +21386,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21408,7 +21394,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21416,7 +21402,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21424,7 +21410,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21432,7 +21418,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21440,7 +21426,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21448,7 +21434,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21456,7 +21442,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21464,7 +21450,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21472,7 +21458,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21480,7 +21466,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21488,7 +21474,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21496,7 +21482,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21504,7 +21490,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21512,7 +21498,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21520,7 +21506,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21528,7 +21514,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21536,7 +21522,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21544,7 +21530,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21552,7 +21538,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21560,7 +21546,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21568,7 +21554,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21576,7 +21562,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21584,7 +21570,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21592,7 +21578,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21600,7 +21586,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21608,7 +21594,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21616,7 +21602,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21624,7 +21610,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21632,7 +21618,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21640,7 +21626,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21648,7 +21634,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21656,7 +21642,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21664,7 +21650,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21672,7 +21658,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21680,7 +21666,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21688,7 +21674,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21696,7 +21682,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21704,7 +21690,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21712,7 +21698,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21720,7 +21706,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21728,7 +21714,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21736,7 +21722,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21744,7 +21730,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21752,7 +21738,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21760,7 +21746,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21768,7 +21754,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21776,7 +21762,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21784,7 +21770,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21792,7 +21778,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21800,7 +21786,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21808,7 +21794,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21816,7 +21802,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21824,7 +21810,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21832,7 +21818,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21840,7 +21826,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21848,7 +21834,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21856,7 +21842,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21864,7 +21850,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21872,7 +21858,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21880,7 +21866,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21888,7 +21874,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21896,7 +21882,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21904,7 +21890,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21912,7 +21898,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21920,7 +21906,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21928,7 +21914,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21936,7 +21922,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21944,7 +21930,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21952,7 +21938,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21960,7 +21946,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21968,7 +21954,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21976,7 +21962,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21984,7 +21970,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21992,7 +21978,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22000,7 +21986,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22008,7 +21994,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22016,7 +22002,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22024,7 +22010,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22032,7 +22018,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22040,7 +22026,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22048,7 +22034,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22056,7 +22042,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22064,7 +22050,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22072,7 +22058,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22080,7 +22066,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22088,7 +22074,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22096,7 +22082,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22104,7 +22090,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22112,7 +22098,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22120,7 +22106,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22128,7 +22114,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22136,7 +22122,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22144,7 +22130,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22152,7 +22138,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22160,7 +22146,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22168,7 +22154,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22176,7 +22162,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22184,7 +22170,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22192,7 +22178,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22200,7 +22186,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22208,7 +22194,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22216,7 +22202,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22224,7 +22210,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22232,7 +22218,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -22240,7 +22226,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
     </row>
   </sheetData>
@@ -22287,7 +22273,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -22391,7 +22377,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -22407,7 +22393,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -22415,7 +22401,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -22423,7 +22409,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -22447,7 +22433,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -22455,7 +22441,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -22463,7 +22449,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -22479,7 +22465,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -22495,7 +22481,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -22519,7 +22505,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -22527,7 +22513,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -22543,7 +22529,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -22559,7 +22545,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -22575,7 +22561,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -22591,7 +22577,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -22611,8 +22597,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -22636,7 +22622,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="C2" s="1">
         <v>31</v>
@@ -22647,7 +22633,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="C3" s="1">
         <v>31</v>
@@ -22658,7 +22644,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="C4" s="1">
         <v>31</v>
@@ -22669,7 +22655,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="C5" s="1">
         <v>31</v>
@@ -22680,7 +22666,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="C6" s="1">
         <v>31</v>
@@ -22691,7 +22677,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="C7" s="1">
         <v>31</v>
@@ -22702,7 +22688,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="C8" s="1">
         <v>31</v>
@@ -22713,7 +22699,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="C9" s="1">
         <v>31</v>
@@ -22724,7 +22710,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="C10" s="1">
         <v>31</v>
@@ -22735,7 +22721,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="C11" s="1">
         <v>31</v>
@@ -22746,7 +22732,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="C12" s="1">
         <v>31</v>
@@ -22757,7 +22743,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="C13" s="1">
         <v>31</v>
@@ -22768,7 +22754,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="C14" s="1">
         <v>31</v>
@@ -22779,7 +22765,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="C15" s="1">
         <v>31</v>
@@ -22790,7 +22776,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="C16" s="1">
         <v>31</v>
@@ -22801,7 +22787,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="C17" s="1">
         <v>31</v>
@@ -22812,7 +22798,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="C18" s="1">
         <v>31</v>
@@ -22823,7 +22809,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="C19" s="1">
         <v>47</v>
@@ -22845,7 +22831,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="C21" s="1">
         <v>47</v>
@@ -22878,7 +22864,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="C24" s="1">
         <v>47</v>
@@ -22889,7 +22875,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="C25" s="1">
         <v>47</v>
@@ -22911,7 +22897,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="C27" s="1">
         <v>47</v>
@@ -22922,7 +22908,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="C28" s="1">
         <v>47</v>
@@ -22933,7 +22919,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="C29" s="1">
         <v>47</v>
@@ -22944,7 +22930,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="C30" s="1">
         <v>47</v>
@@ -22955,7 +22941,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="C31" s="1">
         <v>47</v>
@@ -22966,7 +22952,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="C32" s="1">
         <v>63</v>
@@ -22977,7 +22963,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="C33" s="1">
         <v>63</v>
@@ -22999,7 +22985,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="C35" s="1">
         <v>63</v>
@@ -23010,7 +22996,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="C36" s="1">
         <v>63</v>
@@ -23021,7 +23007,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="C37" s="1">
         <v>63</v>
@@ -23032,7 +23018,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="C38" s="1">
         <v>63</v>
@@ -23054,7 +23040,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="C40" s="1">
         <v>63</v>
@@ -23065,7 +23051,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="C41" s="1">
         <v>63</v>
@@ -23076,7 +23062,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="C42" s="1">
         <v>63</v>
@@ -23087,7 +23073,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="C43" s="1">
         <v>63</v>
@@ -23120,7 +23106,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="C46" s="1">
         <v>63</v>
@@ -23131,7 +23117,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="C47" s="1">
         <v>63</v>
@@ -23142,7 +23128,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="C48" s="1">
         <v>81</v>
@@ -23153,7 +23139,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="C49" s="1">
         <v>81</v>
@@ -23197,7 +23183,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="C53" s="1">
         <v>81</v>
@@ -23208,7 +23194,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="C54" s="1">
         <v>81</v>
@@ -23241,7 +23227,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="C57" s="1">
         <v>81</v>
@@ -23252,7 +23238,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="C58" s="1">
         <v>81</v>
@@ -23263,7 +23249,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="C59" s="1">
         <v>81</v>
@@ -23285,7 +23271,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="C61" s="1">
         <v>97</v>
@@ -23296,7 +23282,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="C62" s="1">
         <v>97</v>
@@ -23329,7 +23315,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="C65" s="1">
         <v>97</v>
@@ -23340,7 +23326,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="C66" s="1">
         <v>97</v>
@@ -23362,7 +23348,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="C68" s="1">
         <v>128</v>
@@ -23373,7 +23359,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="C69" s="1">
         <v>128</v>
@@ -23483,7 +23469,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="C79" s="1">
         <v>128</v>
@@ -23494,7 +23480,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="C80" s="1">
         <v>128</v>
@@ -23527,7 +23513,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="C83" s="1">
         <v>142</v>
@@ -23571,7 +23557,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="C87" s="1">
         <v>142</v>
@@ -23582,7 +23568,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="C88" s="1">
         <v>142</v>
@@ -23593,7 +23579,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="C89" s="1">
         <v>142</v>
@@ -23604,7 +23590,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="C90" s="1">
         <v>142</v>
@@ -23615,7 +23601,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="C91" s="1">
         <v>142</v>
@@ -23626,7 +23612,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="C92" s="1">
         <v>142</v>
@@ -23637,7 +23623,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="C93" s="1">
         <v>158</v>
@@ -23714,7 +23700,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="C100" s="1">
         <v>158</v>
@@ -23725,7 +23711,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="C101" s="1">
         <v>158</v>
@@ -23736,7 +23722,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="C102" s="1">
         <v>158</v>
@@ -23879,7 +23865,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="C115" s="4">
         <v>184</v>
@@ -23901,7 +23887,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="C117" s="4">
         <v>184</v>
@@ -23912,7 +23898,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="C118" s="4">
         <v>184</v>
@@ -23956,7 +23942,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="C122" s="4">
         <v>184</v>
@@ -23978,7 +23964,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="C124" s="4">
         <v>184</v>
@@ -24055,7 +24041,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="C131" s="19">
         <v>42771</v>
@@ -24066,7 +24052,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="C132" s="19">
         <v>42771</v>
@@ -24077,7 +24063,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="C133" s="19">
         <v>42771</v>
@@ -24088,7 +24074,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="C134" s="19">
         <v>42771</v>
@@ -24099,7 +24085,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="C135" s="19">
         <v>42771</v>
@@ -24110,7 +24096,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="C136" s="19">
         <v>42771</v>
@@ -24121,7 +24107,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C137" s="19">
         <v>42771</v>
@@ -24132,7 +24118,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="C138" s="19">
         <v>42771</v>
@@ -24143,7 +24129,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="C139" s="19">
         <v>42771</v>
@@ -24154,7 +24140,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="C140" s="19">
         <v>42771</v>
@@ -24165,7 +24151,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="C141" s="19">
         <v>42771</v>
@@ -24176,7 +24162,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="C142" s="19">
         <v>42771</v>
@@ -24187,7 +24173,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="C143" s="19">
         <v>42771</v>
@@ -24198,7 +24184,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="C144" s="19">
         <v>42771</v>
@@ -24209,7 +24195,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="C145" s="19">
         <v>42771</v>
@@ -24220,7 +24206,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="C146" s="19">
         <v>42771</v>
@@ -24231,7 +24217,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="C147" s="19">
         <v>42771</v>
@@ -24242,7 +24228,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="C148" s="19">
         <v>42771</v>
@@ -24253,7 +24239,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="C149" s="19">
         <v>42771</v>
@@ -24264,7 +24250,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="C150" s="19">
         <v>42771</v>
@@ -24275,7 +24261,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="C151" s="19">
         <v>42771</v>
@@ -24286,7 +24272,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="C152" s="19">
         <v>42771</v>
@@ -24297,7 +24283,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="C153" s="19">
         <v>42771</v>
@@ -24308,7 +24294,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="C154" s="19">
         <v>42771</v>
@@ -24319,7 +24305,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="C155" s="19">
         <v>42771</v>
@@ -24330,7 +24316,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="C156" s="19">
         <v>42771</v>
@@ -24348,8 +24334,8 @@
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G145" sqref="A2:G145"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24404,7 +24390,7 @@
         <v>518</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -24427,7 +24413,7 @@
         <v>518</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -24473,7 +24459,7 @@
         <v>518</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -24671,7 +24657,7 @@
         <v>371</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>376</v>
@@ -24694,7 +24680,7 @@
         <v>372</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>378</v>
@@ -24714,7 +24700,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>518</v>
@@ -24852,7 +24838,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>518</v>
@@ -24875,7 +24861,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>449</v>
@@ -25025,7 +25011,7 @@
         <v>518</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="G29" s="1">
         <v>37</v>
@@ -25140,7 +25126,7 @@
         <v>518</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="G34" s="1">
         <v>42</v>
@@ -25163,7 +25149,7 @@
         <v>518</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="G35" s="1">
         <v>42</v>
@@ -25232,7 +25218,7 @@
         <v>518</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="G38" s="1">
         <v>48</v>
@@ -25301,7 +25287,7 @@
         <v>518</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="G41" s="1">
         <v>53</v>
@@ -25347,7 +25333,7 @@
         <v>518</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="G43" s="1">
         <v>53</v>
@@ -25830,7 +25816,7 @@
         <v>518</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="G64" s="1">
         <v>87</v>
@@ -25853,7 +25839,7 @@
         <v>518</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="G65" s="1">
         <v>87</v>
@@ -25899,7 +25885,7 @@
         <v>518</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="G67" s="1">
         <v>92</v>
@@ -25922,7 +25908,7 @@
         <v>518</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="G68" s="1">
         <v>92</v>
@@ -26014,7 +26000,7 @@
         <v>518</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="G72" s="1">
         <v>98</v>
@@ -27743,7 +27729,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -27757,7 +27743,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -27771,7 +27757,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
@@ -27785,7 +27771,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="C5" s="6">
         <v>4</v>
@@ -27799,7 +27785,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
@@ -27813,7 +27799,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="C7" s="6">
         <v>6</v>
@@ -27827,7 +27813,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="C8" s="6">
         <v>7</v>
@@ -27841,7 +27827,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="C9" s="6">
         <v>8</v>
@@ -27855,7 +27841,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
@@ -27869,7 +27855,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
@@ -27883,7 +27869,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="C12" s="6">
         <v>100</v>
@@ -27897,7 +27883,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -27911,7 +27897,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>86</v>
@@ -27925,7 +27911,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>87</v>
@@ -28163,7 +28149,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>157</v>
@@ -28317,7 +28303,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>168</v>
@@ -28471,7 +28457,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>179</v>
@@ -28569,7 +28555,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>208</v>
@@ -28709,7 +28695,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>227</v>
@@ -28723,7 +28709,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>168</v>
@@ -28737,7 +28723,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>228</v>
@@ -29535,7 +29521,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>337</v>
@@ -29626,7 +29612,7 @@
         <v>387</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="D136" s="6">
         <v>25</v>
@@ -31032,7 +31018,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>637</v>
@@ -31382,7 +31368,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>685</v>
@@ -32194,7 +32180,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>812</v>
@@ -32222,7 +32208,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>814</v>
@@ -34182,7 +34168,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>1162</v>
@@ -34910,7 +34896,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="C512" s="6" t="s">
         <v>1274</v>
@@ -36660,7 +36646,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="6" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="C637" s="6" t="s">
         <v>1617</v>
@@ -36814,7 +36800,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="C648" s="6" t="s">
         <v>1634</v>
@@ -36954,7 +36940,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="6" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="C658" s="6" t="s">
         <v>1662</v>
@@ -36996,7 +36982,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="C661" s="6" t="s">
         <v>1667</v>
@@ -37010,7 +36996,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="6" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="C662" s="6" t="s">
         <v>1668</v>
@@ -37024,7 +37010,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="6" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="C663" s="6" t="s">
         <v>1669</v>
@@ -37038,7 +37024,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="6" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="C664" s="6" t="s">
         <v>1670</v>
@@ -37052,7 +37038,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="6" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="C665" s="6" t="s">
         <v>1671</v>
@@ -37066,7 +37052,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="6" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="C666" s="6" t="s">
         <v>1672</v>
@@ -37080,7 +37066,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="6" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="C667" s="6" t="s">
         <v>1673</v>
@@ -37122,7 +37108,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="6" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="C670" s="6" t="s">
         <v>1675</v>
@@ -37136,7 +37122,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="6" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="C671" s="6" t="s">
         <v>1676</v>
@@ -37150,7 +37136,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="6" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="C672" s="6" t="s">
         <v>1677</v>
@@ -37164,7 +37150,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="6" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="C673" s="6" t="s">
         <v>1678</v>
@@ -37178,7 +37164,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="6" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="C674" s="6" t="s">
         <v>500</v>
@@ -37318,7 +37304,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="6" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="C684" s="6" t="s">
         <v>1704</v>
@@ -37332,7 +37318,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="6" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="C685" s="6" t="s">
         <v>1705</v>
@@ -37374,7 +37360,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="6" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="C688" s="6" t="s">
         <v>1716</v>
@@ -37402,7 +37388,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="6" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="C690" s="6" t="s">
         <v>1031</v>
@@ -38452,7 +38438,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="6" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="C765" s="6" t="s">
         <v>1908</v>
@@ -38634,7 +38620,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="6" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="C778" s="6" t="s">
         <v>1943</v>
@@ -38732,7 +38718,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="6" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="C785" s="6" t="s">
         <v>1956</v>
@@ -38872,7 +38858,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="6" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="C795" s="6" t="s">
         <v>1988</v>
@@ -38886,7 +38872,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="6" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="C796" s="6" t="s">
         <v>1989</v>
@@ -39362,7 +39348,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="6" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="C830" s="6" t="s">
         <v>2074</v>
@@ -40472,7 +40458,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>518</v>
@@ -40489,7 +40475,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>518</v>
@@ -40503,10 +40489,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>518</v>
@@ -40523,7 +40509,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>518</v>
@@ -40540,7 +40526,7 @@
         <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>518</v>
@@ -40557,7 +40543,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>518</v>
@@ -40574,7 +40560,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>518</v>
@@ -40591,7 +40577,7 @@
         <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>518</v>
@@ -40608,7 +40594,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>518</v>
@@ -40625,7 +40611,7 @@
         <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>518</v>
@@ -40642,7 +40628,7 @@
         <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>518</v>
@@ -40659,7 +40645,7 @@
         <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>518</v>
@@ -40673,10 +40659,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>518</v>
@@ -40693,7 +40679,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>518</v>
@@ -40710,7 +40696,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>518</v>
@@ -40727,7 +40713,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>518</v>
@@ -40744,7 +40730,7 @@
         <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>518</v>
@@ -40761,7 +40747,7 @@
         <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>518</v>
@@ -40778,7 +40764,7 @@
         <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>518</v>
@@ -40792,10 +40778,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>518</v>
@@ -40812,7 +40798,7 @@
         <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>518</v>
@@ -40829,7 +40815,7 @@
         <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>518</v>
@@ -40846,7 +40832,7 @@
         <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>518</v>
@@ -40863,7 +40849,7 @@
         <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>518</v>
@@ -40880,7 +40866,7 @@
         <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>518</v>
@@ -40897,7 +40883,7 @@
         <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>518</v>
@@ -40914,7 +40900,7 @@
         <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>518</v>
@@ -40931,10 +40917,10 @@
         <v>183</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="E29" s="1">
         <v>13</v>
@@ -40948,10 +40934,10 @@
         <v>184</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="E30" s="1">
         <v>13</v>
@@ -40965,7 +40951,7 @@
         <v>185</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>186</v>
@@ -40982,7 +40968,7 @@
         <v>187</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>188</v>
@@ -40999,7 +40985,7 @@
         <v>189</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>190</v>
@@ -41016,7 +41002,7 @@
         <v>191</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>192</v>
@@ -41033,10 +41019,10 @@
         <v>193</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="E35" s="1">
         <v>13</v>
@@ -41050,7 +41036,7 @@
         <v>512</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>518</v>
@@ -41067,7 +41053,7 @@
         <v>513</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>518</v>
@@ -41084,7 +41070,7 @@
         <v>514</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>518</v>
@@ -41101,7 +41087,7 @@
         <v>515</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>518</v>
@@ -41118,7 +41104,7 @@
         <v>516</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>518</v>
@@ -41135,7 +41121,7 @@
         <v>517</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>518</v>
@@ -41149,10 +41135,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>518</v>
@@ -41169,7 +41155,7 @@
         <v>2269</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>518</v>
@@ -41186,7 +41172,7 @@
         <v>2270</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>518</v>
@@ -41203,7 +41189,7 @@
         <v>2271</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>518</v>
@@ -41220,7 +41206,7 @@
         <v>2272</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>518</v>
@@ -41237,7 +41223,7 @@
         <v>2273</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>518</v>
@@ -41285,7 +41271,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>917</v>
@@ -41319,7 +41305,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>917</v>
@@ -41353,10 +41339,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>518</v>
@@ -41370,10 +41356,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>518</v>
@@ -41390,7 +41376,7 @@
         <v>2274</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>518</v>
@@ -41407,7 +41393,7 @@
         <v>2275</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>518</v>
@@ -41424,7 +41410,7 @@
         <v>2276</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>518</v>
@@ -41438,10 +41424,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>518</v>
@@ -41458,7 +41444,7 @@
         <v>2277</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>518</v>
@@ -41475,7 +41461,7 @@
         <v>2278</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>518</v>
@@ -41492,7 +41478,7 @@
         <v>2279</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>518</v>
@@ -41509,7 +41495,7 @@
         <v>1393</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>518</v>
@@ -41526,7 +41512,7 @@
         <v>1455</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>518</v>
@@ -41543,7 +41529,7 @@
         <v>1494</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>518</v>
@@ -41560,7 +41546,7 @@
         <v>1517</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>518</v>
@@ -41577,7 +41563,7 @@
         <v>1545</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>518</v>
@@ -41594,7 +41580,7 @@
         <v>1644</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>518</v>
@@ -41611,7 +41597,7 @@
         <v>1685</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>518</v>
@@ -41628,7 +41614,7 @@
         <v>1715</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>518</v>
@@ -41645,7 +41631,7 @@
         <v>1747</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>518</v>
@@ -41662,7 +41648,7 @@
         <v>1793</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>518</v>
@@ -41676,10 +41662,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>518</v>
@@ -41693,10 +41679,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>518</v>
@@ -41710,10 +41696,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>518</v>
@@ -41730,7 +41716,7 @@
         <v>1930</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>518</v>
@@ -41747,7 +41733,7 @@
         <v>1987</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>518</v>
@@ -41764,7 +41750,7 @@
         <v>2035</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>518</v>
@@ -41781,7 +41767,7 @@
         <v>2066</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>518</v>
@@ -41798,7 +41784,7 @@
         <v>2119</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>518</v>
@@ -41815,7 +41801,7 @@
         <v>2164</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>518</v>
@@ -41832,7 +41818,7 @@
         <v>2235</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>518</v>
@@ -41849,7 +41835,7 @@
         <v>2267</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>518</v>
